--- a/data_clean/NEL 14.01.2021.xlsx
+++ b/data_clean/NEL 14.01.2021.xlsx
@@ -1695,7 +1695,7 @@
         <v>0.9623777811634334</v>
       </c>
       <c r="K2">
-        <v>47.87323293671435</v>
+        <v>-0.02126767063285616</v>
       </c>
       <c r="L2">
         <v>-0.009605008197086368</v>
@@ -1725,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1766,7 +1766,7 @@
         <v>0.9623777811634334</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.1165150327196621</v>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1837,7 +1837,7 @@
         <v>1.979166666666591</v>
       </c>
       <c r="K4">
-        <v>66.43356643356559</v>
+        <v>0.1643356643356558</v>
       </c>
       <c r="L4">
         <v>0.06518578138849505</v>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000048697345995</v>
+        <v>4.869734599455278E-05</v>
       </c>
       <c r="V4">
-        <v>1.000048697345995</v>
+        <v>4.869734599455278E-05</v>
       </c>
       <c r="W4">
-        <v>0.9965065502183404</v>
+        <v>-0.003493449781659552</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1908,7 +1908,7 @@
         <v>0.8882874015748108</v>
       </c>
       <c r="K5">
-        <v>47.04195986447767</v>
+        <v>-0.02958040135522333</v>
       </c>
       <c r="L5">
         <v>0.0295899636611838</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9990017530190886</v>
+        <v>-0.0009982469809114436</v>
       </c>
       <c r="V5">
-        <v>0.9990017530190886</v>
+        <v>-0.0009982469809114436</v>
       </c>
       <c r="W5">
-        <v>0.995910020449898</v>
+        <v>-0.004089979550102041</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1979,7 +1979,7 @@
         <v>1.509920223787823</v>
       </c>
       <c r="K6">
-        <v>60.15809624057058</v>
+        <v>0.1015809624057058</v>
       </c>
       <c r="L6">
         <v>0.01918859925419761</v>
@@ -2009,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000277838707319</v>
+        <v>0.0002778387073187893</v>
       </c>
       <c r="V6">
-        <v>1.000277838707319</v>
+        <v>0.0002778387073187893</v>
       </c>
       <c r="W6">
-        <v>1.004400117336462</v>
+        <v>0.004400117336462284</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2050,7 +2050,7 @@
         <v>1.119299440554901</v>
       </c>
       <c r="K7">
-        <v>52.81459614134717</v>
+        <v>0.0281459614134717</v>
       </c>
       <c r="L7">
         <v>0.01175575577041634</v>
@@ -2080,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.999795333606222</v>
+        <v>-0.0002046663937780302</v>
       </c>
       <c r="V7">
-        <v>0.999795333606222</v>
+        <v>-0.0002046663937780302</v>
       </c>
       <c r="W7">
-        <v>0.997663551401869</v>
+        <v>-0.00233644859813098</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2121,7 +2121,7 @@
         <v>1.391618312337831</v>
       </c>
       <c r="K8">
-        <v>58.18730794787693</v>
+        <v>0.08187307947876932</v>
       </c>
       <c r="L8">
         <v>0.009257023838314477</v>
@@ -2151,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000187997409814</v>
+        <v>0.0001879974098135673</v>
       </c>
       <c r="V8">
-        <v>1.000187997409814</v>
+        <v>0.0001879974098135673</v>
       </c>
       <c r="W8">
-        <v>1.002341920374707</v>
+        <v>0.002341920374707485</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2192,7 +2192,7 @@
         <v>0.8279513610245132</v>
       </c>
       <c r="K9">
-        <v>45.29394920882745</v>
+        <v>-0.0470605079117255</v>
       </c>
       <c r="L9">
         <v>0.003405814491229876</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9994465561171212</v>
+        <v>-0.0005534438828788124</v>
       </c>
       <c r="V9">
-        <v>0.9994465561171212</v>
+        <v>-0.0005534438828788124</v>
       </c>
       <c r="W9">
-        <v>0.9944509345794391</v>
+        <v>-0.005549065420560884</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2263,7 +2263,7 @@
         <v>0.6888337375331036</v>
       </c>
       <c r="K10">
-        <v>40.78754007717124</v>
+        <v>-0.09212459922828758</v>
       </c>
       <c r="L10">
         <v>-0.004579713725727877</v>
@@ -2293,13 +2293,13 @@
         <v>0.007222222222218022</v>
       </c>
       <c r="U10">
-        <v>0.9992767579251893</v>
+        <v>-0.0007232420748106705</v>
       </c>
       <c r="V10">
-        <v>0.9992767579251893</v>
+        <v>-0.0007232420748106705</v>
       </c>
       <c r="W10">
-        <v>0.9973568281938328</v>
+        <v>-0.002643171806167244</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2334,7 +2334,7 @@
         <v>0.708485939149008</v>
       </c>
       <c r="K11">
-        <v>41.46864325391538</v>
+        <v>-0.08531356746084617</v>
       </c>
       <c r="L11">
         <v>-0.01193719277303124</v>
@@ -2364,13 +2364,13 @@
         <v>-0.02149999999999608</v>
       </c>
       <c r="U11">
-        <v>0.9994502634831824</v>
+        <v>-0.0005497365168175561</v>
       </c>
       <c r="V11">
-        <v>0.9994502634831824</v>
+        <v>-0.0005497365168175561</v>
       </c>
       <c r="W11">
-        <v>1.000294464075383</v>
+        <v>0.0002944640753828054</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2405,7 +2405,7 @@
         <v>0.7705455231992466</v>
       </c>
       <c r="K12">
-        <v>43.52023221673098</v>
+        <v>-0.06479767783269019</v>
       </c>
       <c r="L12">
         <v>-0.01747845018653084</v>
@@ -2435,13 +2435,13 @@
         <v>-0.03761363636363768</v>
       </c>
       <c r="U12">
-        <v>0.9996298554838642</v>
+        <v>-0.0003701445161358174</v>
       </c>
       <c r="V12">
-        <v>0.9996298554838642</v>
+        <v>-0.0003701445161358174</v>
       </c>
       <c r="W12">
-        <v>1.000883132175449</v>
+        <v>0.0008831321754489974</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2476,7 +2476,7 @@
         <v>0.6948885189100531</v>
       </c>
       <c r="K13">
-        <v>40.99906932857868</v>
+        <v>-0.09000930671421314</v>
       </c>
       <c r="L13">
         <v>-0.02230722609324597</v>
@@ -2506,13 +2506,13 @@
         <v>-0.04041666666667254</v>
       </c>
       <c r="U13">
-        <v>0.9995693367786392</v>
+        <v>-0.0004306632213607609</v>
       </c>
       <c r="V13">
-        <v>0.9995693367786392</v>
+        <v>-0.0004306632213607609</v>
       </c>
       <c r="W13">
-        <v>0.998529411764706</v>
+        <v>-0.001470588235294001</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2547,7 +2547,7 @@
         <v>0.5661565404834181</v>
       </c>
       <c r="K14">
-        <v>36.14942222242134</v>
+        <v>-0.1385057777757865</v>
       </c>
       <c r="L14">
         <v>-0.0278609841385816</v>
@@ -2577,13 +2577,13 @@
         <v>-0.06951923076923805</v>
       </c>
       <c r="U14">
-        <v>0.9993873815635675</v>
+        <v>-0.0006126184364324549</v>
       </c>
       <c r="V14">
-        <v>0.9993873815635675</v>
+        <v>-0.0006126184364324549</v>
       </c>
       <c r="W14">
-        <v>0.996759941089838</v>
+        <v>-0.003240058910161991</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2618,7 +2618,7 @@
         <v>0.6370677688313925</v>
       </c>
       <c r="K15">
-        <v>38.91517388349525</v>
+        <v>-0.1108482611650475</v>
       </c>
       <c r="L15">
         <v>-0.03250738423704386</v>
@@ -2648,13 +2648,13 @@
         <v>-0.08946428571427845</v>
       </c>
       <c r="U15">
-        <v>0.9995583864666403</v>
+        <v>-0.0004416135333596971</v>
       </c>
       <c r="V15">
-        <v>0.9995583864666403</v>
+        <v>-0.0004416135333596971</v>
       </c>
       <c r="W15">
-        <v>1.001182033096927</v>
+        <v>0.001182033096926771</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2689,7 +2689,7 @@
         <v>0.6743894679618988</v>
       </c>
       <c r="K16">
-        <v>40.27673852862796</v>
+        <v>-0.09723261471372041</v>
       </c>
       <c r="L16">
         <v>-0.03584023376010192</v>
@@ -2719,13 +2719,13 @@
         <v>-0.1202499999999986</v>
       </c>
       <c r="U16">
-        <v>0.9996562277281684</v>
+        <v>-0.0003437722718315772</v>
       </c>
       <c r="V16">
-        <v>0.9996562277281684</v>
+        <v>-0.0003437722718315772</v>
       </c>
       <c r="W16">
-        <v>1.000590318772137</v>
+        <v>0.0005903187721367775</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2760,7 +2760,7 @@
         <v>0.7529614661313995</v>
       </c>
       <c r="K17">
-        <v>42.95368042476746</v>
+        <v>-0.07046319575232546</v>
       </c>
       <c r="L17">
         <v>-0.037505573977374</v>
@@ -2790,13 +2790,13 @@
         <v>-0.1262499999999989</v>
       </c>
       <c r="U17">
-        <v>0.9997724870831376</v>
+        <v>-0.0002275129168624046</v>
       </c>
       <c r="V17">
-        <v>0.9996868639423828</v>
+        <v>-0.0003131360576171804</v>
       </c>
       <c r="W17">
-        <v>1.00117994100295</v>
+        <v>0.001179941002949825</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2831,7 +2831,7 @@
         <v>0.669858159665514</v>
       </c>
       <c r="K18">
-        <v>40.11467415889335</v>
+        <v>-0.09885325841106651</v>
       </c>
       <c r="L18">
         <v>-0.03873919625224653</v>
@@ -2861,13 +2861,13 @@
         <v>-0.1224999999999952</v>
       </c>
       <c r="U18">
-        <v>0.9996955728520075</v>
+        <v>-0.0003044271479925031</v>
       </c>
       <c r="V18">
-        <v>0.9990798747063433</v>
+        <v>-0.0009201252936567039</v>
       </c>
       <c r="W18">
-        <v>0.9982321744254569</v>
+        <v>-0.001767825574543136</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2902,7 +2902,7 @@
         <v>0.7666727252571841</v>
       </c>
       <c r="K19">
-        <v>43.39642053089236</v>
+        <v>-0.06603579469107645</v>
       </c>
       <c r="L19">
         <v>-0.03884760958652806</v>
@@ -2932,13 +2932,13 @@
         <v>-0.1012500000000003</v>
       </c>
       <c r="U19">
-        <v>0.9998109049302941</v>
+        <v>-0.0001890950697058802</v>
       </c>
       <c r="V19">
-        <v>0.9994121450825934</v>
+        <v>-0.0005878549174066494</v>
       </c>
       <c r="W19">
-        <v>1.001475796930342</v>
+        <v>0.001475796930342277</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2973,7 +2973,7 @@
         <v>0.7666727252571841</v>
       </c>
       <c r="K20">
-        <v>43.39642053089236</v>
+        <v>-0.06603579469107645</v>
       </c>
       <c r="L20">
         <v>-0.03815543382870006</v>
@@ -3003,13 +3003,13 @@
         <v>-0.09125000000000227</v>
       </c>
       <c r="U20">
-        <v>0.9998307776753662</v>
+        <v>-0.0001692223246337887</v>
       </c>
       <c r="V20">
-        <v>0.9996862929631593</v>
+        <v>-0.0003137070368407491</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3044,7 +3044,7 @@
         <v>0.959765487656101</v>
       </c>
       <c r="K21">
-        <v>48.97348655751613</v>
+        <v>-0.01026513442483873</v>
       </c>
       <c r="L21">
         <v>-0.03583118325428251</v>
@@ -3074,13 +3074,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U21">
-        <v>0.9999798960781888</v>
+        <v>-2.010392181117648E-05</v>
       </c>
       <c r="V21">
-        <v>0.9995685174652361</v>
+        <v>-0.0004314825347638829</v>
       </c>
       <c r="W21">
-        <v>1.002652519893899</v>
+        <v>0.002652519893899363</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3115,7 +3115,7 @@
         <v>0.8452332596076255</v>
       </c>
       <c r="K22">
-        <v>45.80630959293232</v>
+        <v>-0.04193690407067679</v>
       </c>
       <c r="L22">
         <v>-0.03329786195537299</v>
@@ -3145,13 +3145,13 @@
         <v>-0.04562500000000114</v>
       </c>
       <c r="U22">
-        <v>0.9998978582412308</v>
+        <v>-0.0001021417587692142</v>
       </c>
       <c r="V22">
-        <v>0.9996075738251741</v>
+        <v>-0.0003924261748259328</v>
       </c>
       <c r="W22">
-        <v>0.9982363315696648</v>
+        <v>-0.001763668430335152</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3186,7 +3186,7 @@
         <v>0.8871046825755512</v>
       </c>
       <c r="K23">
-        <v>47.008769082424</v>
+        <v>-0.02991230917576004</v>
       </c>
       <c r="L23">
         <v>-0.03045663110878094</v>
@@ -3216,13 +3216,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U23">
-        <v>0.9999338491404206</v>
+        <v>-6.615085957939471E-05</v>
       </c>
       <c r="V23">
-        <v>0.9994896456963392</v>
+        <v>-0.0005103543036607538</v>
       </c>
       <c r="W23">
-        <v>1.000588928150765</v>
+        <v>0.0005889281507653887</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3257,7 +3257,7 @@
         <v>1.151555775004618</v>
       </c>
       <c r="K24">
-        <v>53.52200432741031</v>
+        <v>0.03522004327410311</v>
       </c>
       <c r="L24">
         <v>-0.02614245726673286</v>
@@ -3287,13 +3287,13 @@
         <v>0.01187500000000341</v>
       </c>
       <c r="U24">
-        <v>1.000092927087084</v>
+        <v>9.292708708441566E-05</v>
       </c>
       <c r="V24">
-        <v>1.000098195172725</v>
+        <v>9.819517272546818E-05</v>
       </c>
       <c r="W24">
-        <v>1.003531489111242</v>
+        <v>0.003531489111242125</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3328,7 +3328,7 @@
         <v>1.151555775004618</v>
       </c>
       <c r="K25">
-        <v>53.52200432741031</v>
+        <v>0.03522004327410311</v>
       </c>
       <c r="L25">
         <v>-0.02115929482297274</v>
@@ -3358,13 +3358,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U25">
-        <v>1.000085175248073</v>
+        <v>8.51752480726109E-05</v>
       </c>
       <c r="V25">
-        <v>1.000274919487864</v>
+        <v>0.0002749194878641781</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3399,7 +3399,7 @@
         <v>1.224810925261977</v>
       </c>
       <c r="K26">
-        <v>55.05236024125297</v>
+        <v>0.05052360241252973</v>
       </c>
       <c r="L26">
         <v>-0.01570111095008951</v>
@@ -3429,13 +3429,13 @@
         <v>0.04937500000000483</v>
       </c>
       <c r="U26">
-        <v>1.00011361410382</v>
+        <v>0.0001136141038200478</v>
       </c>
       <c r="V26">
-        <v>1.000314107346185</v>
+        <v>0.0003141073461854216</v>
       </c>
       <c r="W26">
-        <v>1.000879765395895</v>
+        <v>0.0008797653958945162</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3470,7 +3470,7 @@
         <v>1.015910733231309</v>
       </c>
       <c r="K27">
-        <v>50.39462891310185</v>
+        <v>0.003946289131018466</v>
       </c>
       <c r="L27">
         <v>-0.01115784210040577</v>
@@ -3500,13 +3500,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U27">
-        <v>1.000014463812896</v>
+        <v>1.446381289604837E-05</v>
       </c>
       <c r="V27">
-        <v>1.000098127723045</v>
+        <v>9.812772304451656E-05</v>
       </c>
       <c r="W27">
-        <v>0.99765602109581</v>
+        <v>-0.002343978904190025</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3541,7 +3541,7 @@
         <v>0.9722718235628235</v>
       </c>
       <c r="K28">
-        <v>49.2970498258428</v>
+        <v>-0.00702950174157202</v>
       </c>
       <c r="L28">
         <v>-0.007637648043878949</v>
@@ -3571,13 +3571,13 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="U28">
-        <v>0.9999916298589714</v>
+        <v>-8.370141028612998E-06</v>
       </c>
       <c r="V28">
-        <v>1.000156988951902</v>
+        <v>0.0001569889519021928</v>
       </c>
       <c r="W28">
-        <v>0.9994126284875184</v>
+        <v>-0.0005873715124815604</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3612,7 +3612,7 @@
         <v>1.107920634679669</v>
       </c>
       <c r="K29">
-        <v>52.55988372864117</v>
+        <v>0.02559883728641166</v>
       </c>
       <c r="L29">
         <v>-0.004269079416573378</v>
@@ -3642,13 +3642,13 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="U29">
-        <v>1.000055183605961</v>
+        <v>5.518360596123983E-05</v>
       </c>
       <c r="V29">
-        <v>1.0004905134695</v>
+        <v>0.0004905134695001312</v>
       </c>
       <c r="W29">
-        <v>1.001763150161622</v>
+        <v>0.001763150161622207</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3683,7 +3683,7 @@
         <v>1.082167180047531</v>
       </c>
       <c r="K30">
-        <v>51.97311678031672</v>
+        <v>0.01973116780316719</v>
       </c>
       <c r="L30">
         <v>-0.001305777910370092</v>
@@ -3713,13 +3713,13 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="U30">
-        <v>1.000041244722303</v>
+        <v>4.124472230349063E-05</v>
       </c>
       <c r="V30">
-        <v>1.000392218387198</v>
+        <v>0.0003922183871980511</v>
       </c>
       <c r="W30">
-        <v>0.9997066588442357</v>
+        <v>-0.0002933411557642929</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3754,7 +3754,7 @@
         <v>0.8210131629326484</v>
       </c>
       <c r="K31">
-        <v>45.08551501134944</v>
+        <v>-0.04914484988650558</v>
       </c>
       <c r="L31">
         <v>-0.0001933733787462694</v>
@@ -3784,13 +3784,13 @@
         <v>0.06187499999999346</v>
       </c>
       <c r="U31">
-        <v>0.9999111948513273</v>
+        <v>-8.880514867271039E-05</v>
       </c>
       <c r="V31">
-        <v>1.000098016153062</v>
+        <v>9.801615306193057E-05</v>
       </c>
       <c r="W31">
-        <v>0.9961854460093899</v>
+        <v>-0.003814553990610148</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3825,7 +3825,7 @@
         <v>0.8210131629326485</v>
       </c>
       <c r="K32">
-        <v>45.08551501134944</v>
+        <v>-0.04914484988650558</v>
       </c>
       <c r="L32">
         <v>-0.0002614594303463938</v>
@@ -3855,13 +3855,13 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="U32">
-        <v>0.9998531039142909</v>
+        <v>-0.0001468960857090584</v>
       </c>
       <c r="V32">
-        <v>1.000019601309368</v>
+        <v>1.960130936762283E-05</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3896,7 +3896,7 @@
         <v>0.5349343806889086</v>
       </c>
       <c r="K33">
-        <v>34.85063514238436</v>
+        <v>-0.1514936485761564</v>
       </c>
       <c r="L33">
         <v>-0.003855717872004059</v>
@@ -3926,13 +3926,13 @@
         <v>0.004375000000003126</v>
       </c>
       <c r="U33">
-        <v>0.9993535622637074</v>
+        <v>-0.0006464377362925822</v>
       </c>
       <c r="V33">
-        <v>0.9996275824218901</v>
+        <v>-0.0003724175781099071</v>
       </c>
       <c r="W33">
-        <v>0.9923416789396169</v>
+        <v>-0.007658321060383111</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3967,7 +3967,7 @@
         <v>0.5349343806889086</v>
       </c>
       <c r="K34">
-        <v>34.85063514238436</v>
+        <v>-0.1514936485761564</v>
       </c>
       <c r="L34">
         <v>-0.009322450292782959</v>
@@ -3997,13 +3997,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U34">
-        <v>0.9994707542731693</v>
+        <v>-0.0005292457268306627</v>
       </c>
       <c r="V34">
-        <v>0.9995294025373047</v>
+        <v>-0.000470597462695288</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4038,7 +4038,7 @@
         <v>0.594332810033263</v>
       </c>
       <c r="K35">
-        <v>37.27783849727481</v>
+        <v>-0.1272216150272519</v>
       </c>
       <c r="L35">
         <v>-0.01509696305329811</v>
@@ -4068,13 +4068,13 @@
         <v>-0.06625000000000369</v>
       </c>
       <c r="U35">
-        <v>0.9996469826825394</v>
+        <v>-0.0003530173174606244</v>
       </c>
       <c r="V35">
-        <v>0.9996076508092201</v>
+        <v>-0.0003923491907799059</v>
       </c>
       <c r="W35">
-        <v>1.001187295933511</v>
+        <v>0.001187295933511301</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4109,7 +4109,7 @@
         <v>0.5004596061697547</v>
       </c>
       <c r="K36">
-        <v>33.35375401722978</v>
+        <v>-0.1664624598277022</v>
       </c>
       <c r="L36">
         <v>-0.02192674842596832</v>
@@ -4139,13 +4139,13 @@
         <v>-0.09875000000000966</v>
       </c>
       <c r="U36">
-        <v>0.9993820015302817</v>
+        <v>-0.0006179984697183283</v>
       </c>
       <c r="V36">
-        <v>0.9991953684623688</v>
+        <v>-0.0008046315376312174</v>
       </c>
       <c r="W36">
-        <v>0.9964423361992293</v>
+        <v>-0.003557663800770716</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4180,7 +4180,7 @@
         <v>0.5835897120090811</v>
       </c>
       <c r="K37">
-        <v>36.85233034689823</v>
+        <v>-0.1314766965310177</v>
       </c>
       <c r="L37">
         <v>-0.02822828807695141</v>
@@ -4210,13 +4210,13 @@
         <v>-0.129374999999996</v>
       </c>
       <c r="U37">
-        <v>0.9995190372893336</v>
+        <v>-0.0004809627106664438</v>
       </c>
       <c r="V37">
-        <v>0.9994304120674077</v>
+        <v>-0.0005695879325923192</v>
       </c>
       <c r="W37">
-        <v>1.001785182981256</v>
+        <v>0.001785182981255629</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4251,7 +4251,7 @@
         <v>0.5439260046941767</v>
       </c>
       <c r="K38">
-        <v>35.2300565597325</v>
+        <v>-0.147699434402675</v>
       </c>
       <c r="L38">
         <v>-0.03424424055404175</v>
@@ -4281,13 +4281,13 @@
         <v>-0.1656249999999986</v>
       </c>
       <c r="U38">
-        <v>0.9993911420995778</v>
+        <v>-0.0006088579004221994</v>
       </c>
       <c r="V38">
-        <v>0.9992925223543283</v>
+        <v>-0.0007074776456716947</v>
       </c>
       <c r="W38">
-        <v>0.9985149985149984</v>
+        <v>-0.001485001485001636</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4322,7 +4322,7 @@
         <v>0.5868513030659298</v>
       </c>
       <c r="K39">
-        <v>36.98212314739786</v>
+        <v>-0.1301787685260213</v>
       </c>
       <c r="L39">
         <v>-0.03925618479932008</v>
@@ -4352,13 +4352,13 @@
         <v>-0.1824999999999974</v>
       </c>
       <c r="U39">
-        <v>0.9996069491392183</v>
+        <v>-0.0003930508607816741</v>
       </c>
       <c r="V39">
-        <v>0.9991150268441858</v>
+        <v>-0.0008849731558141505</v>
       </c>
       <c r="W39">
-        <v>1.000892325996431</v>
+        <v>0.0008923259964306318</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4393,7 +4393,7 @@
         <v>0.578143588664134</v>
       </c>
       <c r="K40">
-        <v>36.63440974680388</v>
+        <v>-0.1336559025319612</v>
       </c>
       <c r="L40">
         <v>-0.04330679877671564</v>
@@ -4423,13 +4423,13 @@
         <v>-0.1925000000000026</v>
       </c>
       <c r="U40">
-        <v>0.9996854356715951</v>
+        <v>-0.0003145643284049315</v>
       </c>
       <c r="V40">
-        <v>0.9990945594835052</v>
+        <v>-0.000905440516494771</v>
       </c>
       <c r="W40">
-        <v>0.9997028231797921</v>
+        <v>-0.0002971768202079117</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4464,7 +4464,7 @@
         <v>0.5211633333202779</v>
       </c>
       <c r="K41">
-        <v>34.2608398391199</v>
+        <v>-0.1573916016088011</v>
       </c>
       <c r="L41">
         <v>-0.04711439312828941</v>
@@ -4494,13 +4494,13 @@
         <v>-0.1743749999999977</v>
       </c>
       <c r="U41">
-        <v>0.9996066708621774</v>
+        <v>-0.00039332913782264</v>
       </c>
       <c r="V41">
-        <v>0.998896725639308</v>
+        <v>-0.001103274360692019</v>
       </c>
       <c r="W41">
-        <v>0.9979191438763377</v>
+        <v>-0.002080856123662267</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4535,7 +4535,7 @@
         <v>0.3974603578783494</v>
       </c>
       <c r="K42">
-        <v>28.44161951626171</v>
+        <v>-0.2155838048373829</v>
       </c>
       <c r="L42">
         <v>-0.0526226719106937</v>
@@ -4565,13 +4565,13 @@
         <v>-0.1674999999999969</v>
       </c>
       <c r="U42">
-        <v>0.9993704257495869</v>
+        <v>-0.0006295742504131008</v>
       </c>
       <c r="V42">
-        <v>0.9986391069385824</v>
+        <v>-0.001360893061417623</v>
       </c>
       <c r="W42">
-        <v>0.9937444146559428</v>
+        <v>-0.006255585344057235</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4606,7 +4606,7 @@
         <v>0.5045397512564165</v>
       </c>
       <c r="K43">
-        <v>33.53449125123372</v>
+        <v>-0.1646550874876628</v>
       </c>
       <c r="L43">
         <v>-0.05765297287288119</v>
@@ -4636,13 +4636,13 @@
         <v>-0.1649999999999991</v>
       </c>
       <c r="U43">
-        <v>0.9995078352626189</v>
+        <v>-0.0004921647373811178</v>
       </c>
       <c r="V43">
-        <v>0.9988545020046216</v>
+        <v>-0.001145497995378442</v>
       </c>
       <c r="W43">
-        <v>1.002697841726619</v>
+        <v>0.002697841726618799</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4677,7 +4677,7 @@
         <v>0.5045397512564165</v>
       </c>
       <c r="K44">
-        <v>33.53449125123372</v>
+        <v>-0.1646550874876628</v>
       </c>
       <c r="L44">
         <v>-0.06186672376010426</v>
@@ -4707,13 +4707,13 @@
         <v>-0.1487499999999997</v>
       </c>
       <c r="U44">
-        <v>0.999615922475429</v>
+        <v>-0.0003840775245710359</v>
       </c>
       <c r="V44">
-        <v>0.9987345526445872</v>
+        <v>-0.001265447355412785</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4748,7 +4748,7 @@
         <v>0.5045397512564165</v>
       </c>
       <c r="K45">
-        <v>33.53449125123372</v>
+        <v>-0.1646550874876628</v>
       </c>
       <c r="L45">
         <v>-0.06509540067562269</v>
@@ -4778,13 +4778,13 @@
         <v>-0.1362499999999969</v>
       </c>
       <c r="U45">
-        <v>0.9995763672009694</v>
+        <v>-0.0004236327990305711</v>
       </c>
       <c r="V45">
-        <v>0.998752746926412</v>
+        <v>-0.001247253073587973</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4819,7 +4819,7 @@
         <v>0.5739242701387005</v>
       </c>
       <c r="K46">
-        <v>36.46454159374034</v>
+        <v>-0.1353545840625966</v>
       </c>
       <c r="L46">
         <v>-0.06674888668846626</v>
@@ -4849,13 +4849,13 @@
         <v>-0.115000000000002</v>
       </c>
       <c r="U46">
-        <v>0.999605755962941</v>
+        <v>-0.0003942440370590106</v>
       </c>
       <c r="V46">
-        <v>0.9991079923882019</v>
+        <v>-0.0008920076117980846</v>
       </c>
       <c r="W46">
-        <v>1.001494768310912</v>
+        <v>0.001494768310911665</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4890,7 +4890,7 @@
         <v>0.5498297404492806</v>
       </c>
       <c r="K47">
-        <v>35.4767834233127</v>
+        <v>-0.145232165766873</v>
       </c>
       <c r="L47">
         <v>-0.06742455979599639</v>
@@ -4920,13 +4920,13 @@
         <v>-0.1075000000000017</v>
       </c>
       <c r="U47">
-        <v>0.9995365805561035</v>
+        <v>-0.0004634194438964956</v>
       </c>
       <c r="V47">
-        <v>0.9990476757335872</v>
+        <v>-0.0009523242664127851</v>
       </c>
       <c r="W47">
-        <v>0.9991044776119402</v>
+        <v>-0.0008955223880597885</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4961,7 +4961,7 @@
         <v>0.5792908431888945</v>
       </c>
       <c r="K48">
-        <v>36.68044082489543</v>
+        <v>-0.1331955917510457</v>
       </c>
       <c r="L48">
         <v>-0.06700523888756736</v>
@@ -4991,13 +4991,13 @@
         <v>-0.09749999999999659</v>
       </c>
       <c r="U48">
-        <v>0.9996152821757271</v>
+        <v>-0.0003847178242728511</v>
       </c>
       <c r="V48">
-        <v>0.999602819978155</v>
+        <v>-0.0003971800218449673</v>
       </c>
       <c r="W48">
-        <v>1.000597550044816</v>
+        <v>0.0005975500448163196</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5032,7 +5032,7 @@
         <v>0.5454595984118082</v>
       </c>
       <c r="K49">
-        <v>35.29432920616946</v>
+        <v>-0.1470567079383053</v>
       </c>
       <c r="L49">
         <v>-0.06613754529002332</v>
@@ -5062,13 +5062,13 @@
         <v>-0.09749999999999659</v>
       </c>
       <c r="U49">
-        <v>0.9995263189057967</v>
+        <v>-0.0004736810942033154</v>
       </c>
       <c r="V49">
-        <v>0.9995231945962054</v>
+        <v>-0.0004768054037945779</v>
       </c>
       <c r="W49">
-        <v>0.9988056136160048</v>
+        <v>-0.001194386383995161</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5103,7 +5103,7 @@
         <v>0.5454595984118081</v>
       </c>
       <c r="K50">
-        <v>35.29432920616946</v>
+        <v>-0.1470567079383053</v>
       </c>
       <c r="L50">
         <v>-0.06481394425405997</v>
@@ -5133,13 +5133,13 @@
         <v>-0.07124999999999204</v>
       </c>
       <c r="U50">
-        <v>0.9995260944256857</v>
+        <v>-0.0004739055743142595</v>
       </c>
       <c r="V50">
-        <v>0.9994434616684226</v>
+        <v>-0.0005565383315774275</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5174,7 +5174,7 @@
         <v>0.4506780371424139</v>
       </c>
       <c r="K51">
-        <v>31.06671677680956</v>
+        <v>-0.1893328322319044</v>
       </c>
       <c r="L51">
         <v>-0.06446725278317793</v>
@@ -5204,13 +5204,13 @@
         <v>-0.06187500000000057</v>
       </c>
       <c r="U51">
-        <v>0.9993085600268674</v>
+        <v>-0.0006914399731325904</v>
       </c>
       <c r="V51">
-        <v>0.9994232643239265</v>
+        <v>-0.0005767356760735254</v>
       </c>
       <c r="W51">
-        <v>0.9961136023916293</v>
+        <v>-0.003886397608370729</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5245,7 +5245,7 @@
         <v>0.4444249746560938</v>
       </c>
       <c r="K52">
-        <v>30.7682975892817</v>
+        <v>-0.192317024107183</v>
       </c>
       <c r="L52">
         <v>-0.06461119120873093</v>
@@ -5275,13 +5275,13 @@
         <v>-0.06062500000000171</v>
       </c>
       <c r="U52">
-        <v>0.9993575043492012</v>
+        <v>-0.0006424956507987689</v>
       </c>
       <c r="V52">
-        <v>0.9992836391133044</v>
+        <v>-0.0007163608866955773</v>
       </c>
       <c r="W52">
-        <v>0.9996998799519808</v>
+        <v>-0.000300120048019159</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5316,7 +5316,7 @@
         <v>0.4141794371424742</v>
       </c>
       <c r="K53">
-        <v>29.28761557864081</v>
+        <v>-0.2071238442135919</v>
       </c>
       <c r="L53">
         <v>-0.06535154215706811</v>
@@ -5346,13 +5346,13 @@
         <v>-0.05875000000000341</v>
       </c>
       <c r="U53">
-        <v>0.9992878549597934</v>
+        <v>-0.0007121450402065577</v>
       </c>
       <c r="V53">
-        <v>0.9992831255725039</v>
+        <v>-0.0007168744274961281</v>
       </c>
       <c r="W53">
-        <v>0.998498949264485</v>
+        <v>-0.001501050735514986</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5387,7 +5387,7 @@
         <v>0.5431265879651181</v>
       </c>
       <c r="K54">
-        <v>35.19650249052641</v>
+        <v>-0.1480349750947358</v>
       </c>
       <c r="L54">
         <v>-0.0651982718003308</v>
@@ -5417,13 +5417,13 @@
         <v>-0.0606249999999946</v>
       </c>
       <c r="U54">
-        <v>0.999257653591472</v>
+        <v>-0.0007423464085279941</v>
       </c>
       <c r="V54">
-        <v>0.9994021760790723</v>
+        <v>-0.0005978239209276648</v>
       </c>
       <c r="W54">
-        <v>1.002705953096813</v>
+        <v>0.002705953096812985</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5458,7 +5458,7 @@
         <v>0.5883712022888528</v>
       </c>
       <c r="K55">
-        <v>37.04242443082613</v>
+        <v>-0.1295757556917387</v>
       </c>
       <c r="L55">
         <v>-0.06395233812480501</v>
@@ -5488,13 +5488,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U55">
-        <v>0.9992868180197313</v>
+        <v>-0.0007131819802687067</v>
       </c>
       <c r="V55">
-        <v>0.9994815760089328</v>
+        <v>-0.0005184239910671629</v>
       </c>
       <c r="W55">
-        <v>1.000899550224888</v>
+        <v>0.0008995502248876353</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5529,7 +5529,7 @@
         <v>0.5883712022888528</v>
       </c>
       <c r="K56">
-        <v>37.04242443082613</v>
+        <v>-0.1295757556917387</v>
       </c>
       <c r="L56">
         <v>-0.06189098571727641</v>
@@ -5559,13 +5559,13 @@
         <v>-0.05250000000000199</v>
       </c>
       <c r="U56">
-        <v>0.9992565719043652</v>
+        <v>-0.0007434280956347683</v>
       </c>
       <c r="V56">
-        <v>0.9996209551929138</v>
+        <v>-0.0003790448070861707</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5600,7 +5600,7 @@
         <v>0.6217928933867098</v>
       </c>
       <c r="K57">
-        <v>38.33984573013207</v>
+        <v>-0.1166015426986793</v>
       </c>
       <c r="L57">
         <v>-0.05902478006228996</v>
@@ -5630,13 +5630,13 @@
         <v>-0.04812499999999886</v>
       </c>
       <c r="U57">
-        <v>0.9993552163001321</v>
+        <v>-0.000644783699867868</v>
       </c>
       <c r="V57">
-        <v>1.000079829165585</v>
+        <v>7.982916558546549E-05</v>
       </c>
       <c r="W57">
-        <v>1.000599161174356</v>
+        <v>0.0005991611743558778</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5671,7 +5671,7 @@
         <v>0.6006611955629474</v>
       </c>
       <c r="K58">
-        <v>37.52581728275712</v>
+        <v>-0.1247418271724288</v>
       </c>
       <c r="L58">
         <v>-0.05585489340238898</v>
@@ -5701,13 +5701,13 @@
         <v>-0.05812499999999687</v>
       </c>
       <c r="U58">
-        <v>0.9993548002858733</v>
+        <v>-0.0006451997141266874</v>
       </c>
       <c r="V58">
-        <v>0.9998603101115524</v>
+        <v>-0.0001396898884475917</v>
       </c>
       <c r="W58">
-        <v>0.9994011976047905</v>
+        <v>-0.0005988023952094856</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5742,7 +5742,7 @@
         <v>0.5338222283496163</v>
       </c>
       <c r="K59">
-        <v>34.80339627911155</v>
+        <v>-0.1519660372088845</v>
       </c>
       <c r="L59">
         <v>-0.0532587931993346</v>
@@ -5772,13 +5772,13 @@
         <v>-0.05062500000000369</v>
       </c>
       <c r="U59">
-        <v>0.9992252604813316</v>
+        <v>-0.0007747395186683548</v>
       </c>
       <c r="V59">
-        <v>0.9997205811911223</v>
+        <v>-0.0002794188088777183</v>
       </c>
       <c r="W59">
-        <v>0.9979029358897543</v>
+        <v>-0.002097064110245683</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5813,7 +5813,7 @@
         <v>0.4210848137734896</v>
       </c>
       <c r="K60">
-        <v>29.63122325228136</v>
+        <v>-0.2036877674771864</v>
       </c>
       <c r="L60">
         <v>-0.0527194246782552</v>
@@ -5843,13 +5843,13 @@
         <v>-0.05187499999999545</v>
       </c>
       <c r="U60">
-        <v>0.9990755559089868</v>
+        <v>-0.0009244440910132212</v>
       </c>
       <c r="V60">
-        <v>0.9994010780594931</v>
+        <v>-0.0005989219405069246</v>
       </c>
       <c r="W60">
-        <v>0.9951966376463524</v>
+        <v>-0.004803362353647644</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5884,7 +5884,7 @@
         <v>0.4766608821767268</v>
       </c>
       <c r="K61">
-        <v>32.2796444281836</v>
+        <v>-0.177203555718164</v>
       </c>
       <c r="L61">
         <v>-0.05283808896560189</v>
@@ -5914,13 +5914,13 @@
         <v>-0.04437499999999517</v>
       </c>
       <c r="U61">
-        <v>0.9992438412862659</v>
+        <v>-0.0007561587137341341</v>
       </c>
       <c r="V61">
-        <v>0.9993807431082702</v>
+        <v>-0.0006192568917298136</v>
       </c>
       <c r="W61">
-        <v>1.001206636500754</v>
+        <v>0.001206636500754144</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5955,7 +5955,7 @@
         <v>0.5644125691292119</v>
       </c>
       <c r="K62">
-        <v>36.07824305856715</v>
+        <v>-0.1392175694143286</v>
       </c>
       <c r="L62">
         <v>-0.05250613775154375</v>
@@ -5985,13 +5985,13 @@
         <v>-0.04124999999999801</v>
       </c>
       <c r="U62">
-        <v>0.9993030109925124</v>
+        <v>-0.0006969890074876028</v>
       </c>
       <c r="V62">
-        <v>0.9995602550520697</v>
+        <v>-0.0004397449479303095</v>
       </c>
       <c r="W62">
-        <v>1.001807773425731</v>
+        <v>0.001807773425730685</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6026,7 +6026,7 @@
         <v>0.4419449446135489</v>
       </c>
       <c r="K63">
-        <v>30.64922459518682</v>
+        <v>-0.1935077540481318</v>
       </c>
       <c r="L63">
         <v>-0.05368852023024113</v>
@@ -6056,13 +6056,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U63">
-        <v>0.9993822363045773</v>
+        <v>-0.0006177636954226573</v>
       </c>
       <c r="V63">
-        <v>0.9991601175835384</v>
+        <v>-0.0008398824164616014</v>
       </c>
       <c r="W63">
-        <v>0.9945864661654136</v>
+        <v>-0.005413533834586426</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6097,7 +6097,7 @@
         <v>0.5307681715404627</v>
       </c>
       <c r="K64">
-        <v>34.67332163082102</v>
+        <v>-0.1532667836917898</v>
       </c>
       <c r="L64">
         <v>-0.05476046715106938</v>
@@ -6127,13 +6127,13 @@
         <v>-0.06312500000000654</v>
       </c>
       <c r="U64">
-        <v>0.9994516450648057</v>
+        <v>-0.0005483549351943395</v>
       </c>
       <c r="V64">
-        <v>0.9993795656959873</v>
+        <v>-0.0006204343040127069</v>
       </c>
       <c r="W64">
-        <v>1.002116722104627</v>
+        <v>0.002116722104626545</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6168,7 +6168,7 @@
         <v>0.4795281828454482</v>
       </c>
       <c r="K65">
-        <v>32.41088533529745</v>
+        <v>-0.1758911466470255</v>
       </c>
       <c r="L65">
         <v>-0.05637049340888159</v>
@@ -6198,13 +6198,13 @@
         <v>-0.08124999999999716</v>
       </c>
       <c r="U65">
-        <v>0.9993316374881539</v>
+        <v>-0.000668362511846099</v>
       </c>
       <c r="V65">
-        <v>0.9992189690391315</v>
+        <v>-0.0007810309608684562</v>
       </c>
       <c r="W65">
-        <v>0.9975859987929995</v>
+        <v>-0.002414001207000527</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6239,7 +6239,7 @@
         <v>0.5303383416844156</v>
       </c>
       <c r="K66">
-        <v>34.6549731676122</v>
+        <v>-0.153450268323878</v>
       </c>
       <c r="L66">
         <v>-0.0575666877333707</v>
@@ -6269,13 +6269,13 @@
         <v>-0.09437499999999943</v>
       </c>
       <c r="U66">
-        <v>0.9994909061869873</v>
+        <v>-0.0005090938130126732</v>
       </c>
       <c r="V66">
-        <v>0.9995590740555165</v>
+        <v>-0.0004409259444835278</v>
       </c>
       <c r="W66">
-        <v>1.001209921355112</v>
+        <v>0.001209921355111998</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6310,7 +6310,7 @@
         <v>0.6105649082722542</v>
       </c>
       <c r="K67">
-        <v>37.90998457350237</v>
+        <v>-0.1209001542649763</v>
       </c>
       <c r="L67">
         <v>-0.05757486555018466</v>
@@ -6340,13 +6340,13 @@
         <v>-0.1031249999999986</v>
       </c>
       <c r="U67">
-        <v>0.9994906468784642</v>
+        <v>-0.0005093531215357716</v>
       </c>
       <c r="V67">
-        <v>0.9996992360595914</v>
+        <v>-0.000300763940408566</v>
       </c>
       <c r="W67">
-        <v>1.001812688821752</v>
+        <v>0.001812688821752229</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6381,7 +6381,7 @@
         <v>0.5938482738562555</v>
       </c>
       <c r="K68">
-        <v>37.25877071218718</v>
+        <v>-0.1274122928781282</v>
       </c>
       <c r="L68">
         <v>-0.05687147298157246</v>
@@ -6411,13 +6411,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U68">
-        <v>0.9995203645229626</v>
+        <v>-0.0004796354770374434</v>
       </c>
       <c r="V68">
-        <v>0.9997593164587429</v>
+        <v>-0.0002406835412570585</v>
       </c>
       <c r="W68">
-        <v>0.9993968636911943</v>
+        <v>-0.0006031363088057073</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6452,7 +6452,7 @@
         <v>0.4883019480093869</v>
       </c>
       <c r="K69">
-        <v>32.8093333924943</v>
+        <v>-0.1719066660750571</v>
       </c>
       <c r="L69">
         <v>-0.05721107892789672</v>
@@ -6482,13 +6482,13 @@
         <v>-0.1018749999999997</v>
       </c>
       <c r="U69">
-        <v>0.9993401847482706</v>
+        <v>-0.0006598152517294231</v>
       </c>
       <c r="V69">
-        <v>0.9992777755486897</v>
+        <v>-0.000722224451310316</v>
       </c>
       <c r="W69">
-        <v>0.9954737477368739</v>
+        <v>-0.004526252263126085</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6523,7 +6523,7 @@
         <v>0.5506643395042276</v>
       </c>
       <c r="K70">
-        <v>35.51151112949975</v>
+        <v>-0.1448848887050025</v>
       </c>
       <c r="L70">
         <v>-0.05741059922375516</v>
@@ -6553,13 +6553,13 @@
         <v>-0.1087499999999935</v>
       </c>
       <c r="U70">
-        <v>0.999399771913327</v>
+        <v>-0.0006002280866730381</v>
       </c>
       <c r="V70">
-        <v>0.9993174061433447</v>
+        <v>-0.0006825938566552558</v>
       </c>
       <c r="W70">
-        <v>1.001515610791149</v>
+        <v>0.001515610791148703</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6594,7 +6594,7 @@
         <v>0.5297973319497179</v>
       </c>
       <c r="K71">
-        <v>34.63186403093631</v>
+        <v>-0.1536813596906368</v>
       </c>
       <c r="L71">
         <v>-0.05763290673903908</v>
@@ -6624,13 +6624,13 @@
         <v>-0.09312500000000057</v>
       </c>
       <c r="U71">
-        <v>0.9994394506616486</v>
+        <v>-0.0005605493383513682</v>
       </c>
       <c r="V71">
-        <v>0.9992566698810671</v>
+        <v>-0.0007433301189329056</v>
       </c>
       <c r="W71">
-        <v>0.99909200968523</v>
+        <v>-0.0009079903147699575</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6665,7 +6665,7 @@
         <v>0.5160736685735158</v>
       </c>
       <c r="K72">
-        <v>34.04014457022349</v>
+        <v>-0.1595985542977651</v>
       </c>
       <c r="L72">
         <v>-0.05786561495451362</v>
@@ -6695,13 +6695,13 @@
         <v>-0.08749999999999858</v>
       </c>
       <c r="U72">
-        <v>0.9996294293211544</v>
+        <v>-0.0003705706788456054</v>
       </c>
       <c r="V72">
-        <v>0.999175697139066</v>
+        <v>-0.0008243028609340453</v>
       </c>
       <c r="W72">
-        <v>0.9993941229930325</v>
+        <v>-0.0006058770069674591</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6736,7 +6736,7 @@
         <v>0.4957954194655439</v>
       </c>
       <c r="K73">
-        <v>33.14593780763778</v>
+        <v>-0.1685406219236222</v>
       </c>
       <c r="L73">
         <v>-0.05820914438422373</v>
@@ -6766,13 +6766,13 @@
         <v>-0.07250000000000512</v>
       </c>
       <c r="U73">
-        <v>0.9995090623090104</v>
+        <v>-0.0004909376909896235</v>
       </c>
       <c r="V73">
-        <v>0.9991548955692382</v>
+        <v>-0.0008451044307618005</v>
       </c>
       <c r="W73">
-        <v>0.9990906335253107</v>
+        <v>-0.0009093664746893104</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6807,7 +6807,7 @@
         <v>0.4357218750165728</v>
       </c>
       <c r="K74">
-        <v>30.34862688928126</v>
+        <v>-0.1965137311071874</v>
       </c>
       <c r="L74">
         <v>-0.05948200060001266</v>
@@ -6837,13 +6837,13 @@
         <v>-0.07000000000000739</v>
       </c>
       <c r="U74">
-        <v>0.9994085805934241</v>
+        <v>-0.0005914194065759215</v>
       </c>
       <c r="V74">
-        <v>0.9990937651039149</v>
+        <v>-0.0009062348960851008</v>
       </c>
       <c r="W74">
-        <v>0.9969660194174756</v>
+        <v>-0.003033980582524354</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6878,7 +6878,7 @@
         <v>0.4302345282849284</v>
       </c>
       <c r="K75">
-        <v>30.08139712588577</v>
+        <v>-0.1991860287411423</v>
       </c>
       <c r="L75">
         <v>-0.06113378876095962</v>
@@ -6908,13 +6908,13 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="U75">
-        <v>0.9993982006198535</v>
+        <v>-0.0006017993801464838</v>
       </c>
       <c r="V75">
-        <v>0.999395295398198</v>
+        <v>-0.0006047046018019531</v>
       </c>
       <c r="W75">
-        <v>0.9996956786366403</v>
+        <v>-0.000304321363359672</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6949,7 +6949,7 @@
         <v>0.5760562155609786</v>
       </c>
       <c r="K76">
-        <v>36.55048657994336</v>
+        <v>-0.1344951342005664</v>
       </c>
       <c r="L76">
         <v>-0.06148662530351177</v>
@@ -6979,13 +6979,13 @@
         <v>-0.09062499999999574</v>
       </c>
       <c r="U76">
-        <v>0.9994580544153511</v>
+        <v>-0.0005419455846489285</v>
       </c>
       <c r="V76">
-        <v>0.9995361126237872</v>
+        <v>-0.0004638873762128348</v>
       </c>
       <c r="W76">
-        <v>1.003348554033485</v>
+        <v>0.00334855403348544</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7020,7 +7020,7 @@
         <v>0.5529099214947482</v>
       </c>
       <c r="K77">
-        <v>35.60476456757689</v>
+        <v>-0.1439523543242311</v>
       </c>
       <c r="L77">
         <v>-0.06113540899472381</v>
@@ -7050,13 +7050,13 @@
         <v>-0.08187499999999659</v>
       </c>
       <c r="U77">
-        <v>0.9994577605510759</v>
+        <v>-0.0005422394489240645</v>
       </c>
       <c r="V77">
-        <v>0.9993542919407563</v>
+        <v>-0.0006457080592436881</v>
       </c>
       <c r="W77">
-        <v>0.9990898058252426</v>
+        <v>-0.0009101941747573505</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7091,7 +7091,7 @@
         <v>0.530473346473978</v>
       </c>
       <c r="K78">
-        <v>34.66073732653517</v>
+        <v>-0.1533926267346483</v>
       </c>
       <c r="L78">
         <v>-0.06048729923071759</v>
@@ -7121,13 +7121,13 @@
         <v>-0.07750000000000057</v>
       </c>
       <c r="U78">
-        <v>0.999407231772377</v>
+        <v>-0.0005927682276229973</v>
       </c>
       <c r="V78">
-        <v>0.9996567459516214</v>
+        <v>-0.0003432540483786495</v>
       </c>
       <c r="W78">
-        <v>0.9990889766170664</v>
+        <v>-0.0009110233829335845</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7162,7 +7162,7 @@
         <v>0.508742502409235</v>
       </c>
       <c r="K79">
-        <v>33.71963748597588</v>
+        <v>-0.1628036251402412</v>
       </c>
       <c r="L79">
         <v>-0.05981083022807657</v>
@@ -7192,13 +7192,13 @@
         <v>-0.08250000000000313</v>
       </c>
       <c r="U79">
-        <v>0.9994169330679373</v>
+        <v>-0.0005830669320626702</v>
       </c>
       <c r="V79">
-        <v>0.9994546446100708</v>
+        <v>-0.0005453553899291697</v>
       </c>
       <c r="W79">
-        <v>0.9990881458966565</v>
+        <v>-0.0009118541033434902</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7233,7 +7233,7 @@
         <v>0.5015336154629391</v>
       </c>
       <c r="K80">
-        <v>33.40142440356294</v>
+        <v>-0.1659857559643706</v>
       </c>
       <c r="L80">
         <v>-0.05905396612342256</v>
@@ -7263,13 +7263,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U80">
-        <v>0.9994065341594914</v>
+        <v>-0.0005934658405085669</v>
       </c>
       <c r="V80">
-        <v>0.99959581261873</v>
+        <v>-0.0004041873812700159</v>
       </c>
       <c r="W80">
-        <v>0.9996957712199575</v>
+        <v>-0.0003042287800425481</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7304,7 +7304,7 @@
         <v>0.650691627871937</v>
       </c>
       <c r="K81">
-        <v>39.41933289567872</v>
+        <v>-0.1058066710432128</v>
       </c>
       <c r="L81">
         <v>-0.0569848500199699</v>
@@ -7334,13 +7334,13 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="U81">
-        <v>0.9996376702195114</v>
+        <v>-0.0003623297804885572</v>
       </c>
       <c r="V81">
-        <v>0.9997169544296632</v>
+        <v>-0.0002830455703367596</v>
       </c>
       <c r="W81">
-        <v>1.003043213633597</v>
+        <v>0.003043213633597164</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7375,7 +7375,7 @@
         <v>0.6977941581063586</v>
       </c>
       <c r="K82">
-        <v>41.10004471240767</v>
+        <v>-0.08899955287592332</v>
       </c>
       <c r="L82">
         <v>-0.05371437333326422</v>
@@ -7405,13 +7405,13 @@
         <v>-0.05187500000000256</v>
       </c>
       <c r="U82">
-        <v>0.9996778123458282</v>
+        <v>-0.0003221876541718016</v>
       </c>
       <c r="V82">
-        <v>0.9996562044976541</v>
+        <v>-0.0003437955023458672</v>
       </c>
       <c r="W82">
-        <v>1.000910194174757</v>
+        <v>0.0009101941747573505</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7446,7 +7446,7 @@
         <v>0.7143213616973798</v>
       </c>
       <c r="K83">
-        <v>41.66787964364614</v>
+        <v>-0.08332120356353862</v>
       </c>
       <c r="L83">
         <v>-0.0496174194796447</v>
@@ -7476,13 +7476,13 @@
         <v>-0.02312500000000739</v>
       </c>
       <c r="U83">
-        <v>0.9997381381623343</v>
+        <v>-0.0002618618376657444</v>
       </c>
       <c r="V83">
-        <v>0.999716776921365</v>
+        <v>-0.000283223078635042</v>
       </c>
       <c r="W83">
-        <v>1.00030312215823</v>
+        <v>0.0003031221582296961</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7517,7 +7517,7 @@
         <v>0.7021067706022452</v>
       </c>
       <c r="K84">
-        <v>41.24927899521975</v>
+        <v>-0.08750721004780249</v>
       </c>
       <c r="L84">
         <v>-0.04520878633578657</v>
@@ -7547,13 +7547,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U84">
-        <v>0.9996373271007324</v>
+        <v>-0.0003626728992676131</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W84">
-        <v>0.9996969696969698</v>
+        <v>-0.0003030303030302495</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7588,7 +7588,7 @@
         <v>0.6661363058861086</v>
       </c>
       <c r="K85">
-        <v>39.98090093426266</v>
+        <v>-0.1001909906573734</v>
       </c>
       <c r="L85">
         <v>-0.04105696186979252</v>
@@ -7618,13 +7618,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U85">
-        <v>0.9995767281082769</v>
+        <v>-0.0004232718917230871</v>
       </c>
       <c r="V85">
-        <v>0.9998381123904729</v>
+        <v>-0.0001618876095270672</v>
       </c>
       <c r="W85">
-        <v>0.9990906335253107</v>
+        <v>-0.0009093664746893104</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7659,7 +7659,7 @@
         <v>0.6841125115265178</v>
       </c>
       <c r="K86">
-        <v>40.62154439470453</v>
+        <v>-0.09378455605295472</v>
       </c>
       <c r="L86">
         <v>-0.0370655537380133</v>
@@ -7689,13 +7689,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U86">
-        <v>0.9995866310430005</v>
+        <v>-0.0004133689569995047</v>
       </c>
       <c r="V86">
-        <v>0.9999190430893156</v>
+        <v>-8.095691068443767E-05</v>
       </c>
       <c r="W86">
-        <v>1.000303398058252</v>
+        <v>0.0003033980582523021</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7730,7 +7730,7 @@
         <v>0.6359759457060243</v>
       </c>
       <c r="K87">
-        <v>38.87440688692777</v>
+        <v>-0.1112559311307224</v>
       </c>
       <c r="L87">
         <v>-0.03373102596330101</v>
@@ -7760,13 +7760,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U87">
-        <v>0.9995259420640684</v>
+        <v>-0.0004740579359315822</v>
       </c>
       <c r="V87">
-        <v>0.9998785548021456</v>
+        <v>-0.0001214451978543973</v>
       </c>
       <c r="W87">
-        <v>0.9987867758568396</v>
+        <v>-0.001213224143160385</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7801,7 +7801,7 @@
         <v>0.7470762437513019</v>
       </c>
       <c r="K88">
-        <v>42.76151349566682</v>
+        <v>-0.0723848650433318</v>
       </c>
       <c r="L88">
         <v>-0.03022339427151547</v>
@@ -7831,13 +7831,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U88">
-        <v>0.9996064462092695</v>
+        <v>-0.000393553790730472</v>
       </c>
       <c r="V88">
-        <v>1.000060729974291</v>
+        <v>6.072997429096283E-05</v>
       </c>
       <c r="W88">
-        <v>1.001822046765867</v>
+        <v>0.001822046765867169</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7872,7 +7872,7 @@
         <v>0.6807343257827748</v>
       </c>
       <c r="K89">
-        <v>40.50219688740716</v>
+        <v>-0.0949780311259284</v>
       </c>
       <c r="L89">
         <v>-0.02727494244938199</v>
@@ -7902,13 +7902,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U89">
-        <v>0.9996264814553091</v>
+        <v>-0.0003735185446909206</v>
       </c>
       <c r="V89">
-        <v>1.000161936763694</v>
+        <v>0.0001619367636938041</v>
       </c>
       <c r="W89">
-        <v>0.9984843892088511</v>
+        <v>-0.001515610791148925</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7943,7 +7943,7 @@
         <v>0.6120770122254097</v>
       </c>
       <c r="K90">
-        <v>37.96822407264906</v>
+        <v>-0.1203177592735094</v>
       </c>
       <c r="L90">
         <v>-0.02541546555038075</v>
@@ -7973,13 +7973,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U90">
-        <v>0.9997273305662437</v>
+        <v>-0.0002726694337562563</v>
       </c>
       <c r="V90">
-        <v>1.000060716454159</v>
+        <v>6.071645415883786E-05</v>
       </c>
       <c r="W90">
-        <v>0.9981785063752279</v>
+        <v>-0.00182149362477213</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -8014,7 +8014,7 @@
         <v>0.6120770122254097</v>
       </c>
       <c r="K91">
-        <v>37.96822407264906</v>
+        <v>-0.1203177592735094</v>
       </c>
       <c r="L91">
         <v>-0.02424237418174399</v>
@@ -8044,13 +8044,13 @@
         <v>0.004374999999996021</v>
       </c>
       <c r="U91">
-        <v>0.9996868497080631</v>
+        <v>-0.0003131502919369034</v>
       </c>
       <c r="V91">
-        <v>0.9998380992856131</v>
+        <v>-0.0001619007143869311</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8085,7 +8085,7 @@
         <v>0.6865794848032462</v>
       </c>
       <c r="K92">
-        <v>40.70839773574866</v>
+        <v>-0.09291602264251336</v>
       </c>
       <c r="L92">
         <v>-0.02303093448901323</v>
@@ -8115,13 +8115,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U92">
-        <v>0.9996665420409647</v>
+        <v>-0.0003334579590352771</v>
       </c>
       <c r="V92">
-        <v>0.9999797591336909</v>
+        <v>-2.024086630914024E-05</v>
       </c>
       <c r="W92">
-        <v>1.001216545012166</v>
+        <v>0.001216545012165504</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8156,7 +8156,7 @@
         <v>0.8434267954934286</v>
       </c>
       <c r="K93">
-        <v>45.75320254405162</v>
+        <v>-0.04246797455948381</v>
       </c>
       <c r="L93">
         <v>-0.02090707525483366</v>
@@ -8186,13 +8186,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U93">
-        <v>0.9999292428990195</v>
+        <v>-7.07571009804786E-05</v>
       </c>
       <c r="V93">
-        <v>1.0002024127601</v>
+        <v>0.0002024127601003567</v>
       </c>
       <c r="W93">
-        <v>1.002430133657351</v>
+        <v>0.002430133657351119</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8227,7 +8227,7 @@
         <v>0.6543623641231375</v>
       </c>
       <c r="K94">
-        <v>39.55375063612316</v>
+        <v>-0.1044624936387685</v>
       </c>
       <c r="L94">
         <v>-0.01983383744986281</v>
@@ -8257,13 +8257,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U94">
-        <v>0.9997169515683915</v>
+        <v>-0.0002830484316085347</v>
       </c>
       <c r="V94">
-        <v>0.9999797628202534</v>
+        <v>-2.023717974664052E-05</v>
       </c>
       <c r="W94">
-        <v>0.9957575757575757</v>
+        <v>-0.00424242424242427</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8298,7 +8298,7 @@
         <v>0.7386338791833384</v>
       </c>
       <c r="K95">
-        <v>42.48357794168174</v>
+        <v>-0.07516422058318256</v>
       </c>
       <c r="L95">
         <v>-0.01884202471024011</v>
@@ -8328,13 +8328,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U95">
-        <v>0.9998483239799789</v>
+        <v>-0.0001516760200210854</v>
       </c>
       <c r="V95">
-        <v>1.000101187946492</v>
+        <v>0.0001011879464918319</v>
       </c>
       <c r="W95">
-        <v>1.001521606816798</v>
+        <v>0.001521606816798471</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8369,7 +8369,7 @@
         <v>0.701307412944332</v>
       </c>
       <c r="K96">
-        <v>41.22167502524596</v>
+        <v>-0.08778324974754037</v>
       </c>
       <c r="L96">
         <v>-0.01822537299755033</v>
@@ -8399,13 +8399,13 @@
         <v>-0.03250000000000597</v>
       </c>
       <c r="U96">
-        <v>0.9997775080906148</v>
+        <v>-0.0002224919093851696</v>
       </c>
       <c r="V96">
-        <v>0.9998381156663566</v>
+        <v>-0.0001618843336433917</v>
       </c>
       <c r="W96">
-        <v>0.9990884229717413</v>
+        <v>-0.0009115770282587254</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8440,7 +8440,7 @@
         <v>0.6238725220657239</v>
       </c>
       <c r="K97">
-        <v>38.41881142690298</v>
+        <v>-0.1158118857309702</v>
       </c>
       <c r="L97">
         <v>-0.01858204379254041</v>
@@ -8470,13 +8470,13 @@
         <v>-0.03937500000000682</v>
       </c>
       <c r="U97">
-        <v>0.999645956826964</v>
+        <v>-0.0003540431730360005</v>
       </c>
       <c r="V97">
-        <v>0.9996357012750455</v>
+        <v>-0.0003642987249544705</v>
       </c>
       <c r="W97">
-        <v>0.9978710462287105</v>
+        <v>-0.002128953771289521</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8511,7 +8511,7 @@
         <v>0.623872522065724</v>
       </c>
       <c r="K98">
-        <v>38.41881142690298</v>
+        <v>-0.1158118857309702</v>
       </c>
       <c r="L98">
         <v>-0.01943869565980482</v>
@@ -8541,13 +8541,13 @@
         <v>-0.03687500000000199</v>
       </c>
       <c r="U98">
-        <v>0.9996660696396586</v>
+        <v>-0.0003339303603413502</v>
       </c>
       <c r="V98">
-        <v>0.9996153223194039</v>
+        <v>-0.0003846776805961349</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8582,7 +8582,7 @@
         <v>0.7462160643167192</v>
       </c>
       <c r="K99">
-        <v>42.7333180335108</v>
+        <v>-0.07266681966489202</v>
       </c>
       <c r="L99">
         <v>-0.01970036837627991</v>
@@ -8612,13 +8612,13 @@
         <v>-0.02937500000000171</v>
       </c>
       <c r="U99">
-        <v>0.9998886526976416</v>
+        <v>-0.0001113473023584</v>
       </c>
       <c r="V99">
-        <v>0.999777206165313</v>
+        <v>-0.0002227938346870406</v>
       </c>
       <c r="W99">
-        <v>1.002133495885401</v>
+        <v>0.002133495885400905</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8653,7 +8653,7 @@
         <v>0.6206195605926872</v>
       </c>
       <c r="K100">
-        <v>38.29520361741879</v>
+        <v>-0.1170479638258122</v>
       </c>
       <c r="L100">
         <v>-0.02072835258272086</v>
@@ -8683,13 +8683,13 @@
         <v>-0.03437499999999716</v>
       </c>
       <c r="U100">
-        <v>0.999726662549732</v>
+        <v>-0.0002733374502680297</v>
       </c>
       <c r="V100">
-        <v>0.9996150885296381</v>
+        <v>-0.0003849114703619039</v>
       </c>
       <c r="W100">
-        <v>0.996654501216545</v>
+        <v>-0.003345498783455025</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8724,7 +8724,7 @@
         <v>0.8138955527699315</v>
       </c>
       <c r="K101">
-        <v>44.87003408366388</v>
+        <v>-0.05129965916336121</v>
       </c>
       <c r="L101">
         <v>-0.02075454021127014</v>
@@ -8754,13 +8754,13 @@
         <v>-0.04374999999999574</v>
       </c>
       <c r="U101">
-        <v>0.9998784834737525</v>
+        <v>-0.0001215165262474782</v>
       </c>
       <c r="V101">
-        <v>0.9998378696066311</v>
+        <v>-0.0001621303933688756</v>
       </c>
       <c r="W101">
-        <v>1.003661885871224</v>
+        <v>0.003661885871223625</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8795,7 +8795,7 @@
         <v>0.6669075063100307</v>
       </c>
       <c r="K102">
-        <v>40.00866897446147</v>
+        <v>-0.0999133102553853</v>
       </c>
       <c r="L102">
         <v>-0.02153304041611286</v>
@@ -8825,13 +8825,13 @@
         <v>-0.04312499999999631</v>
       </c>
       <c r="U102">
-        <v>0.9997670650192425</v>
+        <v>-0.0002329349807574932</v>
       </c>
       <c r="V102">
-        <v>0.9996554170467215</v>
+        <v>-0.0003445829532785494</v>
       </c>
       <c r="W102">
-        <v>0.9960474308300394</v>
+        <v>-0.003952569169960563</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8866,7 +8866,7 @@
         <v>0.7254008403483225</v>
       </c>
       <c r="K103">
-        <v>42.04245317290324</v>
+        <v>-0.07957546827096756</v>
       </c>
       <c r="L103">
         <v>-0.02219796790583561</v>
@@ -8896,13 +8896,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U103">
-        <v>0.9998379205202752</v>
+        <v>-0.0001620794797247971</v>
       </c>
       <c r="V103">
-        <v>0.9996147451234842</v>
+        <v>-0.0003852548765157504</v>
       </c>
       <c r="W103">
-        <v>1.001221001221001</v>
+        <v>0.001221001221001217</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8937,7 +8937,7 @@
         <v>0.7715797882732925</v>
       </c>
       <c r="K104">
-        <v>43.55320564056158</v>
+        <v>-0.06446794359438424</v>
       </c>
       <c r="L104">
         <v>-0.02233958654588894</v>
@@ -8967,13 +8967,13 @@
         <v>-0.0449999999999946</v>
       </c>
       <c r="U104">
-        <v>0.9999696051711734</v>
+        <v>-3.03948288266076E-05</v>
       </c>
       <c r="V104">
-        <v>0.9997768717418203</v>
+        <v>-0.0002231282581797167</v>
       </c>
       <c r="W104">
-        <v>1.000914634146342</v>
+        <v>0.0009146341463415197</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -9008,7 +9008,7 @@
         <v>0.7715797882732924</v>
       </c>
       <c r="K105">
-        <v>43.55320564056158</v>
+        <v>-0.06446794359438424</v>
       </c>
       <c r="L105">
         <v>-0.02207385247813536</v>
@@ -9038,13 +9038,13 @@
         <v>-0.03562500000000313</v>
       </c>
       <c r="U105">
-        <v>0.9999797361648668</v>
+        <v>-2.026383513320518E-05</v>
       </c>
       <c r="V105">
-        <v>0.9998985554293135</v>
+        <v>-0.0001014445706865041</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9079,7 +9079,7 @@
         <v>0.9421391527237777</v>
       </c>
       <c r="K106">
-        <v>48.51038358412489</v>
+        <v>-0.01489616415875111</v>
       </c>
       <c r="L106">
         <v>-0.0203917729543724</v>
@@ -9109,13 +9109,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U106">
-        <v>0.9999696036313527</v>
+        <v>-3.039636864732298E-05</v>
       </c>
       <c r="V106">
-        <v>1.000101454862731</v>
+        <v>0.0001014548627313872</v>
       </c>
       <c r="W106">
-        <v>1.00304599451721</v>
+        <v>0.003045994517209882</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9150,7 +9150,7 @@
         <v>0.9421391527237776</v>
       </c>
       <c r="K107">
-        <v>48.51038358412489</v>
+        <v>-0.01489616415875111</v>
       </c>
       <c r="L107">
         <v>-0.01788376030927778</v>
@@ -9180,13 +9180,13 @@
         <v>-0.02062499999999545</v>
       </c>
       <c r="U107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V107">
-        <v>1.000020288914137</v>
+        <v>2.028891413741185E-05</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9221,7 +9221,7 @@
         <v>1.074428964485925</v>
       </c>
       <c r="K108">
-        <v>51.79396271841899</v>
+        <v>0.01793962718418984</v>
       </c>
       <c r="L108">
         <v>-0.01419491020911384</v>
@@ -9251,13 +9251,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U108">
-        <v>1.000101324308715</v>
+        <v>0.0001013243087149007</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>1.002125721226845</v>
+        <v>0.002125721226844846</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9292,7 +9292,7 @@
         <v>0.9952352870245581</v>
       </c>
       <c r="K109">
-        <v>49.88059771680994</v>
+        <v>-0.001194022831900565</v>
       </c>
       <c r="L109">
         <v>-0.01041601440919524</v>
@@ -9322,13 +9322,13 @@
         <v>0.01437499999999403</v>
       </c>
       <c r="U109">
-        <v>1.000091182638826</v>
+        <v>9.118263882568201E-05</v>
       </c>
       <c r="V109">
-        <v>1.000202885025056</v>
+        <v>0.0002028850250563874</v>
       </c>
       <c r="W109">
-        <v>0.9987878787878788</v>
+        <v>-0.00121212121212122</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9363,7 +9363,7 @@
         <v>0.9952352870245582</v>
       </c>
       <c r="K110">
-        <v>49.88059771680995</v>
+        <v>-0.00119402283190051</v>
       </c>
       <c r="L110">
         <v>-0.006785296552646286</v>
@@ -9393,13 +9393,13 @@
         <v>0.0331250000000054</v>
       </c>
       <c r="U110">
-        <v>1.0001013048059</v>
+        <v>0.0001013048058999821</v>
       </c>
       <c r="V110">
-        <v>1.000101421935536</v>
+        <v>0.0001014219355364165</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9434,7 +9434,7 @@
         <v>0.9952352870245583</v>
       </c>
       <c r="K111">
-        <v>49.88059771680995</v>
+        <v>-0.00119402283190051</v>
       </c>
       <c r="L111">
         <v>-0.003451022854086157</v>
@@ -9464,13 +9464,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>1.000162258640273</v>
+        <v>0.0001622586402725279</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9505,7 +9505,7 @@
         <v>0.9542186642683868</v>
       </c>
       <c r="K112">
-        <v>48.82865370777859</v>
+        <v>-0.01171346292221415</v>
       </c>
       <c r="L112">
         <v>-0.0007177490086123542</v>
@@ -9535,13 +9535,13 @@
         <v>0.05999999999999517</v>
       </c>
       <c r="U112">
-        <v>0.9999493527278621</v>
+        <v>-5.064727213788256E-05</v>
       </c>
       <c r="V112">
-        <v>1.000263627514601</v>
+        <v>0.0002636275146008504</v>
       </c>
       <c r="W112">
-        <v>0.9993932038834951</v>
+        <v>-0.0006067961165049374</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9576,7 +9576,7 @@
         <v>0.878036534493616</v>
       </c>
       <c r="K113">
-        <v>46.75289955050662</v>
+        <v>-0.03247100449493379</v>
       </c>
       <c r="L113">
         <v>0.001036930288507734</v>
@@ -9606,13 +9606,13 @@
         <v>0.06312500000000654</v>
       </c>
       <c r="U113">
-        <v>0.9998987003251718</v>
+        <v>-0.0001012996748281925</v>
       </c>
       <c r="V113">
-        <v>1.000182463253928</v>
+        <v>0.0001824632539280113</v>
       </c>
       <c r="W113">
-        <v>0.9987856709168185</v>
+        <v>-0.001214329083181531</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9647,7 +9647,7 @@
         <v>0.878036534493616</v>
       </c>
       <c r="K114">
-        <v>46.75289955050662</v>
+        <v>-0.03247100449493379</v>
       </c>
       <c r="L114">
         <v>0.002083064062975274</v>
@@ -9677,13 +9677,13 @@
         <v>0.05375000000000085</v>
       </c>
       <c r="U114">
-        <v>0.9999088210562574</v>
+        <v>-9.117894374255364E-05</v>
       </c>
       <c r="V114">
-        <v>1.000040539992703</v>
+        <v>4.053999270281494E-05</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9718,7 +9718,7 @@
         <v>1.010729912837566</v>
       </c>
       <c r="K115">
-        <v>50.26681636278101</v>
+        <v>0.002668163627810083</v>
       </c>
       <c r="L115">
         <v>0.003289812136291271</v>
@@ -9748,13 +9748,13 @@
         <v>0.05249999999999488</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V115">
-        <v>1.000385114318145</v>
+        <v>0.000385114318144808</v>
       </c>
       <c r="W115">
-        <v>1.001823708206687</v>
+        <v>0.00182370820668698</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9789,7 +9789,7 @@
         <v>0.9447498844886918</v>
       </c>
       <c r="K116">
-        <v>48.57950588011388</v>
+        <v>-0.01420494119886123</v>
       </c>
       <c r="L116">
         <v>0.004172849623686119</v>
@@ -9819,13 +9819,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U116">
-        <v>0.9999594723297333</v>
+        <v>-4.052767026674342E-05</v>
       </c>
       <c r="V116">
-        <v>1.000081045486779</v>
+        <v>8.104548677945189E-05</v>
       </c>
       <c r="W116">
-        <v>0.9990898058252426</v>
+        <v>-0.0009101941747573505</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9860,7 +9860,7 @@
         <v>0.9033664553676012</v>
       </c>
       <c r="K117">
-        <v>47.46150972767522</v>
+        <v>-0.02538490272324778</v>
       </c>
       <c r="L117">
         <v>0.004566908717107895</v>
@@ -9890,13 +9890,13 @@
         <v>0.02624999999999744</v>
       </c>
       <c r="U117">
-        <v>0.9999797353435872</v>
+        <v>-2.026465641280506E-05</v>
       </c>
       <c r="V117">
-        <v>1.000303895946028</v>
+        <v>0.0003038959460281987</v>
       </c>
       <c r="W117">
-        <v>0.9993926510780442</v>
+        <v>-0.000607348921955797</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9931,7 +9931,7 @@
         <v>0.9725300060383076</v>
       </c>
       <c r="K118">
-        <v>49.30368628417308</v>
+        <v>-0.006963137158269184</v>
       </c>
       <c r="L118">
         <v>0.004955039809678095</v>
@@ -9961,13 +9961,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U118">
-        <v>0.9999493373323064</v>
+        <v>-5.066266769360173E-05</v>
       </c>
       <c r="V118">
-        <v>1.000283550046583</v>
+        <v>0.000283550046583203</v>
       </c>
       <c r="W118">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -10002,7 +10002,7 @@
         <v>0.9967979185543563</v>
       </c>
       <c r="K119">
-        <v>49.91981959176015</v>
+        <v>-0.0008018040823985495</v>
       </c>
       <c r="L119">
         <v>0.005407440781466807</v>
@@ -10032,13 +10032,13 @@
         <v>0.0018750000000054</v>
       </c>
       <c r="U119">
-        <v>1.000010133046906</v>
+        <v>1.013304690600236E-05</v>
       </c>
       <c r="V119">
-        <v>1.000242974001782</v>
+        <v>0.0002429740017817483</v>
       </c>
       <c r="W119">
-        <v>1.000303582270796</v>
+        <v>0.0003035822707955216</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10073,7 +10073,7 @@
         <v>0.8643223455037766</v>
       </c>
       <c r="K120">
-        <v>46.3612072015486</v>
+        <v>-0.03638792798451396</v>
       </c>
       <c r="L120">
         <v>0.005186207585320052</v>
@@ -10103,13 +10103,13 @@
         <v>-0.008124999999999716</v>
       </c>
       <c r="U120">
-        <v>1.000010132944228</v>
+        <v>1.013294422813615E-05</v>
       </c>
       <c r="V120">
-        <v>1.000121457489879</v>
+        <v>0.0001214574898786847</v>
       </c>
       <c r="W120">
-        <v>0.9981790591805766</v>
+        <v>-0.001820940819423411</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10144,7 +10144,7 @@
         <v>1.050850251894834</v>
       </c>
       <c r="K121">
-        <v>51.23973585706349</v>
+        <v>0.01239735857063495</v>
       </c>
       <c r="L121">
         <v>0.005437449701316649</v>
@@ -10174,13 +10174,13 @@
         <v>-0.008124999999999716</v>
       </c>
       <c r="U121">
-        <v>1.000091195573975</v>
+        <v>9.1195573974856E-05</v>
       </c>
       <c r="V121">
-        <v>1.000080961826499</v>
+        <v>8.096182649897088E-05</v>
       </c>
       <c r="W121">
-        <v>1.002432350258437</v>
+        <v>0.002432350258437133</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10215,7 +10215,7 @@
         <v>1.124479688628151</v>
       </c>
       <c r="K122">
-        <v>52.9296511822274</v>
+        <v>0.029296511822274</v>
       </c>
       <c r="L122">
         <v>0.006270992355042531</v>
@@ -10245,13 +10245,13 @@
         <v>0</v>
       </c>
       <c r="U122">
-        <v>1.000081055340534</v>
+        <v>8.105534053393093E-05</v>
       </c>
       <c r="V122">
-        <v>1.000141671726371</v>
+        <v>0.0001416717263711398</v>
       </c>
       <c r="W122">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073703999</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10286,7 +10286,7 @@
         <v>1.043596115803236</v>
       </c>
       <c r="K123">
-        <v>51.06665195402616</v>
+        <v>0.01066651954026165</v>
       </c>
       <c r="L123">
         <v>0.007049251867904036</v>
@@ -10316,13 +10316,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U123">
-        <v>0.9999696067108383</v>
+        <v>-3.039328916165651E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999392921464273</v>
+        <v>-6.070785357270569E-05</v>
       </c>
       <c r="W123">
-        <v>0.999090909090909</v>
+        <v>-0.0009090909090909705</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10357,7 +10357,7 @@
         <v>0.9934497183764187</v>
       </c>
       <c r="K124">
-        <v>49.83570486972413</v>
+        <v>-0.001642951302758766</v>
       </c>
       <c r="L124">
         <v>0.007497392255682908</v>
@@ -10387,13 +10387,13 @@
         <v>0.004374999999996021</v>
       </c>
       <c r="U124">
-        <v>1.000091182638826</v>
+        <v>9.118263882568201E-05</v>
       </c>
       <c r="V124">
-        <v>0.9999797628202534</v>
+        <v>-2.023717974664052E-05</v>
       </c>
       <c r="W124">
-        <v>0.9993933879284199</v>
+        <v>-0.0006066120715800816</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10428,7 +10428,7 @@
         <v>0.9233912418420915</v>
       </c>
       <c r="K125">
-        <v>48.00849779048235</v>
+        <v>-0.01991502209517648</v>
       </c>
       <c r="L125">
         <v>0.007357769841343242</v>
@@ -10458,13 +10458,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U125">
-        <v>1.00001013048059</v>
+        <v>1.013048058995381E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999190496428064</v>
+        <v>-8.095035719357657E-05</v>
       </c>
       <c r="W125">
-        <v>0.9990895295902883</v>
+        <v>-0.0009104704097117056</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10499,7 +10499,7 @@
         <v>1.071855252468596</v>
       </c>
       <c r="K126">
-        <v>51.73407993591687</v>
+        <v>0.01734079935916877</v>
       </c>
       <c r="L126">
         <v>0.007507994830313686</v>
@@ -10529,13 +10529,13 @@
         <v>0.01187500000000341</v>
       </c>
       <c r="U126">
-        <v>1.000101303779644</v>
+        <v>0.000101303779644013</v>
       </c>
       <c r="V126">
-        <v>1.000040478455342</v>
+        <v>4.047845534227434E-05</v>
       </c>
       <c r="W126">
-        <v>1.001822600243013</v>
+        <v>0.001822600243013284</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10570,7 +10570,7 @@
         <v>0.9065662625318887</v>
       </c>
       <c r="K127">
-        <v>47.54968554452356</v>
+        <v>-0.02450314455476438</v>
       </c>
       <c r="L127">
         <v>0.007022500431549335</v>
@@ -10600,13 +10600,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U127">
-        <v>1.000101293518228</v>
+        <v>0.0001012935182278518</v>
       </c>
       <c r="V127">
-        <v>0.9999392847746452</v>
+        <v>-6.071522535477936E-05</v>
       </c>
       <c r="W127">
-        <v>0.9978775015160704</v>
+        <v>-0.002122498483929647</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10641,7 +10641,7 @@
         <v>0.9993231423485854</v>
       </c>
       <c r="K128">
-        <v>49.98307283007239</v>
+        <v>-0.0001692716992760523</v>
       </c>
       <c r="L128">
         <v>0.006599782636775222</v>
@@ -10671,13 +10671,13 @@
         <v>0.01687499999999886</v>
       </c>
       <c r="U128">
-        <v>1.000141796562446</v>
+        <v>0.0001417965624461726</v>
       </c>
       <c r="V128">
-        <v>1.000101198186529</v>
+        <v>0.0001011981865286504</v>
       </c>
       <c r="W128">
-        <v>1.001215436037679</v>
+        <v>0.001215436037678597</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10712,7 +10712,7 @@
         <v>0.9528076353383182</v>
       </c>
       <c r="K129">
-        <v>48.79167912374775</v>
+        <v>-0.0120832087625225</v>
       </c>
       <c r="L129">
         <v>0.005996788961842129</v>
@@ -10742,13 +10742,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U129">
-        <v>1.000050634449654</v>
+        <v>5.063444965403008E-05</v>
       </c>
       <c r="V129">
-        <v>1.000060712767895</v>
+        <v>6.071276789487712E-05</v>
       </c>
       <c r="W129">
-        <v>0.9993930197268588</v>
+        <v>-0.0006069802731412111</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10783,7 +10783,7 @@
         <v>1.026302918567739</v>
       </c>
       <c r="K130">
-        <v>50.64903717817103</v>
+        <v>0.006490371781710302</v>
       </c>
       <c r="L130">
         <v>0.005632986900016125</v>
@@ -10813,13 +10813,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U130">
-        <v>1.000192401166559</v>
+        <v>0.0001924011665586089</v>
       </c>
       <c r="V130">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W130">
-        <v>1.000911023382933</v>
+        <v>0.0009110233829334735</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10854,7 +10854,7 @@
         <v>1.026302918567739</v>
       </c>
       <c r="K131">
-        <v>50.64903717817103</v>
+        <v>0.006490371781710302</v>
       </c>
       <c r="L131">
         <v>0.00541672811385546</v>
@@ -10884,13 +10884,13 @@
         <v>0</v>
       </c>
       <c r="U131">
-        <v>1.000070871004647</v>
+        <v>7.087100464731044E-05</v>
       </c>
       <c r="V131">
-        <v>1.000060709082079</v>
+        <v>6.07090820785583E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10925,7 +10925,7 @@
         <v>1.134883207734004</v>
       </c>
       <c r="K132">
-        <v>53.15903013442058</v>
+        <v>0.03159030134420571</v>
       </c>
       <c r="L132">
         <v>0.005726209986970784</v>
@@ -10955,13 +10955,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U132">
-        <v>1.000242969082184</v>
+        <v>0.0002429690821841302</v>
       </c>
       <c r="V132">
-        <v>1.000182116190129</v>
+        <v>0.0001821161901292001</v>
       </c>
       <c r="W132">
-        <v>1.00121359223301</v>
+        <v>0.001213592233009653</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10996,7 +10996,7 @@
         <v>1.134883207734004</v>
       </c>
       <c r="K133">
-        <v>53.15903013442058</v>
+        <v>0.03159030134420571</v>
       </c>
       <c r="L133">
         <v>0.006313518689210106</v>
@@ -11026,13 +11026,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U133">
-        <v>1.000202425052124</v>
+        <v>0.000202425052124422</v>
       </c>
       <c r="V133">
-        <v>1.000121388686574</v>
+        <v>0.0001213886865742975</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11067,7 +11067,7 @@
         <v>1.040954808217182</v>
       </c>
       <c r="K134">
-        <v>51.00332471969228</v>
+        <v>0.01003324719692278</v>
       </c>
       <c r="L134">
         <v>0.006676919155039027</v>
@@ -11097,13 +11097,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U134">
-        <v>1.000141668859161</v>
+        <v>0.0001416688591608928</v>
       </c>
       <c r="V134">
-        <v>1.000040457984383</v>
+        <v>4.045798438334636E-05</v>
       </c>
       <c r="W134">
-        <v>0.999090909090909</v>
+        <v>-0.0009090909090909705</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11138,7 +11138,7 @@
         <v>1.128075666837346</v>
       </c>
       <c r="K135">
-        <v>53.00918968327112</v>
+        <v>0.0300918968327113</v>
       </c>
       <c r="L135">
         <v>0.007188863027707539</v>
@@ -11168,13 +11168,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U135">
-        <v>1.000172002104496</v>
+        <v>0.000172002104496416</v>
       </c>
       <c r="V135">
-        <v>1.000222509911805</v>
+        <v>0.0002225099118051688</v>
       </c>
       <c r="W135">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073703999</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11209,7 +11209,7 @@
         <v>1.128075666837346</v>
       </c>
       <c r="K136">
-        <v>53.00918968327112</v>
+        <v>0.0300918968327113</v>
       </c>
       <c r="L136">
         <v>0.007731903480640844</v>
@@ -11239,13 +11239,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U136">
-        <v>1.000070812216119</v>
+        <v>7.081221611882071E-05</v>
       </c>
       <c r="V136">
-        <v>1.000060671021498</v>
+        <v>6.067102149787118E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11280,7 +11280,7 @@
         <v>1.028765997050864</v>
       </c>
       <c r="K137">
-        <v>50.70895305551945</v>
+        <v>0.007089530555194568</v>
       </c>
       <c r="L137">
         <v>0.007899304416463243</v>
@@ -11310,13 +11310,13 @@
         <v>0.015625</v>
       </c>
       <c r="U137">
-        <v>1.000040461258345</v>
+        <v>4.046125834511471E-05</v>
       </c>
       <c r="V137">
-        <v>0.9999393326592517</v>
+        <v>-6.066734074827718E-05</v>
       </c>
       <c r="W137">
-        <v>0.999090909090909</v>
+        <v>-0.0009090909090909705</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11351,7 +11351,7 @@
         <v>1.121433978096109</v>
       </c>
       <c r="K138">
-        <v>52.86207299755543</v>
+        <v>0.02862072997555432</v>
       </c>
       <c r="L138">
         <v>0.008131326388552775</v>
@@ -11381,13 +11381,13 @@
         <v>0.02062500000000256</v>
       </c>
       <c r="U138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V138">
-        <v>1.000060671021498</v>
+        <v>6.067102149787118E-05</v>
       </c>
       <c r="W138">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073703999</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11422,7 +11422,7 @@
         <v>1.186464140233132</v>
       </c>
       <c r="K139">
-        <v>54.26405667493019</v>
+        <v>0.04264056674930183</v>
       </c>
       <c r="L139">
         <v>0.008579084897195128</v>
@@ -11452,13 +11452,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U139">
-        <v>1.000060689431947</v>
+        <v>6.068943194703635E-05</v>
       </c>
       <c r="V139">
-        <v>1.000141557128412</v>
+        <v>0.0001415571284124617</v>
       </c>
       <c r="W139">
-        <v>1.000606060606061</v>
+        <v>0.000606060606060721</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11493,7 +11493,7 @@
         <v>1.147199625674617</v>
       </c>
       <c r="K140">
-        <v>53.42771170212852</v>
+        <v>0.03427711702128522</v>
       </c>
       <c r="L140">
         <v>0.00898712581014105</v>
@@ -11523,13 +11523,13 @@
         <v>0.02250000000000085</v>
       </c>
       <c r="U140">
-        <v>1.000050571457469</v>
+        <v>5.057145746945046E-05</v>
       </c>
       <c r="V140">
-        <v>1.000181976262208</v>
+        <v>0.0001819762622075061</v>
       </c>
       <c r="W140">
-        <v>0.9996971532404602</v>
+        <v>-0.0003028467595398432</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11564,7 +11564,7 @@
         <v>1.286541613535078</v>
       </c>
       <c r="K141">
-        <v>56.26582984186486</v>
+        <v>0.06265829841864856</v>
       </c>
       <c r="L141">
         <v>0.009754327110040031</v>
@@ -11594,13 +11594,13 @@
         <v>0.02062499999999545</v>
       </c>
       <c r="U141">
-        <v>1.000091024020227</v>
+        <v>9.102402022742595E-05</v>
       </c>
       <c r="V141">
-        <v>1.000141511341123</v>
+        <v>0.0001415113411231683</v>
       </c>
       <c r="W141">
-        <v>1.001211754013935</v>
+        <v>0.00121175401393514</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11635,7 +11635,7 @@
         <v>1.198636168071647</v>
       </c>
       <c r="K142">
-        <v>54.51725872057004</v>
+        <v>0.04517258720570039</v>
       </c>
       <c r="L142">
         <v>0.01043349979862734</v>
@@ -11665,13 +11665,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U142">
-        <v>1.000091015735609</v>
+        <v>9.10157356093233E-05</v>
       </c>
       <c r="V142">
-        <v>1.000242556545995</v>
+        <v>0.0002425565459949208</v>
       </c>
       <c r="W142">
-        <v>0.9993948562783662</v>
+        <v>-0.0006051437216337829</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11706,7 +11706,7 @@
         <v>1.234597712915109</v>
       </c>
       <c r="K143">
-        <v>55.24921581095391</v>
+        <v>0.05249215810953911</v>
       </c>
       <c r="L143">
         <v>0.01108843417847172</v>
@@ -11736,13 +11736,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U143">
-        <v>1.000141567148332</v>
+        <v>0.0001415671483322445</v>
       </c>
       <c r="V143">
-        <v>1.000181873294938</v>
+        <v>0.0001818732949376844</v>
       </c>
       <c r="W143">
-        <v>1.000302755071147</v>
+        <v>0.0003027550711474092</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11777,7 +11777,7 @@
         <v>1.234597712915109</v>
       </c>
       <c r="K144">
-        <v>55.24921581095392</v>
+        <v>0.05249215810953922</v>
       </c>
       <c r="L144">
         <v>0.0116464269030287</v>
@@ -11807,13 +11807,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U144">
-        <v>1.000141547109911</v>
+        <v>0.0001415471099113219</v>
       </c>
       <c r="V144">
-        <v>1.000222249161515</v>
+        <v>0.0002222491615146982</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11848,7 +11848,7 @@
         <v>1.473677235420176</v>
       </c>
       <c r="K145">
-        <v>59.57435409595217</v>
+        <v>0.09574354095952176</v>
       </c>
       <c r="L145">
         <v>0.01273035732426237</v>
@@ -11878,13 +11878,13 @@
         <v>0.02687500000000398</v>
       </c>
       <c r="U145">
-        <v>1.000141527077163</v>
+        <v>0.0001415270771625288</v>
       </c>
       <c r="V145">
-        <v>1.0002827997172</v>
+        <v>0.0002827997172001329</v>
       </c>
       <c r="W145">
-        <v>1.00181598062954</v>
+        <v>0.001815980629539915</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11919,7 +11919,7 @@
         <v>1.55756478717632</v>
       </c>
       <c r="K146">
-        <v>60.90030622043205</v>
+        <v>0.1090030622043205</v>
       </c>
       <c r="L146">
         <v>0.01423798044108782</v>
@@ -11949,13 +11949,13 @@
         <v>0.03187500000000654</v>
       </c>
       <c r="U146">
-        <v>1.000192045282256</v>
+        <v>0.0001920452822559149</v>
       </c>
       <c r="V146">
-        <v>1.000323108301864</v>
+        <v>0.0003231083018639946</v>
       </c>
       <c r="W146">
-        <v>1.000604229607251</v>
+        <v>0.0006042296072505948</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11990,7 +11990,7 @@
         <v>1.55756478717632</v>
       </c>
       <c r="K147">
-        <v>60.90030622043204</v>
+        <v>0.1090030622043204</v>
       </c>
       <c r="L147">
         <v>0.01585387545322105</v>
@@ -12020,13 +12020,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U147">
-        <v>1.00021221981931</v>
+        <v>0.0002122198193101887</v>
       </c>
       <c r="V147">
-        <v>1.000242252952458</v>
+        <v>0.0002422529524579442</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12061,7 +12061,7 @@
         <v>1.488391639957301</v>
       </c>
       <c r="K148">
-        <v>59.81339979034974</v>
+        <v>0.09813399790349742</v>
       </c>
       <c r="L148">
         <v>0.01726377245423043</v>
@@ -12091,13 +12091,13 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="U148">
-        <v>1.000171760545592</v>
+        <v>0.0001717605455924254</v>
       </c>
       <c r="V148">
-        <v>1.000222011423497</v>
+        <v>0.0002220114234967596</v>
       </c>
       <c r="W148">
-        <v>0.9996980676328503</v>
+        <v>-0.0003019323671497043</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12132,7 +12132,7 @@
         <v>1.206403731592182</v>
       </c>
       <c r="K149">
-        <v>54.67737904529459</v>
+        <v>0.04677379045294594</v>
       </c>
       <c r="L149">
         <v>0.01784382455000677</v>
@@ -12162,13 +12162,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U149">
-        <v>1.000111120090512</v>
+        <v>0.0001111200905121734</v>
       </c>
       <c r="V149">
-        <v>1.000181605391662</v>
+        <v>0.0001816053916623428</v>
       </c>
       <c r="W149">
-        <v>0.9984898822108125</v>
+        <v>-0.001510117789187526</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12203,7 +12203,7 @@
         <v>1.117276519488496</v>
       </c>
       <c r="K150">
-        <v>52.76951353328257</v>
+        <v>0.02769513533282575</v>
       </c>
       <c r="L150">
         <v>0.01759849046186596</v>
@@ -12233,13 +12233,13 @@
         <v>0.03437500000000426</v>
       </c>
       <c r="U150">
-        <v>1.000151510560286</v>
+        <v>0.0001515105602860611</v>
       </c>
       <c r="V150">
-        <v>1.000080698852059</v>
+        <v>8.069885205896909E-05</v>
       </c>
       <c r="W150">
-        <v>0.999395039322444</v>
+        <v>-0.000604960677555999</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12274,7 +12274,7 @@
         <v>1.195043286572398</v>
       </c>
       <c r="K151">
-        <v>54.44281185171891</v>
+        <v>0.0444281185171892</v>
       </c>
       <c r="L151">
         <v>0.01702558541070147</v>
@@ -12304,13 +12304,13 @@
         <v>0.03312499999999829</v>
       </c>
       <c r="U151">
-        <v>1.000090892564988</v>
+        <v>9.089256498828746E-05</v>
       </c>
       <c r="V151">
-        <v>1.000121038510419</v>
+        <v>0.0001210385104193357</v>
       </c>
       <c r="W151">
-        <v>1.000605326876513</v>
+        <v>0.000605326876513379</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12345,7 +12345,7 @@
         <v>1.235973163984963</v>
       </c>
       <c r="K152">
-        <v>55.27674409929882</v>
+        <v>0.05276744099298813</v>
       </c>
       <c r="L152">
         <v>0.01633913403069748</v>
@@ -12375,13 +12375,13 @@
         <v>0.03250000000000597</v>
       </c>
       <c r="U152">
-        <v>1.000070687792218</v>
+        <v>7.068779221830468E-05</v>
       </c>
       <c r="V152">
-        <v>1.000201706436452</v>
+        <v>0.0002017064364523424</v>
       </c>
       <c r="W152">
-        <v>1.000302480338778</v>
+        <v>0.0003024803387778885</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12416,7 +12416,7 @@
         <v>1.365225408445727</v>
       </c>
       <c r="K153">
-        <v>57.72073154511159</v>
+        <v>0.07720731545111592</v>
       </c>
       <c r="L153">
         <v>0.01589908319168649</v>
@@ -12446,13 +12446,13 @@
         <v>0.02437499999999915</v>
       </c>
       <c r="U153">
-        <v>1.000131268049357</v>
+        <v>0.0001312680493565921</v>
       </c>
       <c r="V153">
-        <v>1.000201665759171</v>
+        <v>0.0002016657591707993</v>
       </c>
       <c r="W153">
-        <v>1.000907166616269</v>
+        <v>0.000907166616268551</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12487,7 +12487,7 @@
         <v>1.365225408445728</v>
       </c>
       <c r="K154">
-        <v>57.72073154511159</v>
+        <v>0.07720731545111592</v>
       </c>
       <c r="L154">
         <v>0.01557827188869079</v>
@@ -12517,13 +12517,13 @@
         <v>0.015625</v>
       </c>
       <c r="U154">
-        <v>1.000151443254213</v>
+        <v>0.0001514432542126798</v>
       </c>
       <c r="V154">
-        <v>1.000161300078634</v>
+        <v>0.000161300078633797</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12558,7 +12558,7 @@
         <v>1.460702597336389</v>
       </c>
       <c r="K155">
-        <v>59.36120028960593</v>
+        <v>0.0936120028960592</v>
       </c>
       <c r="L155">
         <v>0.01551383777873231</v>
@@ -12588,13 +12588,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U155">
-        <v>1.000201893763502</v>
+        <v>0.0002018937635017704</v>
       </c>
       <c r="V155">
-        <v>1.000221751839532</v>
+        <v>0.0002217518395322138</v>
       </c>
       <c r="W155">
-        <v>1.000604229607251</v>
+        <v>0.0006042296072505948</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12629,7 +12629,7 @@
         <v>1.390812658942006</v>
       </c>
       <c r="K156">
-        <v>58.1732179533245</v>
+        <v>0.08173217953324496</v>
       </c>
       <c r="L156">
         <v>0.01544184095893596</v>
@@ -12659,13 +12659,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U156">
-        <v>1.000131204456915</v>
+        <v>0.0001312044569146131</v>
       </c>
       <c r="V156">
-        <v>1.000120928732667</v>
+        <v>0.0001209287326671138</v>
       </c>
       <c r="W156">
-        <v>0.9996980676328503</v>
+        <v>-0.0003019323671497043</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12700,7 +12700,7 @@
         <v>1.157601948789249</v>
       </c>
       <c r="K157">
-        <v>53.65224801724175</v>
+        <v>0.03652248017241755</v>
       </c>
       <c r="L157">
         <v>0.01487249772615643</v>
@@ -12730,13 +12730,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U157">
-        <v>1.000161461224078</v>
+        <v>0.0001614612240778968</v>
       </c>
       <c r="V157">
-        <v>1.000080609407118</v>
+        <v>8.060940711773767E-05</v>
       </c>
       <c r="W157">
-        <v>0.99879190576865</v>
+        <v>-0.001208094231350043</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12771,7 +12771,7 @@
         <v>1.201728121440394</v>
       </c>
       <c r="K158">
-        <v>54.58113150928965</v>
+        <v>0.04581131509289649</v>
       </c>
       <c r="L158">
         <v>0.01409433836335998</v>
@@ -12801,13 +12801,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U158">
-        <v>1.00013116606633</v>
+        <v>0.0001311660663296799</v>
       </c>
       <c r="V158">
-        <v>1.000080602909765</v>
+        <v>8.060290976508178E-05</v>
       </c>
       <c r="W158">
-        <v>1.000302388872089</v>
+        <v>0.000302388872089443</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12842,7 +12842,7 @@
         <v>0.9398107453776233</v>
       </c>
       <c r="K159">
-        <v>48.44857920377537</v>
+        <v>-0.01551420796224628</v>
       </c>
       <c r="L159">
         <v>0.01252669401036451</v>
@@ -12872,13 +12872,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U159">
-        <v>1.000090795367419</v>
+        <v>9.07953674185169E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999597017932703</v>
+        <v>-4.029820672968309E-05</v>
       </c>
       <c r="W159">
-        <v>0.9981862152357922</v>
+        <v>-0.001813784764207793</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12913,7 +12913,7 @@
         <v>1.016284643313932</v>
       </c>
       <c r="K160">
-        <v>50.40382798549629</v>
+        <v>0.004038279854962967</v>
       </c>
       <c r="L160">
         <v>0.01075578339462179</v>
@@ -12943,13 +12943,13 @@
         <v>-0.002500000000004832</v>
       </c>
       <c r="U160">
-        <v>1.000080699666105</v>
+        <v>8.069966610513291E-05</v>
       </c>
       <c r="V160">
-        <v>0.9998791005077777</v>
+        <v>-0.0001208994922222706</v>
       </c>
       <c r="W160">
-        <v>1.000605693519079</v>
+        <v>0.0006056935190792423</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12984,7 +12984,7 @@
         <v>1.137032903213395</v>
       </c>
       <c r="K161">
-        <v>53.20614865141624</v>
+        <v>0.03206148651416241</v>
       </c>
       <c r="L161">
         <v>0.009266120847140385</v>
@@ -13014,13 +13014,13 @@
         <v>-0.004374999999996021</v>
       </c>
       <c r="U161">
-        <v>1.000110953087017</v>
+        <v>0.0001109530870173625</v>
       </c>
       <c r="V161">
-        <v>0.9998992382411026</v>
+        <v>-0.0001007617588973941</v>
       </c>
       <c r="W161">
-        <v>1.00090799031477</v>
+        <v>0.0009079903147699575</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13055,7 +13055,7 @@
         <v>1.09081736002359</v>
       </c>
       <c r="K162">
-        <v>52.17181475914676</v>
+        <v>0.02171814759146762</v>
       </c>
       <c r="L162">
         <v>0.007897826104456454</v>
@@ -13085,13 +13085,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U162">
-        <v>1.000060513151525</v>
+        <v>6.051315152499903E-05</v>
       </c>
       <c r="V162">
-        <v>0.9998790737045772</v>
+        <v>-0.0001209262954228185</v>
       </c>
       <c r="W162">
-        <v>0.9996976111279106</v>
+        <v>-0.000302388872089443</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13126,7 +13126,7 @@
         <v>1.13360234897361</v>
       </c>
       <c r="K163">
-        <v>53.13091024290166</v>
+        <v>0.03130910242901663</v>
       </c>
       <c r="L163">
         <v>0.006771678309516626</v>
@@ -13156,13 +13156,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U163">
-        <v>1.000070594404889</v>
+        <v>7.059440488910163E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999193727197598</v>
+        <v>-8.062728024016419E-05</v>
       </c>
       <c r="W163">
-        <v>1.000302480338778</v>
+        <v>0.0003024803387778885</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13197,7 +13197,7 @@
         <v>1.268712840394759</v>
       </c>
       <c r="K164">
-        <v>55.92214306743207</v>
+        <v>0.05922143067432073</v>
       </c>
       <c r="L164">
         <v>0.006169808001298327</v>
@@ -13227,13 +13227,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U164">
-        <v>1.000131094640246</v>
+        <v>0.0001310946402461877</v>
       </c>
       <c r="V164">
-        <v>1.000080633781523</v>
+        <v>8.063378152267653E-05</v>
       </c>
       <c r="W164">
-        <v>1.000907166616269</v>
+        <v>0.000907166616268551</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13268,7 +13268,7 @@
         <v>1.268712840394759</v>
       </c>
       <c r="K165">
-        <v>55.92214306743207</v>
+        <v>0.05922143067432073</v>
       </c>
       <c r="L165">
         <v>0.005901364489216541</v>
@@ -13298,13 +13298,13 @@
         <v>-0.008124999999999716</v>
       </c>
       <c r="U165">
-        <v>1.000100828812841</v>
+        <v>0.0001008288128414581</v>
       </c>
       <c r="V165">
-        <v>1.000120940920361</v>
+        <v>0.0001209409203606349</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13339,7 +13339,7 @@
         <v>1.368517450862804</v>
       </c>
       <c r="K166">
-        <v>57.77949621457424</v>
+        <v>0.07779496214574233</v>
       </c>
       <c r="L166">
         <v>0.006050782167322714</v>
@@ -13369,13 +13369,13 @@
         <v>-0.00812499999999261</v>
       </c>
       <c r="U166">
-        <v>1.000120982376901</v>
+        <v>0.0001209823769006135</v>
       </c>
       <c r="V166">
-        <v>1.000120926295423</v>
+        <v>0.0001209262954229295</v>
       </c>
       <c r="W166">
-        <v>1.000604229607251</v>
+        <v>0.0006042296072505948</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13410,7 +13410,7 @@
         <v>1.52610367791765</v>
       </c>
       <c r="K167">
-        <v>60.41334293830993</v>
+        <v>0.1041334293830993</v>
       </c>
       <c r="L167">
         <v>0.006752138972260765</v>
@@ -13440,13 +13440,13 @@
         <v>0.002500000000004832</v>
       </c>
       <c r="U167">
-        <v>1.000181451612903</v>
+        <v>0.0001814516129030608</v>
       </c>
       <c r="V167">
-        <v>1.000161215565363</v>
+        <v>0.0001612155653627489</v>
       </c>
       <c r="W167">
-        <v>1.000905797101449</v>
+        <v>0.0009057971014492239</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13481,7 +13481,7 @@
         <v>1.195568393225655</v>
       </c>
       <c r="K168">
-        <v>54.4537076100447</v>
+        <v>0.04453707610044699</v>
       </c>
       <c r="L168">
         <v>0.007167747356376638</v>
@@ -13511,13 +13511,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U168">
-        <v>1.000100788163438</v>
+        <v>0.0001007881634382812</v>
       </c>
       <c r="V168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W168">
-        <v>0.9984917043740574</v>
+        <v>-0.001508295625942568</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13552,7 +13552,7 @@
         <v>1.14343090498</v>
       </c>
       <c r="K169">
-        <v>53.34582525256019</v>
+        <v>0.03345825252560186</v>
       </c>
       <c r="L169">
         <v>0.007247511084702548</v>
@@ -13582,13 +13582,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U169">
-        <v>1.000070544604346</v>
+        <v>7.054460434563481E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999798513026132</v>
+        <v>-2.014869738675706E-05</v>
       </c>
       <c r="W169">
-        <v>0.9996978851963747</v>
+        <v>-0.0003021148036252974</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13623,7 +13623,7 @@
         <v>1.189335068125617</v>
       </c>
       <c r="K170">
-        <v>54.32403132079081</v>
+        <v>0.04324031320790811</v>
       </c>
       <c r="L170">
         <v>0.007202479373456927</v>
@@ -13653,13 +13653,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U170">
-        <v>1.000090693807628</v>
+        <v>9.069380762838364E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999597017932703</v>
+        <v>-4.029820672968309E-05</v>
       </c>
       <c r="W170">
-        <v>1.000302206104563</v>
+        <v>0.0003022061045632185</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13694,7 +13694,7 @@
         <v>1.084526093913604</v>
       </c>
       <c r="K171">
-        <v>52.02746547909387</v>
+        <v>0.02027465479093871</v>
       </c>
       <c r="L171">
         <v>0.006838253374841835</v>
@@ -13724,13 +13724,13 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="U171">
-        <v>1.000030228527669</v>
+        <v>3.022852766920714E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999395502538888</v>
+        <v>-6.044974611119081E-05</v>
       </c>
       <c r="W171">
-        <v>0.9993957703927492</v>
+        <v>-0.0006042296072508169</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13765,7 +13765,7 @@
         <v>0.7910195200873764</v>
       </c>
       <c r="K172">
-        <v>44.16587933384366</v>
+        <v>-0.05834120666156345</v>
       </c>
       <c r="L172">
         <v>0.005398163993807054</v>
@@ -13795,13 +13795,13 @@
         <v>0.01437500000000114</v>
       </c>
       <c r="U172">
-        <v>0.9999697723860671</v>
+        <v>-3.02276139328983E-05</v>
       </c>
       <c r="V172">
-        <v>0.9998589420654912</v>
+        <v>-0.0001410579345088037</v>
       </c>
       <c r="W172">
-        <v>0.9975816203143895</v>
+        <v>-0.002418379685610539</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13836,7 +13836,7 @@
         <v>0.8266288855480073</v>
       </c>
       <c r="K173">
-        <v>45.25434214295862</v>
+        <v>-0.0474565785704138</v>
       </c>
       <c r="L173">
         <v>0.003488708442685862</v>
@@ -13866,13 +13866,13 @@
         <v>0.006874999999993747</v>
       </c>
       <c r="U173">
-        <v>0.9999697714723309</v>
+        <v>-3.022852766909612E-05</v>
       </c>
       <c r="V173">
-        <v>0.999858922165343</v>
+        <v>-0.0001410778346569996</v>
       </c>
       <c r="W173">
-        <v>1.00030303030303</v>
+        <v>0.0003030303030302495</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13907,7 +13907,7 @@
         <v>1.014046598498749</v>
       </c>
       <c r="K174">
-        <v>50.34871582686367</v>
+        <v>0.00348715826863677</v>
       </c>
       <c r="L174">
         <v>0.001954422195300828</v>
@@ -13937,13 +13937,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U174">
-        <v>1.000020152960974</v>
+        <v>2.015296097379604E-05</v>
       </c>
       <c r="V174">
-        <v>1.00008062728024</v>
+        <v>8.062728024027521E-05</v>
       </c>
       <c r="W174">
-        <v>1.001514692517419</v>
+        <v>0.001514692517419203</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13978,7 +13978,7 @@
         <v>1.014046598498749</v>
       </c>
       <c r="K175">
-        <v>50.34871582686366</v>
+        <v>0.003487158268636659</v>
       </c>
       <c r="L175">
         <v>0.0007380327203853606</v>
@@ -14008,13 +14008,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U175">
-        <v>0.9999596948903197</v>
+        <v>-4.030510968033862E-05</v>
       </c>
       <c r="V175">
-        <v>1.000040310390003</v>
+        <v>4.031039000307324E-05</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14049,7 +14049,7 @@
         <v>0.9362740382979841</v>
       </c>
       <c r="K176">
-        <v>48.35441780343158</v>
+        <v>-0.01645582196568418</v>
       </c>
       <c r="L176">
         <v>-0.0004311593646686718</v>
@@ -14079,13 +14079,13 @@
         <v>-0.02062500000000256</v>
       </c>
       <c r="U176">
-        <v>0.9999193865315047</v>
+        <v>-8.061346849530526E-05</v>
       </c>
       <c r="V176">
-        <v>0.9999395368522884</v>
+        <v>-6.046314771157579E-05</v>
       </c>
       <c r="W176">
-        <v>0.999395039322444</v>
+        <v>-0.000604960677555999</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14120,7 +14120,7 @@
         <v>0.7300032546176006</v>
       </c>
       <c r="K177">
-        <v>42.19664053631855</v>
+        <v>-0.07803359463681453</v>
       </c>
       <c r="L177">
         <v>-0.002266365052552215</v>
@@ -14150,13 +14150,13 @@
         <v>-0.02937500000000171</v>
       </c>
       <c r="U177">
-        <v>0.9998488375608428</v>
+        <v>-0.0001511624391572486</v>
       </c>
       <c r="V177">
-        <v>0.9998185995888257</v>
+        <v>-0.000181400411174315</v>
       </c>
       <c r="W177">
-        <v>0.9978813559322034</v>
+        <v>-0.002118644067796605</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14191,7 +14191,7 @@
         <v>0.7300032546176006</v>
       </c>
       <c r="K178">
-        <v>42.19664053631855</v>
+        <v>-0.07803359463681453</v>
       </c>
       <c r="L178">
         <v>-0.004379957958257826</v>
@@ -14221,13 +14221,13 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="U178">
-        <v>0.9998588937268182</v>
+        <v>-0.0001411062731817569</v>
       </c>
       <c r="V178">
-        <v>0.9997984074186071</v>
+        <v>-0.000201592581392851</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14262,7 +14262,7 @@
         <v>0.8694953115004879</v>
       </c>
       <c r="K179">
-        <v>46.50962782049539</v>
+        <v>-0.03490372179504608</v>
       </c>
       <c r="L179">
         <v>-0.006071349528291323</v>
@@ -14292,13 +14292,13 @@
         <v>-0.0449999999999946</v>
       </c>
       <c r="U179">
-        <v>0.9999495977903672</v>
+        <v>-5.040220963281605E-05</v>
       </c>
       <c r="V179">
-        <v>0.9998185300937592</v>
+        <v>-0.0001814699062407943</v>
       </c>
       <c r="W179">
-        <v>1.00121322414316</v>
+        <v>0.001213224143160385</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14333,7 +14333,7 @@
         <v>0.9062037475223198</v>
       </c>
       <c r="K180">
-        <v>47.53971073135292</v>
+        <v>-0.02460289268647081</v>
       </c>
       <c r="L180">
         <v>-0.007267091222555381</v>
@@ -14363,13 +14363,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U180">
-        <v>0.9999798380999427</v>
+        <v>-2.016190005726948E-05</v>
       </c>
       <c r="V180">
-        <v>0.9998386641390715</v>
+        <v>-0.0001613358609284798</v>
       </c>
       <c r="W180">
-        <v>1.000302938503484</v>
+        <v>0.0003029385034838405</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14404,7 +14404,7 @@
         <v>0.3404810138127625</v>
       </c>
       <c r="K181">
-        <v>25.39991318820131</v>
+        <v>-0.2460008681179869</v>
       </c>
       <c r="L181">
         <v>-0.0127949385625708</v>
@@ -14434,13 +14434,13 @@
         <v>-0.05812499999999687</v>
       </c>
       <c r="U181">
-        <v>0.999526185795655</v>
+        <v>-0.0004738142043450022</v>
       </c>
       <c r="V181">
-        <v>0.9989309774496753</v>
+        <v>-0.001069022550324705</v>
       </c>
       <c r="W181">
-        <v>0.9869775893397941</v>
+        <v>-0.01302241066020593</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14475,7 +14475,7 @@
         <v>0.6155605109333261</v>
       </c>
       <c r="K182">
-        <v>38.10197802976197</v>
+        <v>-0.1189802197023803</v>
       </c>
       <c r="L182">
         <v>-0.0185680970241297</v>
@@ -14505,13 +14505,13 @@
         <v>-0.07249999999999801</v>
       </c>
       <c r="U182">
-        <v>0.9996974220357446</v>
+        <v>-0.0003025779642553683</v>
       </c>
       <c r="V182">
-        <v>0.9992327107521455</v>
+        <v>-0.000767289247854519</v>
       </c>
       <c r="W182">
-        <v>1.005523166615526</v>
+        <v>0.005523166615526209</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14546,7 +14546,7 @@
         <v>0.5159604180661312</v>
       </c>
       <c r="K183">
-        <v>34.03521700944724</v>
+        <v>-0.1596478299055276</v>
       </c>
       <c r="L183">
         <v>-0.02537800930800039</v>
@@ -14576,13 +14576,13 @@
         <v>-0.09250000000000114</v>
       </c>
       <c r="U183">
-        <v>0.9995459956819143</v>
+        <v>-0.0004540043180857323</v>
       </c>
       <c r="V183">
-        <v>0.9990906702770422</v>
+        <v>-0.0009093297229577635</v>
       </c>
       <c r="W183">
-        <v>0.9963381141287762</v>
+        <v>-0.003661885871223847</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14617,7 +14617,7 @@
         <v>0.4948880956565148</v>
       </c>
       <c r="K184">
-        <v>33.10536066843004</v>
+        <v>-0.1689463933156996</v>
       </c>
       <c r="L184">
         <v>-0.03262340904112435</v>
@@ -14647,13 +14647,13 @@
         <v>-0.115000000000002</v>
       </c>
       <c r="U184">
-        <v>0.9995155087662633</v>
+        <v>-0.000484491233736728</v>
       </c>
       <c r="V184">
-        <v>0.9990493912058575</v>
+        <v>-0.000950608794142549</v>
       </c>
       <c r="W184">
-        <v>0.9990811638591117</v>
+        <v>-0.0009188361408882795</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14688,7 +14688,7 @@
         <v>0.4878964594454334</v>
       </c>
       <c r="K185">
-        <v>32.79102227498286</v>
+        <v>-0.1720897772501713</v>
       </c>
       <c r="L185">
         <v>-0.03966637206802179</v>
@@ -14718,13 +14718,13 @@
         <v>-0.1300000000000026</v>
       </c>
       <c r="U185">
-        <v>0.9994849785407727</v>
+        <v>-0.0005150214592273272</v>
       </c>
       <c r="V185">
-        <v>0.9990079967608056</v>
+        <v>-0.0009920032391943501</v>
       </c>
       <c r="W185">
-        <v>0.9996934396076027</v>
+        <v>-0.0003065603923972926</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14759,7 +14759,7 @@
         <v>0.7704506882679145</v>
       </c>
       <c r="K186">
-        <v>43.51720685435581</v>
+        <v>-0.06482793145644189</v>
       </c>
       <c r="L186">
         <v>-0.04390285629304708</v>
@@ -14789,13 +14789,13 @@
         <v>-0.1325000000000003</v>
       </c>
       <c r="U186">
-        <v>0.999686786428759</v>
+        <v>-0.0003132135712410333</v>
       </c>
       <c r="V186">
-        <v>0.9994325781218337</v>
+        <v>-0.0005674218781662743</v>
       </c>
       <c r="W186">
-        <v>1.005826433609322</v>
+        <v>0.005826433609322335</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14830,7 +14830,7 @@
         <v>0.7358917954014742</v>
       </c>
       <c r="K187">
-        <v>42.39272271180234</v>
+        <v>-0.07607277288197667</v>
       </c>
       <c r="L187">
         <v>-0.04634087916990952</v>
@@ -14860,13 +14860,13 @@
         <v>-0.1431250000000048</v>
       </c>
       <c r="U187">
-        <v>0.9996967951244654</v>
+        <v>-0.0003032048755345906</v>
       </c>
       <c r="V187">
-        <v>0.9995336388336914</v>
+        <v>-0.0004663611663086042</v>
       </c>
       <c r="W187">
-        <v>0.9990853658536587</v>
+        <v>-0.0009146341463412977</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14901,7 +14901,7 @@
         <v>0.5878575494080613</v>
       </c>
       <c r="K188">
-        <v>37.02205840991273</v>
+        <v>-0.1297794159008727</v>
       </c>
       <c r="L188">
         <v>-0.04913158986201056</v>
@@ -14931,13 +14931,13 @@
         <v>-0.1699999999999946</v>
       </c>
       <c r="U188">
-        <v>0.9995248349559716</v>
+        <v>-0.0004751650440284472</v>
       </c>
       <c r="V188">
-        <v>0.9991885586773507</v>
+        <v>-0.00081144132264932</v>
       </c>
       <c r="W188">
-        <v>0.995117485505035</v>
+        <v>-0.004882514494965018</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14972,7 +14972,7 @@
         <v>0.6010919613039436</v>
       </c>
       <c r="K189">
-        <v>37.5426256474618</v>
+        <v>-0.124573743525382</v>
       </c>
       <c r="L189">
         <v>-0.05167213173028849</v>
@@ -15002,13 +15002,13 @@
         <v>-0.1418749999999989</v>
       </c>
       <c r="U189">
-        <v>0.9995954119717597</v>
+        <v>-0.0004045880282402825</v>
       </c>
       <c r="V189">
-        <v>0.999106689676175</v>
+        <v>-0.0008933103238250029</v>
       </c>
       <c r="W189">
-        <v>1.000306654400491</v>
+        <v>0.0003066544004906024</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15043,7 +15043,7 @@
         <v>0.5619494827788177</v>
       </c>
       <c r="K190">
-        <v>35.97744286704267</v>
+        <v>-0.1402255713295733</v>
       </c>
       <c r="L190">
         <v>-0.05426611443306843</v>
@@ -15073,13 +15073,13 @@
         <v>-0.136250000000004</v>
       </c>
       <c r="U190">
-        <v>0.9995244166514884</v>
+        <v>-0.0004755833485116101</v>
       </c>
       <c r="V190">
-        <v>0.9990042876592633</v>
+        <v>-0.0009957123407366986</v>
       </c>
       <c r="W190">
-        <v>0.9984671980380135</v>
+        <v>-0.001532801961986463</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15114,7 +15114,7 @@
         <v>0.5064095134999791</v>
       </c>
       <c r="K191">
-        <v>33.61698853875342</v>
+        <v>-0.1638301146124658</v>
       </c>
       <c r="L191">
         <v>-0.05741713027946339</v>
@@ -15144,13 +15144,13 @@
         <v>-0.120625000000004</v>
       </c>
       <c r="U191">
-        <v>0.999412830662388</v>
+        <v>-0.0005871693376120479</v>
       </c>
       <c r="V191">
-        <v>0.9988812497457386</v>
+        <v>-0.001118750254261447</v>
       </c>
       <c r="W191">
-        <v>0.9975437519189438</v>
+        <v>-0.002456248081056156</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15185,7 +15185,7 @@
         <v>0.805513776652385</v>
       </c>
       <c r="K192">
-        <v>44.61410303641622</v>
+        <v>-0.05385896963583775</v>
       </c>
       <c r="L192">
         <v>-0.05795676436919462</v>
@@ -15215,13 +15215,13 @@
         <v>-0.08812499999999801</v>
       </c>
       <c r="U192">
-        <v>0.9996555950608278</v>
+        <v>-0.0003444049391722048</v>
       </c>
       <c r="V192">
-        <v>0.9994909076099131</v>
+        <v>-0.000509092390086896</v>
       </c>
       <c r="W192">
-        <v>1.007079101261927</v>
+        <v>0.007079101261926679</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15256,7 +15256,7 @@
         <v>0.8602697058336031</v>
       </c>
       <c r="K193">
-        <v>46.24435387706906</v>
+        <v>-0.03755646122930939</v>
       </c>
       <c r="L193">
         <v>-0.05622504138060655</v>
@@ -15286,13 +15286,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U193">
-        <v>0.999685875545918</v>
+        <v>-0.0003141244540819654</v>
       </c>
       <c r="V193">
-        <v>0.9995721445743856</v>
+        <v>-0.0004278554256144096</v>
       </c>
       <c r="W193">
-        <v>1.00122249388753</v>
+        <v>0.001222493887530485</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15327,7 +15327,7 @@
         <v>0.9179075260243589</v>
       </c>
       <c r="K194">
-        <v>47.85984274888865</v>
+        <v>-0.02140157251111346</v>
       </c>
       <c r="L194">
         <v>-0.0525778016389928</v>
@@ -15357,13 +15357,13 @@
         <v>-0.04562500000000114</v>
       </c>
       <c r="U194">
-        <v>0.9996959130716833</v>
+        <v>-0.000304086928316738</v>
       </c>
       <c r="V194">
-        <v>0.9995719614357638</v>
+        <v>-0.0004280385642362328</v>
       </c>
       <c r="W194">
-        <v>1.001221001221001</v>
+        <v>0.001221001221001217</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15398,7 +15398,7 @@
         <v>0.8779573563603784</v>
       </c>
       <c r="K195">
-        <v>46.75065455490029</v>
+        <v>-0.03249345445099705</v>
       </c>
       <c r="L195">
         <v>-0.04814070553436529</v>
@@ -15428,13 +15428,13 @@
         <v>-0.03062499999999346</v>
       </c>
       <c r="U195">
-        <v>0.9996654026321661</v>
+        <v>-0.000334597367833922</v>
       </c>
       <c r="V195">
-        <v>0.9994902120717781</v>
+        <v>-0.000509787928221872</v>
       </c>
       <c r="W195">
-        <v>0.9990853658536587</v>
+        <v>-0.0009146341463412977</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15469,7 +15469,7 @@
         <v>0.9695849092027767</v>
       </c>
       <c r="K196">
-        <v>49.22788069061886</v>
+        <v>-0.007721193093811418</v>
       </c>
       <c r="L196">
         <v>-0.04266610512518548</v>
@@ -15499,13 +15499,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U196">
-        <v>0.9997058614708955</v>
+        <v>-0.0002941385291045373</v>
       </c>
       <c r="V196">
-        <v>1.000489646026727</v>
+        <v>0.0004896460267265201</v>
       </c>
       <c r="W196">
-        <v>1.001830942935612</v>
+        <v>0.00183094293561159</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15540,7 +15540,7 @@
         <v>0.939383705648875</v>
       </c>
       <c r="K197">
-        <v>48.4372279148637</v>
+        <v>-0.01562772085136294</v>
       </c>
       <c r="L197">
         <v>-0.03697619546242827</v>
@@ -15570,13 +15570,13 @@
         <v>0.01875000000000426</v>
       </c>
       <c r="U197">
-        <v>0.99965504646727</v>
+        <v>-0.000344953532730008</v>
       </c>
       <c r="V197">
-        <v>1.000081567731805</v>
+        <v>8.156773180512111E-05</v>
       </c>
       <c r="W197">
-        <v>0.9993908010965582</v>
+        <v>-0.0006091989034417988</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15611,7 +15611,7 @@
         <v>1.021353681360436</v>
       </c>
       <c r="K198">
-        <v>50.52820250007075</v>
+        <v>0.005282025000707513</v>
       </c>
       <c r="L198">
         <v>-0.03082817901288154</v>
@@ -15641,13 +15641,13 @@
         <v>0.04937500000000483</v>
       </c>
       <c r="U198">
-        <v>0.9997564193646604</v>
+        <v>-0.0002435806353395797</v>
       </c>
       <c r="V198">
-        <v>1.000428195665029</v>
+        <v>0.0004281956650287189</v>
       </c>
       <c r="W198">
-        <v>1.001523925632429</v>
+        <v>0.001523925632429091</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15682,7 +15682,7 @@
         <v>1.331976747214788</v>
       </c>
       <c r="K199">
-        <v>57.11792576000784</v>
+        <v>0.07117925760007837</v>
       </c>
       <c r="L199">
         <v>-0.02268382649871698</v>
@@ -15712,13 +15712,13 @@
         <v>0.09374999999999289</v>
       </c>
       <c r="U199">
-        <v>0.9999492416705582</v>
+        <v>-5.075832944179126E-05</v>
       </c>
       <c r="V199">
-        <v>1.000856024783956</v>
+        <v>0.0008560247839555224</v>
       </c>
       <c r="W199">
-        <v>1.005477784540475</v>
+        <v>0.005477784540474762</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15753,7 +15753,7 @@
         <v>0.9275848273423974</v>
       </c>
       <c r="K200">
-        <v>48.12160866721899</v>
+        <v>-0.01878391332781004</v>
       </c>
       <c r="L200">
         <v>-0.01642779438808621</v>
@@ -15783,13 +15783,13 @@
         <v>0.09249999999999403</v>
       </c>
       <c r="U200">
-        <v>0.9996954345641161</v>
+        <v>-0.0003045654358838634</v>
       </c>
       <c r="V200">
-        <v>1.000386918095548</v>
+        <v>0.0003869180955484719</v>
       </c>
       <c r="W200">
-        <v>0.9927360774818401</v>
+        <v>-0.007263922518159882</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15824,7 +15824,7 @@
         <v>0.8806767634377742</v>
       </c>
       <c r="K201">
-        <v>46.82765164960858</v>
+        <v>-0.03172348350391418</v>
       </c>
       <c r="L201">
         <v>-0.0120994343278456</v>
@@ -15854,13 +15854,13 @@
         <v>0.08312500000000256</v>
       </c>
       <c r="U201">
-        <v>0.999675031227468</v>
+        <v>-0.0003249687725319639</v>
       </c>
       <c r="V201">
-        <v>0.9999185750636131</v>
+        <v>-8.142493638685355E-05</v>
       </c>
       <c r="W201">
-        <v>0.998780487804878</v>
+        <v>-0.001219512195121952</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15895,7 +15895,7 @@
         <v>0.9472163778183287</v>
       </c>
       <c r="K202">
-        <v>48.64463901436546</v>
+        <v>-0.01355360985634541</v>
       </c>
       <c r="L202">
         <v>-0.008616308543375778</v>
@@ -15925,13 +15925,13 @@
         <v>0.08375000000000199</v>
       </c>
       <c r="U202">
-        <v>0.9998069870681334</v>
+        <v>-0.0001930129318665763</v>
       </c>
       <c r="V202">
-        <v>1.000081431566947</v>
+        <v>8.143156694706555E-05</v>
       </c>
       <c r="W202">
-        <v>1.001526251526252</v>
+        <v>0.001526251526251743</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15966,7 +15966,7 @@
         <v>0.9214017598028138</v>
       </c>
       <c r="K203">
-        <v>47.95466409364452</v>
+        <v>-0.02045335906355483</v>
       </c>
       <c r="L203">
         <v>-0.006058064963144696</v>
@@ -15996,13 +15996,13 @@
         <v>0.08500000000000085</v>
       </c>
       <c r="U203">
-        <v>0.999776468197521</v>
+        <v>-0.0002235318024790267</v>
       </c>
       <c r="V203">
-        <v>1.000366412213741</v>
+        <v>0.0003664122137405634</v>
       </c>
       <c r="W203">
-        <v>0.9993904297470283</v>
+        <v>-0.0006095702529717029</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16037,7 +16037,7 @@
         <v>0.8957061772285995</v>
       </c>
       <c r="K204">
-        <v>47.24920918589105</v>
+        <v>-0.02750790814108955</v>
       </c>
       <c r="L204">
         <v>-0.004423329474026226</v>
@@ -16067,13 +16067,13 @@
         <v>0.06749999999999545</v>
       </c>
       <c r="U204">
-        <v>0.9997052785625722</v>
+        <v>-0.000294721437427814</v>
       </c>
       <c r="V204">
-        <v>1.000305231670838</v>
+        <v>0.0003052316708380687</v>
       </c>
       <c r="W204">
-        <v>0.9993900579444954</v>
+        <v>-0.0006099420555045754</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16108,7 +16108,7 @@
         <v>0.8701623416485311</v>
       </c>
       <c r="K205">
-        <v>46.52870621282486</v>
+        <v>-0.03471293787175134</v>
       </c>
       <c r="L205">
         <v>-0.003658334357930819</v>
@@ -16138,13 +16138,13 @@
         <v>0.05187499999999545</v>
       </c>
       <c r="U205">
-        <v>0.9996848600677044</v>
+        <v>-0.0003151399322955939</v>
       </c>
       <c r="V205">
-        <v>1.000366166239473</v>
+        <v>0.0003661662394727205</v>
       </c>
       <c r="W205">
-        <v>0.9993896856881292</v>
+        <v>-0.0006103143118707521</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16179,7 +16179,7 @@
         <v>0.8851718663468003</v>
       </c>
       <c r="K206">
-        <v>46.954438592495</v>
+        <v>-0.03045561407504999</v>
       </c>
       <c r="L206">
         <v>-0.003344733546579877</v>
@@ -16209,13 +16209,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U206">
-        <v>0.9997152677500052</v>
+        <v>-0.0002847322499948124</v>
       </c>
       <c r="V206">
-        <v>1.000549048316252</v>
+        <v>0.000549048316251799</v>
       </c>
       <c r="W206">
-        <v>1.00030534351145</v>
+        <v>0.0003053435114503955</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16250,7 +16250,7 @@
         <v>1.106364861900287</v>
       </c>
       <c r="K207">
-        <v>52.52484419542417</v>
+        <v>0.0252484419542417</v>
       </c>
       <c r="L207">
         <v>-0.001757904637012807</v>
@@ -16280,13 +16280,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U207">
-        <v>0.9999287966636149</v>
+        <v>-7.120333638510612E-05</v>
       </c>
       <c r="V207">
-        <v>1.000365831351747</v>
+        <v>0.000365831351746948</v>
       </c>
       <c r="W207">
-        <v>1.004273504273504</v>
+        <v>0.004273504273504258</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16321,7 +16321,7 @@
         <v>0.8854703151231063</v>
       </c>
       <c r="K208">
-        <v>46.96283510914316</v>
+        <v>-0.03037164890856842</v>
       </c>
       <c r="L208">
         <v>-0.00115995032742066</v>
@@ -16351,13 +16351,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U208">
-        <v>0.9997762021504938</v>
+        <v>-0.0002237978495062132</v>
       </c>
       <c r="V208">
-        <v>0.9999796834684385</v>
+        <v>-2.031653156153723E-05</v>
       </c>
       <c r="W208">
-        <v>0.9954407294832828</v>
+        <v>-0.004559270516717229</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16392,7 +16392,7 @@
         <v>0.7233186533442258</v>
       </c>
       <c r="K209">
-        <v>41.97242639604539</v>
+        <v>-0.08027573603954608</v>
       </c>
       <c r="L209">
         <v>-0.002971680476770717</v>
@@ -16422,13 +16422,13 @@
         <v>-0.03437500000000426</v>
       </c>
       <c r="U209">
-        <v>0.9995726539209004</v>
+        <v>-0.0004273460790995554</v>
       </c>
       <c r="V209">
-        <v>0.9995733441690369</v>
+        <v>-0.0004266558309631296</v>
       </c>
       <c r="W209">
-        <v>0.995114503816794</v>
+        <v>-0.004885496183205995</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16463,7 +16463,7 @@
         <v>0.7353663440496648</v>
       </c>
       <c r="K210">
-        <v>42.37527981173174</v>
+        <v>-0.07624720188268264</v>
       </c>
       <c r="L210">
         <v>-0.006006129140595898</v>
@@ -16493,13 +16493,13 @@
         <v>-0.04812499999999886</v>
       </c>
       <c r="U210">
-        <v>0.9995724712181517</v>
+        <v>-0.0004275287818482632</v>
       </c>
       <c r="V210">
-        <v>0.9996544645216364</v>
+        <v>-0.0003455354783635789</v>
       </c>
       <c r="W210">
-        <v>1.000306842589751</v>
+        <v>0.0003068425897514437</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16534,7 +16534,7 @@
         <v>0.7171762028430186</v>
       </c>
       <c r="K211">
-        <v>41.76485800674595</v>
+        <v>-0.08235141993254047</v>
       </c>
       <c r="L211">
         <v>-0.009788614698680434</v>
@@ -16564,13 +16564,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U211">
-        <v>0.9999898163895026</v>
+        <v>-1.018361049742733E-05</v>
       </c>
       <c r="V211">
-        <v>0.9994916839494125</v>
+        <v>-0.0005083160505875428</v>
       </c>
       <c r="W211">
-        <v>0.9993865030674846</v>
+        <v>-0.0006134969325154449</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16605,7 +16605,7 @@
         <v>0.5935392845307308</v>
       </c>
       <c r="K212">
-        <v>37.24660510679018</v>
+        <v>-0.1275339489320982</v>
       </c>
       <c r="L212">
         <v>-0.01552533833767165</v>
@@ -16635,13 +16635,13 @@
         <v>-0.08062499999999773</v>
       </c>
       <c r="U212">
-        <v>0.9996435700028515</v>
+        <v>-0.0003564299971484663</v>
       </c>
       <c r="V212">
-        <v>0.9992066236751633</v>
+        <v>-0.0007933763248366699</v>
       </c>
       <c r="W212">
-        <v>0.9950890116635974</v>
+        <v>-0.004910988336402577</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16676,7 +16676,7 @@
         <v>0.7976901466567392</v>
       </c>
       <c r="K213">
-        <v>44.37306107174511</v>
+        <v>-0.05626938928254888</v>
       </c>
       <c r="L213">
         <v>-0.02002639427131052</v>
@@ -16706,13 +16706,13 @@
         <v>-0.08624999999999972</v>
       </c>
       <c r="U213">
-        <v>0.9999490632736016</v>
+        <v>-5.093672639844282E-05</v>
       </c>
       <c r="V213">
-        <v>0.9994706624862574</v>
+        <v>-0.0005293375137426226</v>
       </c>
       <c r="W213">
-        <v>1.005552128315854</v>
+        <v>0.005552128315854388</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16747,7 +16747,7 @@
         <v>0.744369554943715</v>
       </c>
       <c r="K214">
-        <v>42.67269815814536</v>
+        <v>-0.07327301841854639</v>
       </c>
       <c r="L214">
         <v>-0.02408673174992509</v>
@@ -16777,13 +16777,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U214">
-        <v>0.9999184970862708</v>
+        <v>-8.150291372921448E-05</v>
       </c>
       <c r="V214">
-        <v>0.9989815041147236</v>
+        <v>-0.00101849588527636</v>
       </c>
       <c r="W214">
-        <v>0.9981595092024539</v>
+        <v>-0.001840490797546113</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16818,7 +16818,7 @@
         <v>0.695437312828921</v>
       </c>
       <c r="K215">
-        <v>41.01816726379281</v>
+        <v>-0.0898183273620719</v>
       </c>
       <c r="L215">
         <v>-0.02820175873414329</v>
@@ -16848,13 +16848,13 @@
         <v>-0.1112499999999983</v>
       </c>
       <c r="U215">
-        <v>0.9998675469698821</v>
+        <v>-0.000132453030117885</v>
       </c>
       <c r="V215">
-        <v>0.9993474980628847</v>
+        <v>-0.0006525019371153018</v>
       </c>
       <c r="W215">
-        <v>0.9981561155500921</v>
+        <v>-0.001843884449907907</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16889,7 +16889,7 @@
         <v>0.7185027480627373</v>
       </c>
       <c r="K216">
-        <v>41.80981082938059</v>
+        <v>-0.08190189170619411</v>
       </c>
       <c r="L216">
         <v>-0.03176459289364412</v>
@@ -16919,13 +16919,13 @@
         <v>-0.1237500000000011</v>
       </c>
       <c r="U216">
-        <v>0.9996942986701993</v>
+        <v>-0.0003057013298006783</v>
       </c>
       <c r="V216">
-        <v>0.9994694960212201</v>
+        <v>-0.0005305039787798504</v>
       </c>
       <c r="W216">
-        <v>1.000615763546798</v>
+        <v>0.0006157635467980427</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16960,7 +16960,7 @@
         <v>0.7549218563266534</v>
       </c>
       <c r="K217">
-        <v>43.0174057953117</v>
+        <v>-0.06982594204688297</v>
       </c>
       <c r="L217">
         <v>-0.03431815893961411</v>
@@ -16990,13 +16990,13 @@
         <v>-0.1168750000000003</v>
       </c>
       <c r="U217">
-        <v>0.9997553641506548</v>
+        <v>-0.0002446358493451983</v>
       </c>
       <c r="V217">
-        <v>0.9994283847787032</v>
+        <v>-0.000571615221296784</v>
       </c>
       <c r="W217">
-        <v>1.000923076923077</v>
+        <v>0.0009230769230770264</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17031,7 +17031,7 @@
         <v>0.7453967043008662</v>
       </c>
       <c r="K218">
-        <v>42.70643472994532</v>
+        <v>-0.0729356527005468</v>
       </c>
       <c r="L218">
         <v>-0.03608474867958253</v>
@@ -17061,13 +17061,13 @@
         <v>-0.1087500000000077</v>
       </c>
       <c r="U218">
-        <v>0.9999082391084919</v>
+        <v>-9.176089150808586E-05</v>
       </c>
       <c r="V218">
-        <v>0.9994484843532968</v>
+        <v>-0.0005515156467031934</v>
       </c>
       <c r="W218">
-        <v>0.9996925914540424</v>
+        <v>-0.0003074085459575659</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17102,7 +17102,7 @@
         <v>0.7719596544462108</v>
       </c>
       <c r="K219">
-        <v>43.56530649607092</v>
+        <v>-0.06434693503929084</v>
       </c>
       <c r="L219">
         <v>-0.03690886696751879</v>
@@ -17132,13 +17132,13 @@
         <v>-0.09812500000000313</v>
       </c>
       <c r="U219">
-        <v>0.9999184272779184</v>
+        <v>-8.157272208164645E-05</v>
       </c>
       <c r="V219">
-        <v>0.9995299311246909</v>
+        <v>-0.0004700688753090931</v>
       </c>
       <c r="W219">
-        <v>1.000615006150061</v>
+        <v>0.0006150061500613813</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17173,7 +17173,7 @@
         <v>0.8558426549052138</v>
       </c>
       <c r="K220">
-        <v>46.11612157114287</v>
+        <v>-0.03883878428857129</v>
       </c>
       <c r="L220">
         <v>-0.03630752292514874</v>
@@ -17203,13 +17203,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U220">
-        <v>1.000030592266275</v>
+        <v>3.059226627510903E-05</v>
       </c>
       <c r="V220">
-        <v>0.9996932891669734</v>
+        <v>-0.00030671083302658</v>
       </c>
       <c r="W220">
-        <v>1.001843884449908</v>
+        <v>0.001843884449907796</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17244,7 +17244,7 @@
         <v>0.8434304657567588</v>
       </c>
       <c r="K221">
-        <v>45.75331054922739</v>
+        <v>-0.04246689450772606</v>
       </c>
       <c r="L221">
         <v>-0.03485937467214516</v>
@@ -17274,13 +17274,13 @@
         <v>-0.05624999999999858</v>
       </c>
       <c r="U221">
-        <v>1.00010197110139</v>
+        <v>0.000101971101389875</v>
       </c>
       <c r="V221">
-        <v>0.9996522877421202</v>
+        <v>-0.0003477122578797731</v>
       </c>
       <c r="W221">
-        <v>0.9996932515337424</v>
+        <v>-0.0003067484662575559</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17315,7 +17315,7 @@
         <v>0.8434304657567587</v>
       </c>
       <c r="K222">
-        <v>45.75331054922739</v>
+        <v>-0.04246689450772612</v>
       </c>
       <c r="L222">
         <v>-0.03286306781328568</v>
@@ -17345,13 +17345,13 @@
         <v>-0.03937499999999972</v>
       </c>
       <c r="U222">
-        <v>0.9998674510843523</v>
+        <v>-0.0001325489156477344</v>
       </c>
       <c r="V222">
-        <v>0.9993657159225763</v>
+        <v>-0.0006342840774237191</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17386,7 +17386,7 @@
         <v>0.8595001464290274</v>
       </c>
       <c r="K223">
-        <v>46.22210695060208</v>
+        <v>-0.03777893049397918</v>
       </c>
       <c r="L223">
         <v>-0.03043037630733934</v>
@@ -17416,13 +17416,13 @@
         <v>-0.005624999999994884</v>
       </c>
       <c r="U223">
-        <v>0.9998368412465329</v>
+        <v>-0.0001631587534670631</v>
       </c>
       <c r="V223">
-        <v>0.9996928935569069</v>
+        <v>-0.0003071064430930637</v>
       </c>
       <c r="W223">
-        <v>1.000306842589751</v>
+        <v>0.0003068425897514437</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17457,7 +17457,7 @@
         <v>0.845203151950046</v>
       </c>
       <c r="K224">
-        <v>45.80542532982448</v>
+        <v>-0.04194574670175522</v>
       </c>
       <c r="L224">
         <v>-0.02788854550949511</v>
@@ -17487,13 +17487,13 @@
         <v>0.015625</v>
       </c>
       <c r="U224">
-        <v>0.9997858191906004</v>
+        <v>-0.0002141808093996111</v>
       </c>
       <c r="V224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W224">
-        <v>0.9996932515337424</v>
+        <v>-0.0003067484662575559</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17528,7 +17528,7 @@
         <v>0.7898812639682435</v>
       </c>
       <c r="K225">
-        <v>44.1303722134642</v>
+        <v>-0.05869627786535803</v>
       </c>
       <c r="L225">
         <v>-0.02578677929208996</v>
@@ -17558,13 +17558,13 @@
         <v>0.02062500000000256</v>
       </c>
       <c r="U225">
-        <v>0.9997755720362759</v>
+        <v>-0.0002244279637241275</v>
       </c>
       <c r="V225">
-        <v>0.9998975997378554</v>
+        <v>-0.0001024002621445863</v>
       </c>
       <c r="W225">
-        <v>0.998772629640994</v>
+        <v>-0.001227370359005997</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17599,7 +17599,7 @@
         <v>0.7158947266549203</v>
       </c>
       <c r="K226">
-        <v>41.7213664413162</v>
+        <v>-0.08278633558683801</v>
       </c>
       <c r="L226">
         <v>-0.02466102855326195</v>
@@ -17629,13 +17629,13 @@
         <v>0.02374999999999972</v>
       </c>
       <c r="U226">
-        <v>0.9996530789245447</v>
+        <v>-0.0003469210754553087</v>
       </c>
       <c r="V226">
-        <v>0.999815660651742</v>
+        <v>-0.0001843393482580113</v>
       </c>
       <c r="W226">
-        <v>0.99815668202765</v>
+        <v>-0.001843317972350045</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17670,7 +17670,7 @@
         <v>0.671739996688939</v>
       </c>
       <c r="K227">
-        <v>40.18208561255891</v>
+        <v>-0.09817914387441085</v>
       </c>
       <c r="L227">
         <v>-0.02455545089297818</v>
@@ -17700,13 +17700,13 @@
         <v>0.02062500000000256</v>
       </c>
       <c r="U227">
-        <v>0.9996325443243409</v>
+        <v>-0.0003674556756591008</v>
       </c>
       <c r="V227">
-        <v>1.000061457778506</v>
+        <v>6.145777850607992E-05</v>
       </c>
       <c r="W227">
-        <v>0.9987688519544475</v>
+        <v>-0.001231148045552466</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17741,7 +17741,7 @@
         <v>0.661011144677079</v>
       </c>
       <c r="K228">
-        <v>39.79570798157334</v>
+        <v>-0.1020429201842666</v>
       </c>
       <c r="L228">
         <v>-0.02509776685044761</v>
@@ -17771,13 +17771,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U228">
-        <v>0.9995711441262061</v>
+        <v>-0.0004288558737939319</v>
       </c>
       <c r="V228">
-        <v>0.9996722453243749</v>
+        <v>-0.0003277546756250693</v>
       </c>
       <c r="W228">
-        <v>0.9996918335901385</v>
+        <v>-0.0003081664098615322</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17812,7 +17812,7 @@
         <v>0.7786975998894899</v>
       </c>
       <c r="K229">
-        <v>43.77908869601388</v>
+        <v>-0.06220911303986121</v>
       </c>
       <c r="L229">
         <v>-0.02512629737316443</v>
@@ -17842,13 +17842,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U229">
-        <v>0.9994585925449214</v>
+        <v>-0.0005414074550785797</v>
       </c>
       <c r="V229">
-        <v>0.9999385258498801</v>
+        <v>-6.14741501199223E-05</v>
       </c>
       <c r="W229">
-        <v>1.002157829839704</v>
+        <v>0.002157829839704029</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17883,7 +17883,7 @@
         <v>0.867183656440182</v>
       </c>
       <c r="K230">
-        <v>46.44340439940882</v>
+        <v>-0.03556595600591178</v>
       </c>
       <c r="L230">
         <v>-0.02419214940776643</v>
@@ -17913,13 +17913,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U230">
-        <v>0.9997547015535569</v>
+        <v>-0.0002452984464430541</v>
       </c>
       <c r="V230">
-        <v>1.000163941145129</v>
+        <v>0.0001639411451288542</v>
       </c>
       <c r="W230">
-        <v>1.001537988311289</v>
+        <v>0.001537988311288929</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17954,7 +17954,7 @@
         <v>0.885812299924533</v>
       </c>
       <c r="K231">
-        <v>46.97245319483714</v>
+        <v>-0.03027546805162862</v>
       </c>
       <c r="L231">
         <v>-0.02253411242862921</v>
@@ -17984,13 +17984,13 @@
         <v>-0.01937500000000369</v>
       </c>
       <c r="U231">
-        <v>0.9998057577492435</v>
+        <v>-0.0001942422507564823</v>
       </c>
       <c r="V231">
-        <v>1.000143424988731</v>
+        <v>0.0001434249887308781</v>
       </c>
       <c r="W231">
-        <v>1.000307125307125</v>
+        <v>0.0003071253071251778</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18025,7 +18025,7 @@
         <v>0.8858122999245329</v>
       </c>
       <c r="K232">
-        <v>46.97245319483713</v>
+        <v>-0.03027546805162873</v>
       </c>
       <c r="L232">
         <v>-0.02046067270561609</v>
@@ -18055,13 +18055,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U232">
-        <v>0.9997545936991932</v>
+        <v>-0.0002454063008068275</v>
       </c>
       <c r="V232">
-        <v>1.000081945383402</v>
+        <v>8.194538340178248E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18096,7 +18096,7 @@
         <v>0.9477357685705894</v>
       </c>
       <c r="K233">
-        <v>48.65833363352549</v>
+        <v>-0.01341666366474503</v>
       </c>
       <c r="L233">
         <v>-0.01785772546220605</v>
@@ -18126,13 +18126,13 @@
         <v>-0.02437499999999915</v>
       </c>
       <c r="U233">
-        <v>0.9998056723226247</v>
+        <v>-0.0001943276773752611</v>
       </c>
       <c r="V233">
-        <v>1.000163877337813</v>
+        <v>0.0001638773378125347</v>
       </c>
       <c r="W233">
-        <v>1.000921093030396</v>
+        <v>0.000921093030396003</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18167,7 +18167,7 @@
         <v>1.121556031436703</v>
       </c>
       <c r="K234">
-        <v>52.86478484743073</v>
+        <v>0.02864784847430735</v>
       </c>
       <c r="L234">
         <v>-0.0141405492554246</v>
@@ -18197,13 +18197,13 @@
         <v>-0.01062500000000455</v>
       </c>
       <c r="U234">
-        <v>0.9999079321562291</v>
+        <v>-9.206784377091548E-05</v>
       </c>
       <c r="V234">
-        <v>1.000286738351255</v>
+        <v>0.0002867383512545896</v>
       </c>
       <c r="W234">
-        <v>1.002453987730061</v>
+        <v>0.002453987730061336</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18238,7 +18238,7 @@
         <v>0.9127908418647143</v>
       </c>
       <c r="K235">
-        <v>47.7203686825929</v>
+        <v>-0.02279631317407099</v>
       </c>
       <c r="L235">
         <v>-0.01105049233615752</v>
@@ -18268,13 +18268,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U235">
-        <v>0.9998260780602587</v>
+        <v>-0.0001739219397413061</v>
       </c>
       <c r="V235">
-        <v>0.9999590491205799</v>
+        <v>-4.095087942013187E-05</v>
       </c>
       <c r="W235">
-        <v>0.9969400244798041</v>
+        <v>-0.003059975520195879</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18309,7 +18309,7 @@
         <v>0.9519779756268927</v>
       </c>
       <c r="K236">
-        <v>48.76991377534153</v>
+        <v>-0.01230086224658472</v>
       </c>
       <c r="L236">
         <v>-0.008273619422930518</v>
@@ -18339,13 +18339,13 @@
         <v>0.02312500000000028</v>
       </c>
       <c r="U236">
-        <v>0.9998362802881468</v>
+        <v>-0.0001637197118532496</v>
       </c>
       <c r="V236">
-        <v>1.000020476278232</v>
+        <v>2.047627823165143E-05</v>
       </c>
       <c r="W236">
-        <v>1.00061387354205</v>
+        <v>0.0006138735420504471</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18380,7 +18380,7 @@
         <v>0.9726027828701371</v>
       </c>
       <c r="K237">
-        <v>49.30555666432753</v>
+        <v>-0.006944433356724733</v>
       </c>
       <c r="L237">
         <v>-0.005721555939663055</v>
@@ -18410,13 +18410,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U237">
-        <v>0.9997032094317996</v>
+        <v>-0.0002967905682004224</v>
       </c>
       <c r="V237">
-        <v>1.000040951717925</v>
+        <v>4.095171792450891E-05</v>
       </c>
       <c r="W237">
-        <v>1.000306748466258</v>
+        <v>0.0003067484662575559</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18451,7 +18451,7 @@
         <v>0.9943131062840789</v>
       </c>
       <c r="K238">
-        <v>49.85742224483202</v>
+        <v>-0.001425777551679774</v>
       </c>
       <c r="L238">
         <v>-0.003335725982239937</v>
@@ -18481,13 +18481,13 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="U238">
-        <v>0.9998669164542447</v>
+        <v>-0.0001330835457552526</v>
       </c>
       <c r="V238">
-        <v>1.00004095004095</v>
+        <v>4.095004095039378E-05</v>
       </c>
       <c r="W238">
-        <v>1.000306654400491</v>
+        <v>0.0003066544004906024</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18522,7 +18522,7 @@
         <v>1.062872022328121</v>
       </c>
       <c r="K239">
-        <v>51.52389536645043</v>
+        <v>0.01523895366450434</v>
       </c>
       <c r="L239">
         <v>-0.0008551949571432002</v>
@@ -18552,13 +18552,13 @@
         <v>0.04687499999999289</v>
       </c>
       <c r="U239">
-        <v>1.000061431350466</v>
+        <v>6.143135046587922E-05</v>
       </c>
       <c r="V239">
-        <v>1.000122845092339</v>
+        <v>0.0001228450923385083</v>
       </c>
       <c r="W239">
-        <v>1.000919681177192</v>
+        <v>0.0009196811771918778</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18593,7 +18593,7 @@
         <v>1.135039302374481</v>
       </c>
       <c r="K240">
-        <v>53.16245471978659</v>
+        <v>0.03162454719786589</v>
       </c>
       <c r="L240">
         <v>0.001863030097046455</v>
@@ -18623,13 +18623,13 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="U240">
-        <v>1.000081903435849</v>
+        <v>8.190343584923987E-05</v>
       </c>
       <c r="V240">
-        <v>1.000266131673763</v>
+        <v>0.0002661316737633257</v>
       </c>
       <c r="W240">
-        <v>1.000918836140888</v>
+        <v>0.0009188361408882795</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18664,7 +18664,7 @@
         <v>1.107007813637544</v>
       </c>
       <c r="K241">
-        <v>52.5393312009794</v>
+        <v>0.025393312009794</v>
       </c>
       <c r="L241">
         <v>0.004433327751701178</v>
@@ -18694,13 +18694,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U241">
-        <v>1.000092133819254</v>
+        <v>9.213381925365915E-05</v>
       </c>
       <c r="V241">
-        <v>1.000368391969055</v>
+        <v>0.0003683919690551374</v>
       </c>
       <c r="W241">
-        <v>0.9996940024479805</v>
+        <v>-0.0003059975520195435</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18735,7 +18735,7 @@
         <v>1.078958867591761</v>
       </c>
       <c r="K242">
-        <v>51.89900023570993</v>
+        <v>0.01899000235709936</v>
       </c>
       <c r="L242">
         <v>0.00662208544356044</v>
@@ -18765,13 +18765,13 @@
         <v>0.04312500000000341</v>
       </c>
       <c r="U242">
-        <v>1.000245667550387</v>
+        <v>0.0002456675503874628</v>
       </c>
       <c r="V242">
-        <v>1.000429632357454</v>
+        <v>0.0004296323574541905</v>
       </c>
       <c r="W242">
-        <v>0.9996939087848177</v>
+        <v>-0.0003060912151823247</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18806,7 +18806,7 @@
         <v>1.050929340368846</v>
       </c>
       <c r="K243">
-        <v>51.24161616313137</v>
+        <v>0.01241616163131365</v>
       </c>
       <c r="L243">
         <v>0.008304137497962365</v>
@@ -18836,13 +18836,13 @@
         <v>0.03937499999999972</v>
       </c>
       <c r="U243">
-        <v>1.000051168169305</v>
+        <v>5.116816930517132E-05</v>
       </c>
       <c r="V243">
-        <v>1.000429447852761</v>
+        <v>0.0004294478527606671</v>
       </c>
       <c r="W243">
-        <v>0.9996938150642989</v>
+        <v>-0.0003061849357011148</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18877,7 +18877,7 @@
         <v>0.9473103078837516</v>
       </c>
       <c r="K244">
-        <v>48.64711618115171</v>
+        <v>-0.01352883818848288</v>
       </c>
       <c r="L244">
         <v>0.009094621544853505</v>
@@ -18907,13 +18907,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U244">
-        <v>1.000071631771761</v>
+        <v>7.16317717606163E-05</v>
       </c>
       <c r="V244">
-        <v>1.000204411193557</v>
+        <v>0.0002044111935570747</v>
       </c>
       <c r="W244">
-        <v>0.9987748851454824</v>
+        <v>-0.001225114854517595</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18948,7 +18948,7 @@
         <v>0.8788968441635515</v>
       </c>
       <c r="K245">
-        <v>46.7772803437125</v>
+        <v>-0.03222719656287493</v>
       </c>
       <c r="L245">
         <v>0.008926286308093964</v>
@@ -18978,13 +18978,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U245">
-        <v>1.000102323772882</v>
+        <v>0.000102323772882329</v>
       </c>
       <c r="V245">
-        <v>1.000040873883632</v>
+        <v>4.087388363216427E-05</v>
       </c>
       <c r="W245">
-        <v>0.999080036798528</v>
+        <v>-0.0009199632014720294</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19019,7 +19019,7 @@
         <v>0.9802563413106899</v>
       </c>
       <c r="K246">
-        <v>49.50148730047136</v>
+        <v>-0.004985126995286415</v>
       </c>
       <c r="L246">
         <v>0.00860241048891636</v>
@@ -19049,13 +19049,13 @@
         <v>0.01812500000000483</v>
       </c>
       <c r="U246">
-        <v>1.000122775964559</v>
+        <v>0.0001227759645585635</v>
       </c>
       <c r="V246">
-        <v>1.000102180532565</v>
+        <v>0.0001021805325649439</v>
       </c>
       <c r="W246">
-        <v>1.001227747084101</v>
+        <v>0.001227747084100672</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19090,7 +19090,7 @@
         <v>0.7904898041019084</v>
       </c>
       <c r="K247">
-        <v>44.14936082243764</v>
+        <v>-0.05850639177562356</v>
       </c>
       <c r="L247">
         <v>0.007168103860144525</v>
@@ -19120,13 +19120,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V247">
-        <v>0.9999182639257838</v>
+        <v>-8.173607421624318E-05</v>
       </c>
       <c r="W247">
-        <v>0.9972409564684244</v>
+        <v>-0.002759043531575633</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19161,7 +19161,7 @@
         <v>0.7562441186422776</v>
       </c>
       <c r="K248">
-        <v>43.06030754009966</v>
+        <v>-0.06939692459900337</v>
       </c>
       <c r="L248">
         <v>0.004903205530163273</v>
@@ -19191,13 +19191,13 @@
         <v>-0.01187500000000341</v>
       </c>
       <c r="U248">
-        <v>0.9999897699256275</v>
+        <v>-1.023007437250811E-05</v>
       </c>
       <c r="V248">
-        <v>0.9998160788000163</v>
+        <v>-0.0001839211999836721</v>
       </c>
       <c r="W248">
-        <v>0.9993851829080848</v>
+        <v>-0.0006148170919152429</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19232,7 +19232,7 @@
         <v>0.8474485586500897</v>
       </c>
       <c r="K249">
-        <v>45.87129393574623</v>
+        <v>-0.04128706064253768</v>
       </c>
       <c r="L249">
         <v>0.002708604654557281</v>
@@ -19262,13 +19262,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U249">
-        <v>1.000010230179028</v>
+        <v>1.023017902812562E-05</v>
       </c>
       <c r="V249">
-        <v>0.9997342871742462</v>
+        <v>-0.0002657128257538277</v>
       </c>
       <c r="W249">
-        <v>1.001230390649031</v>
+        <v>0.001230390649030966</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19303,7 +19303,7 @@
         <v>0.8474485586500897</v>
       </c>
       <c r="K250">
-        <v>45.87129393574623</v>
+        <v>-0.04128706064253768</v>
       </c>
       <c r="L250">
         <v>0.0006865496203148305</v>
@@ -19333,13 +19333,13 @@
         <v>-0.0293749999999946</v>
       </c>
       <c r="U250">
-        <v>0.9999488496281368</v>
+        <v>-5.11503718632067E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999386653581944</v>
+        <v>-6.133464180557713E-05</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19374,7 +19374,7 @@
         <v>1.024299273346683</v>
       </c>
       <c r="K251">
-        <v>50.60018974631429</v>
+        <v>0.006001897463142947</v>
       </c>
       <c r="L251">
         <v>-0.0003227237510229159</v>
@@ -19404,13 +19404,13 @@
         <v>-0.03562499999999602</v>
       </c>
       <c r="U251">
-        <v>1.000030691793014</v>
+        <v>3.06917930144035E-05</v>
       </c>
       <c r="V251">
-        <v>1.000040892269316</v>
+        <v>4.089226931647261E-05</v>
       </c>
       <c r="W251">
-        <v>1.002150537634409</v>
+        <v>0.002150537634408645</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19445,7 +19445,7 @@
         <v>1.104081550653419</v>
       </c>
       <c r="K252">
-        <v>52.4733250149239</v>
+        <v>0.02473325014923899</v>
       </c>
       <c r="L252">
         <v>-0.0003178600261308341</v>
@@ -19475,13 +19475,13 @@
         <v>-0.03375000000000483</v>
       </c>
       <c r="U252">
-        <v>1.000061381702115</v>
+        <v>6.13817021146712E-05</v>
       </c>
       <c r="V252">
-        <v>1.000081781194414</v>
+        <v>8.178119441426546E-05</v>
       </c>
       <c r="W252">
-        <v>1.000919681177192</v>
+        <v>0.0009196811771918778</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19516,7 +19516,7 @@
         <v>1.104081550653419</v>
       </c>
       <c r="K253">
-        <v>52.4733250149239</v>
+        <v>0.02473325014923899</v>
       </c>
       <c r="L253">
         <v>0.0003022436325633069</v>
@@ -19546,13 +19546,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U253">
-        <v>1.00005114827886</v>
+        <v>5.114827886032458E-05</v>
       </c>
       <c r="V253">
-        <v>1.000061330880098</v>
+        <v>6.133088009829812E-05</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19587,7 +19587,7 @@
         <v>1.104081550653419</v>
       </c>
       <c r="K254">
-        <v>52.4733250149239</v>
+        <v>0.02473325014923899</v>
       </c>
       <c r="L254">
         <v>0.001254457248961465</v>
@@ -19617,13 +19617,13 @@
         <v>-0.02562499999999801</v>
       </c>
       <c r="U254">
-        <v>1.000061374795417</v>
+        <v>6.137479541745705E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19658,7 +19658,7 @@
         <v>0.9822159005019973</v>
       </c>
       <c r="K255">
-        <v>49.55140861564326</v>
+        <v>-0.004485913843567391</v>
       </c>
       <c r="L255">
         <v>0.001895769299878702</v>
@@ -19688,13 +19688,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U255">
-        <v>1.000061371028783</v>
+        <v>6.137102878289724E-05</v>
       </c>
       <c r="V255">
-        <v>0.9998569033893457</v>
+        <v>-0.0001430966106542586</v>
       </c>
       <c r="W255">
-        <v>0.9987748851454824</v>
+        <v>-0.001225114854517595</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19729,7 +19729,7 @@
         <v>1.040309268542811</v>
       </c>
       <c r="K256">
-        <v>50.98782251211356</v>
+        <v>0.009878225121135564</v>
       </c>
       <c r="L256">
         <v>0.002524357016881421</v>
@@ -19759,13 +19759,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U256">
-        <v>1.000143190279426</v>
+        <v>0.0001431902794255535</v>
       </c>
       <c r="V256">
-        <v>0.9999182188055855</v>
+        <v>-8.17811944144875E-05</v>
       </c>
       <c r="W256">
-        <v>1.000613308800981</v>
+        <v>0.0006133088009814269</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19800,7 +19800,7 @@
         <v>1.132035639133536</v>
       </c>
       <c r="K257">
-        <v>53.09646885610212</v>
+        <v>0.03096468856102119</v>
       </c>
       <c r="L257">
         <v>0.003431070330195825</v>
@@ -19830,13 +19830,13 @@
         <v>0.01937499999999659</v>
       </c>
       <c r="U257">
-        <v>1.000214754668358</v>
+        <v>0.0002147546683575197</v>
       </c>
       <c r="V257">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W257">
-        <v>1.000919399325774</v>
+        <v>0.0009193993257736732</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19871,7 +19871,7 @@
         <v>1.389513170616342</v>
       </c>
       <c r="K258">
-        <v>58.15047130533021</v>
+        <v>0.08150471305330209</v>
       </c>
       <c r="L258">
         <v>0.005329528666960458</v>
@@ -19901,13 +19901,13 @@
         <v>0.03812500000000085</v>
       </c>
       <c r="U258">
-        <v>1.000306726512417</v>
+        <v>0.0003067265124172547</v>
       </c>
       <c r="V258">
-        <v>1.000184022737032</v>
+        <v>0.0001840227370317749</v>
       </c>
       <c r="W258">
-        <v>1.002449479485609</v>
+        <v>0.002449479485609363</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19942,7 +19942,7 @@
         <v>1.525027660870439</v>
       </c>
       <c r="K259">
-        <v>60.3964734526799</v>
+        <v>0.103964734526799</v>
       </c>
       <c r="L259">
         <v>0.008134951626159558</v>
@@ -19972,13 +19972,13 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="U259">
-        <v>1.000275969214101</v>
+        <v>0.0002759692141010017</v>
       </c>
       <c r="V259">
-        <v>1.000347534549023</v>
+        <v>0.0003475345490226989</v>
       </c>
       <c r="W259">
-        <v>1.001221747098351</v>
+        <v>0.001221747098350656</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -20013,7 +20013,7 @@
         <v>1.334644807447746</v>
       </c>
       <c r="K260">
-        <v>57.16693191144529</v>
+        <v>0.07166931911445285</v>
       </c>
       <c r="L260">
         <v>0.01083422127219305</v>
@@ -20043,13 +20043,13 @@
         <v>0.05312500000000853</v>
       </c>
       <c r="U260">
-        <v>1.000183928717404</v>
+        <v>0.0001839287174036919</v>
       </c>
       <c r="V260">
-        <v>1.000326977704208</v>
+        <v>0.0003269777042078648</v>
       </c>
       <c r="W260">
-        <v>0.9987797437461867</v>
+        <v>-0.001220256253813279</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20084,7 +20084,7 @@
         <v>1.334644807447746</v>
       </c>
       <c r="K261">
-        <v>57.16693191144529</v>
+        <v>0.07166931911445285</v>
       </c>
       <c r="L261">
         <v>0.01325727355802396</v>
@@ -20114,13 +20114,13 @@
         <v>0.05437500000000028</v>
       </c>
       <c r="U261">
-        <v>1.00017367851086</v>
+        <v>0.0001736785108601424</v>
       </c>
       <c r="V261">
-        <v>1.000245153118552</v>
+        <v>0.0002451531185521105</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20155,7 +20155,7 @@
         <v>1.542133368659642</v>
       </c>
       <c r="K262">
-        <v>60.6629607900054</v>
+        <v>0.106629607900054</v>
       </c>
       <c r="L262">
         <v>0.01597980300697911</v>
@@ -20185,13 +20185,13 @@
         <v>0.06187500000000057</v>
       </c>
       <c r="U262">
-        <v>1.000234936005475</v>
+        <v>0.0002349360054747507</v>
       </c>
       <c r="V262">
-        <v>1.000551459324769</v>
+        <v>0.0005514593247686328</v>
       </c>
       <c r="W262">
-        <v>1.001832620647526</v>
+        <v>0.001832620647525873</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20226,7 +20226,7 @@
         <v>1.542133368659642</v>
       </c>
       <c r="K263">
-        <v>60.6629607900054</v>
+        <v>0.106629607900054</v>
       </c>
       <c r="L263">
         <v>0.01865130053682305</v>
@@ -20256,13 +20256,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U263">
-        <v>1.000204244194359</v>
+        <v>0.0002042441943590489</v>
       </c>
       <c r="V263">
-        <v>1.000591981709807</v>
+        <v>0.0005919817098065661</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20297,7 +20297,7 @@
         <v>1.542133368659642</v>
       </c>
       <c r="K264">
-        <v>60.6629607900054</v>
+        <v>0.106629607900054</v>
       </c>
       <c r="L264">
         <v>0.02105293915670962</v>
@@ -20327,13 +20327,13 @@
         <v>0.07187499999999858</v>
       </c>
       <c r="U264">
-        <v>1.000122521492312</v>
+        <v>0.0001225214923117335</v>
       </c>
       <c r="V264">
-        <v>1.000510027133444</v>
+        <v>0.0005100271334435025</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20368,7 +20368,7 @@
         <v>1.427018433862554</v>
       </c>
       <c r="K265">
-        <v>58.7971815109571</v>
+        <v>0.08797181510957097</v>
       </c>
       <c r="L265">
         <v>0.02283746444942393</v>
@@ -20398,13 +20398,13 @@
         <v>0.07249999999999801</v>
       </c>
       <c r="U265">
-        <v>1.000204177471058</v>
+        <v>0.0002041774710579425</v>
       </c>
       <c r="V265">
-        <v>1.000468985767301</v>
+        <v>0.0004689857673014775</v>
       </c>
       <c r="W265">
-        <v>0.9993902439024391</v>
+        <v>-0.0006097560975608651</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20439,7 +20439,7 @@
         <v>1.085762051878871</v>
       </c>
       <c r="K266">
-        <v>52.05589251663717</v>
+        <v>0.0205589251663717</v>
       </c>
       <c r="L266">
         <v>0.02315824126062174</v>
@@ -20469,13 +20469,13 @@
         <v>0.05812499999999687</v>
       </c>
       <c r="U266">
-        <v>1.000102067895564</v>
+        <v>0.0001020678955641063</v>
       </c>
       <c r="V266">
-        <v>1.000163049016611</v>
+        <v>0.0001630490166106835</v>
       </c>
       <c r="W266">
-        <v>0.9975594874923734</v>
+        <v>-0.002440512507626558</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20510,7 +20510,7 @@
         <v>1.180159197266733</v>
       </c>
       <c r="K267">
-        <v>54.13178995122462</v>
+        <v>0.04131789951224618</v>
       </c>
       <c r="L267">
         <v>0.02282249851962187</v>
@@ -20540,13 +20540,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U267">
-        <v>1.000122468974527</v>
+        <v>0.0001224689745265017</v>
       </c>
       <c r="V267">
-        <v>1.000163022435963</v>
+        <v>0.0001630224359627785</v>
       </c>
       <c r="W267">
-        <v>1.00091743119266</v>
+        <v>0.0009174311926603007</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20581,7 +20581,7 @@
         <v>1.312646418863779</v>
       </c>
       <c r="K268">
-        <v>56.75949458407448</v>
+        <v>0.06759494584074477</v>
       </c>
       <c r="L268">
         <v>0.02247350793365308</v>
@@ -20611,13 +20611,13 @@
         <v>0.04124999999999801</v>
       </c>
       <c r="U268">
-        <v>1.000153067472141</v>
+        <v>0.0001530674721414993</v>
       </c>
       <c r="V268">
-        <v>1.00024449379597</v>
+        <v>0.0002444937959698024</v>
       </c>
       <c r="W268">
-        <v>1.001222120378858</v>
+        <v>0.001222120378857605</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20652,7 +20652,7 @@
         <v>1.268422784513606</v>
       </c>
       <c r="K269">
-        <v>55.91650697449597</v>
+        <v>0.05916506974495972</v>
       </c>
       <c r="L269">
         <v>0.02194518384421614</v>
@@ -20682,13 +20682,13 @@
         <v>0.03687500000000199</v>
       </c>
       <c r="U269">
-        <v>1.000112232300456</v>
+        <v>0.0001122323004560943</v>
       </c>
       <c r="V269">
-        <v>1.000224064530585</v>
+        <v>0.0002240645305850997</v>
       </c>
       <c r="W269">
-        <v>0.9996948428440645</v>
+        <v>-0.0003051571559354871</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20723,7 +20723,7 @@
         <v>1.110844512896271</v>
       </c>
       <c r="K270">
-        <v>52.62559634826399</v>
+        <v>0.02625596348263992</v>
       </c>
       <c r="L270">
         <v>0.0208160185319425</v>
@@ -20753,13 +20753,13 @@
         <v>0.02250000000000085</v>
       </c>
       <c r="U270">
-        <v>1.000040807165738</v>
+        <v>4.080716573828802E-05</v>
       </c>
       <c r="V270">
-        <v>1.000224014336917</v>
+        <v>0.000224014336917433</v>
       </c>
       <c r="W270">
-        <v>0.9987789987789988</v>
+        <v>-0.001221001221001217</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20794,7 +20794,7 @@
         <v>1.011626577266558</v>
       </c>
       <c r="K271">
-        <v>50.28898448146266</v>
+        <v>0.002889844814626619</v>
       </c>
       <c r="L271">
         <v>0.01898494418556275</v>
@@ -20824,13 +20824,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U271">
-        <v>1.000020402750291</v>
+        <v>2.040275029080441E-05</v>
       </c>
       <c r="V271">
-        <v>1.000122162272218</v>
+        <v>0.0001221622722182847</v>
       </c>
       <c r="W271">
-        <v>0.9990831295843521</v>
+        <v>-0.000916870415647919</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20865,7 +20865,7 @@
         <v>1.168324073374729</v>
       </c>
       <c r="K272">
-        <v>53.88143256447716</v>
+        <v>0.03881432564477161</v>
       </c>
       <c r="L272">
         <v>0.01733374221326668</v>
@@ -20895,13 +20895,13 @@
         <v>-0.01062500000000455</v>
       </c>
       <c r="U272">
-        <v>1.000081609336108</v>
+        <v>8.16093361080128E-05</v>
       </c>
       <c r="V272">
-        <v>1.000162863133894</v>
+        <v>0.0001628631338941311</v>
       </c>
       <c r="W272">
-        <v>1.001529519730805</v>
+        <v>0.001529519730804729</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20936,7 +20936,7 @@
         <v>1.201313019923808</v>
       </c>
       <c r="K273">
-        <v>54.57256687490032</v>
+        <v>0.0457256687490033</v>
       </c>
       <c r="L273">
         <v>0.01594499613078125</v>
@@ -20966,13 +20966,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U273">
-        <v>1.00010200334571</v>
+        <v>0.0001020033457097558</v>
       </c>
       <c r="V273">
-        <v>1.000020354576727</v>
+        <v>2.035457672655561E-05</v>
       </c>
       <c r="W273">
-        <v>1.000305436774588</v>
+        <v>0.0003054367745876085</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -21007,7 +21007,7 @@
         <v>1.270763433711368</v>
       </c>
       <c r="K274">
-        <v>55.96194719563606</v>
+        <v>0.05961947195636064</v>
       </c>
       <c r="L274">
         <v>0.01496838572850887</v>
@@ -21037,13 +21037,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U274">
-        <v>1.000163188707341</v>
+        <v>0.000163188707341444</v>
       </c>
       <c r="V274">
-        <v>0.9999796458375736</v>
+        <v>-2.035416242640586E-05</v>
       </c>
       <c r="W274">
-        <v>1.000610687022901</v>
+        <v>0.000610687022900791</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21078,7 +21078,7 @@
         <v>1.225951416267549</v>
       </c>
       <c r="K275">
-        <v>55.07538966520711</v>
+        <v>0.05075389665207108</v>
       </c>
       <c r="L275">
         <v>0.01413764929736802</v>
@@ -21108,13 +21108,13 @@
         <v>-0.00812499999999261</v>
       </c>
       <c r="U275">
-        <v>1.000183557341274</v>
+        <v>0.0001835573412738434</v>
       </c>
       <c r="V275">
-        <v>1.000040709153453</v>
+        <v>4.070915345311121E-05</v>
       </c>
       <c r="W275">
-        <v>0.9996948428440645</v>
+        <v>-0.0003051571559354871</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21149,7 +21149,7 @@
         <v>1.141227067213617</v>
       </c>
       <c r="K276">
-        <v>53.29780688316714</v>
+        <v>0.03297806883167143</v>
       </c>
       <c r="L276">
         <v>0.0131739682937886</v>
@@ -21179,13 +21179,13 @@
         <v>-0.01187499999999631</v>
       </c>
       <c r="U276">
-        <v>1.000122349102773</v>
+        <v>0.0001223491027730894</v>
       </c>
       <c r="V276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W276">
-        <v>0.9993894993894995</v>
+        <v>-0.0006105006105004973</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21220,7 +21220,7 @@
         <v>1.177600256288047</v>
       </c>
       <c r="K277">
-        <v>54.07788931359664</v>
+        <v>0.04077889313596639</v>
       </c>
       <c r="L277">
         <v>0.0122545776789475</v>
@@ -21250,13 +21250,13 @@
         <v>-0.0137499999999946</v>
       </c>
       <c r="U277">
-        <v>1.000224279248053</v>
+        <v>0.0002242792480529054</v>
       </c>
       <c r="V277">
-        <v>0.9998982312592865</v>
+        <v>-0.0001017687407135481</v>
       </c>
       <c r="W277">
-        <v>1.000305436774588</v>
+        <v>0.0003054367745876085</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21291,7 +21291,7 @@
         <v>1.177600256288047</v>
       </c>
       <c r="K278">
-        <v>54.07788931359664</v>
+        <v>0.04077889313596639</v>
       </c>
       <c r="L278">
         <v>0.01137597744141371</v>
@@ -21321,13 +21321,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U278">
-        <v>1.000244613408892</v>
+        <v>0.0002446134088915919</v>
       </c>
       <c r="V278">
-        <v>0.9998982209013556</v>
+        <v>-0.0001017790986443945</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21362,7 +21362,7 @@
         <v>1.580627282043583</v>
       </c>
       <c r="K279">
-        <v>61.24973153007566</v>
+        <v>0.1124973153007567</v>
       </c>
       <c r="L279">
         <v>0.01164978305031073</v>
@@ -21392,13 +21392,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U279">
-        <v>1.000305691984756</v>
+        <v>0.0003056919847561623</v>
       </c>
       <c r="V279">
-        <v>1.000101789458684</v>
+        <v>0.0001017894586838874</v>
       </c>
       <c r="W279">
-        <v>1.003053435114504</v>
+        <v>0.003053435114503955</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21433,7 +21433,7 @@
         <v>1.457003728523259</v>
       </c>
       <c r="K280">
-        <v>59.30002106260403</v>
+        <v>0.09300021062604036</v>
       </c>
       <c r="L280">
         <v>0.01233883905207078</v>
@@ -21463,13 +21463,13 @@
         <v>0.01937499999999659</v>
       </c>
       <c r="U280">
-        <v>1.000285225328009</v>
+        <v>0.0002852253280092309</v>
       </c>
       <c r="V280">
-        <v>1.000101779098644</v>
+        <v>0.0001017790986441724</v>
       </c>
       <c r="W280">
-        <v>0.9993911719939116</v>
+        <v>-0.0006088280060884133</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21504,7 +21504,7 @@
         <v>1.498167783394242</v>
       </c>
       <c r="K281">
-        <v>59.9706630336371</v>
+        <v>0.09970663033637106</v>
       </c>
       <c r="L281">
         <v>0.01330161312442811</v>
@@ -21534,13 +21534,13 @@
         <v>0.02687500000000398</v>
       </c>
       <c r="U281">
-        <v>1.000224041712493</v>
+        <v>0.0002240417124934613</v>
       </c>
       <c r="V281">
-        <v>1.000284952473998</v>
+        <v>0.00028495247399829</v>
       </c>
       <c r="W281">
-        <v>1.000304599451721</v>
+        <v>0.0003045994517212325</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21575,7 +21575,7 @@
         <v>1.541498367468931</v>
       </c>
       <c r="K282">
-        <v>60.65313230966595</v>
+        <v>0.1065313230966595</v>
       </c>
       <c r="L282">
         <v>0.014431370089758</v>
@@ -21605,13 +21605,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U282">
-        <v>1.000203628662771</v>
+        <v>0.0002036286627706829</v>
       </c>
       <c r="V282">
-        <v>1.000244175399328</v>
+        <v>0.0002441753993283058</v>
       </c>
       <c r="W282">
-        <v>1.000304506699147</v>
+        <v>0.0003045066991473888</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21646,7 +21646,7 @@
         <v>1.541498367468931</v>
       </c>
       <c r="K283">
-        <v>60.65313230966595</v>
+        <v>0.1065313230966595</v>
       </c>
       <c r="L283">
         <v>0.01553738981654926</v>
@@ -21676,13 +21676,13 @@
         <v>0.03125</v>
       </c>
       <c r="U283">
-        <v>1.00020358720658</v>
+        <v>0.0002035872065799804</v>
       </c>
       <c r="V283">
-        <v>1.000162743861505</v>
+        <v>0.0001627438615050547</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21717,7 +21717,7 @@
         <v>1.781557005001864</v>
       </c>
       <c r="K284">
-        <v>64.04891223865715</v>
+        <v>0.1404891223865715</v>
       </c>
       <c r="L284">
         <v>0.01705783963395292</v>
@@ -21747,13 +21747,13 @@
         <v>0.04312499999999631</v>
       </c>
       <c r="U284">
-        <v>1.000254432209082</v>
+        <v>0.0002544322090822781</v>
       </c>
       <c r="V284">
-        <v>1.000284755415438</v>
+        <v>0.0002847554154377097</v>
       </c>
       <c r="W284">
-        <v>1.001522070015221</v>
+        <v>0.001522070015220534</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21788,7 +21788,7 @@
         <v>1.367029857545905</v>
       </c>
       <c r="K285">
-        <v>57.75296214316525</v>
+        <v>0.07752962143165254</v>
       </c>
       <c r="L285">
         <v>0.01800242425211042</v>
@@ -21818,13 +21818,13 @@
         <v>0.04937499999999773</v>
       </c>
       <c r="U285">
-        <v>1.000234018090616</v>
+        <v>0.0002340180906157396</v>
       </c>
       <c r="V285">
-        <v>1.000244006588178</v>
+        <v>0.0002440065881781361</v>
       </c>
       <c r="W285">
-        <v>0.9981762917933132</v>
+        <v>-0.001823708206686758</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21859,7 +21859,7 @@
         <v>1.407850364974518</v>
       </c>
       <c r="K286">
-        <v>58.46918003932596</v>
+        <v>0.08469180039325963</v>
       </c>
       <c r="L286">
         <v>0.01858344526935415</v>
@@ -21889,13 +21889,13 @@
         <v>0.05375000000000085</v>
       </c>
       <c r="U286">
-        <v>1.000223791019877</v>
+        <v>0.0002237910198767956</v>
       </c>
       <c r="V286">
-        <v>1.000325262751316</v>
+        <v>0.0003252627513161688</v>
       </c>
       <c r="W286">
-        <v>1.000304506699147</v>
+        <v>0.0003045066991473888</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21930,7 +21930,7 @@
         <v>1.349848773514766</v>
       </c>
       <c r="K287">
-        <v>57.44406996437229</v>
+        <v>0.07444069964372291</v>
       </c>
       <c r="L287">
         <v>0.01872817487369819</v>
@@ -21960,13 +21960,13 @@
         <v>0.04312499999999631</v>
       </c>
       <c r="U287">
-        <v>1.000183060776178</v>
+        <v>0.0001830607761776903</v>
       </c>
       <c r="V287">
-        <v>1.000203223118662</v>
+        <v>0.0002032231186619438</v>
       </c>
       <c r="W287">
-        <v>0.999695585996956</v>
+        <v>-0.0003044140030440401</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -22001,7 +22001,7 @@
         <v>1.39321581614848</v>
       </c>
       <c r="K288">
-        <v>58.21521848333138</v>
+        <v>0.08215218483331388</v>
       </c>
       <c r="L288">
         <v>0.01864228438091493</v>
@@ -22031,13 +22031,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U288">
-        <v>1.000111849998983</v>
+        <v>0.0001118499989829491</v>
       </c>
       <c r="V288">
-        <v>1.000203181827417</v>
+        <v>0.0002031818274172981</v>
       </c>
       <c r="W288">
-        <v>1.000304506699147</v>
+        <v>0.0003045066991473888</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22072,7 +22072,7 @@
         <v>1.332392729511053</v>
       </c>
       <c r="K289">
-        <v>57.12557377892216</v>
+        <v>0.07125573778922156</v>
       </c>
       <c r="L289">
         <v>0.01824304267772444</v>
@@ -22102,13 +22102,13 @@
         <v>0.03312499999999829</v>
       </c>
       <c r="U289">
-        <v>1.000061002267251</v>
+        <v>6.100226725092028E-05</v>
       </c>
       <c r="V289">
-        <v>1.000142198387064</v>
+        <v>0.0001421983870639743</v>
       </c>
       <c r="W289">
-        <v>0.999695585996956</v>
+        <v>-0.0003044140030440401</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22143,7 +22143,7 @@
         <v>1.22024192518046</v>
       </c>
       <c r="K290">
-        <v>54.95986321766622</v>
+        <v>0.04959863217666216</v>
       </c>
       <c r="L290">
         <v>0.01739075409643568</v>
@@ -22173,13 +22173,13 @@
         <v>0.02624999999999744</v>
       </c>
       <c r="U290">
-        <v>1.000081331394935</v>
+        <v>8.133139493526897E-05</v>
       </c>
       <c r="V290">
-        <v>1.000121867002478</v>
+        <v>0.000121867002477849</v>
       </c>
       <c r="W290">
-        <v>0.9993909866017051</v>
+        <v>-0.0006090133982948887</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22214,7 +22214,7 @@
         <v>1.574652379779772</v>
       </c>
       <c r="K291">
-        <v>61.15980518948594</v>
+        <v>0.1115980518948594</v>
       </c>
       <c r="L291">
         <v>0.0171439200147741</v>
@@ -22244,13 +22244,13 @@
         <v>0.02374999999999972</v>
       </c>
       <c r="U291">
-        <v>1.000162649561354</v>
+        <v>0.0001626495613544776</v>
       </c>
       <c r="V291">
-        <v>1.000324939073924</v>
+        <v>0.0003249390739237246</v>
       </c>
       <c r="W291">
-        <v>1.002437538086532</v>
+        <v>0.002437538086532465</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22285,7 +22285,7 @@
         <v>1.504493407101809</v>
       </c>
       <c r="K292">
-        <v>60.07176552494116</v>
+        <v>0.1007176552494116</v>
       </c>
       <c r="L292">
         <v>0.01710571604099365</v>
@@ -22315,13 +22315,13 @@
         <v>0.01312499999999517</v>
       </c>
       <c r="U292">
-        <v>1.000091475499812</v>
+        <v>9.147549981203262E-05</v>
       </c>
       <c r="V292">
-        <v>1.000284229332467</v>
+        <v>0.0002842293324669676</v>
       </c>
       <c r="W292">
-        <v>0.9996960486322189</v>
+        <v>-0.0003039513677810524</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22356,7 +22356,7 @@
         <v>1.785894754354121</v>
       </c>
       <c r="K293">
-        <v>64.10488951755684</v>
+        <v>0.1410488951755684</v>
       </c>
       <c r="L293">
         <v>0.01780015392397866</v>
@@ -22386,13 +22386,13 @@
         <v>0.01437499999999403</v>
       </c>
       <c r="U293">
-        <v>1.000152445221351</v>
+        <v>0.0001524452213506056</v>
       </c>
       <c r="V293">
-        <v>1.000405926527298</v>
+        <v>0.000405926527298428</v>
       </c>
       <c r="W293">
-        <v>1.001824262693828</v>
+        <v>0.001824262693828071</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22427,7 +22427,7 @@
         <v>1.555513861558258</v>
       </c>
       <c r="K294">
-        <v>60.86892679227194</v>
+        <v>0.1086892679227194</v>
       </c>
       <c r="L294">
         <v>0.01849563373267463</v>
@@ -22457,13 +22457,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U294">
-        <v>1.000121937588278</v>
+        <v>0.0001219375882777207</v>
       </c>
       <c r="V294">
-        <v>1.000142016636235</v>
+        <v>0.0001420166362346986</v>
       </c>
       <c r="W294">
-        <v>0.9990895295902883</v>
+        <v>-0.0009104704097117056</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22498,7 +22498,7 @@
         <v>1.736566862098</v>
       </c>
       <c r="K295">
-        <v>63.45786343282159</v>
+        <v>0.1345786343282159</v>
       </c>
       <c r="L295">
         <v>0.01952381426608012</v>
@@ -22528,13 +22528,13 @@
         <v>0.02062499999999545</v>
       </c>
       <c r="U295">
-        <v>1.000182884081973</v>
+        <v>0.0001828840819726452</v>
       </c>
       <c r="V295">
-        <v>1.000263707730694</v>
+        <v>0.0002637077306935076</v>
       </c>
       <c r="W295">
-        <v>1.001215066828675</v>
+        <v>0.001215066828675448</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22569,7 +22569,7 @@
         <v>1.585484385611705</v>
       </c>
       <c r="K296">
-        <v>61.322527973287</v>
+        <v>0.11322527973287</v>
       </c>
       <c r="L296">
         <v>0.0203943549865239</v>
@@ -22599,13 +22599,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U296">
-        <v>1.000243800855334</v>
+        <v>0.0002438008553344861</v>
       </c>
       <c r="V296">
-        <v>1.000202798620969</v>
+        <v>0.0002027986209693911</v>
       </c>
       <c r="W296">
-        <v>0.9993932038834951</v>
+        <v>-0.0006067961165049374</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22640,7 +22640,7 @@
         <v>1.63127421071034</v>
       </c>
       <c r="K297">
-        <v>61.99559909303258</v>
+        <v>0.1199559909303258</v>
       </c>
       <c r="L297">
         <v>0.02115026828455925</v>
@@ -22670,13 +22670,13 @@
         <v>0.03187500000000654</v>
       </c>
       <c r="U297">
-        <v>1.000223429645052</v>
+        <v>0.0002234296450516204</v>
       </c>
       <c r="V297">
-        <v>1.000202757502028</v>
+        <v>0.000202757502027584</v>
       </c>
       <c r="W297">
-        <v>1.000303582270796</v>
+        <v>0.0003035822707955216</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22711,7 +22711,7 @@
         <v>1.63127421071034</v>
       </c>
       <c r="K298">
-        <v>61.99559909303259</v>
+        <v>0.1199559909303258</v>
       </c>
       <c r="L298">
         <v>0.02171117290898057</v>
@@ -22741,13 +22741,13 @@
         <v>0.04187500000000455</v>
       </c>
       <c r="U298">
-        <v>1.000182765238052</v>
+        <v>0.0001827652380517186</v>
       </c>
       <c r="V298">
-        <v>1.000202716399757</v>
+        <v>0.0002027163997566639</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22782,7 +22782,7 @@
         <v>1.63127421071034</v>
       </c>
       <c r="K299">
-        <v>61.99559909303258</v>
+        <v>0.1199559909303258</v>
       </c>
       <c r="L299">
         <v>0.02203882606301362</v>
@@ -22812,13 +22812,13 @@
         <v>0.04187499999999744</v>
       </c>
       <c r="U299">
-        <v>1.000192883609969</v>
+        <v>0.0001928836099689413</v>
       </c>
       <c r="V299">
-        <v>1.000101337657073</v>
+        <v>0.0001013376570733193</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22853,7 +22853,7 @@
         <v>1.738088207149708</v>
       </c>
       <c r="K300">
-        <v>63.47816708794131</v>
+        <v>0.1347816708794131</v>
       </c>
       <c r="L300">
         <v>0.02234560224833373</v>
@@ -22883,13 +22883,13 @@
         <v>0.04749999999999943</v>
       </c>
       <c r="U300">
-        <v>1.000253745280338</v>
+        <v>0.0002537452803377249</v>
       </c>
       <c r="V300">
-        <v>1.000263451210862</v>
+        <v>0.0002634512108623532</v>
       </c>
       <c r="W300">
-        <v>1.000606980273141</v>
+        <v>0.000606980273140989</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22924,7 +22924,7 @@
         <v>1.562416662114064</v>
       </c>
       <c r="K301">
-        <v>60.97434055962731</v>
+        <v>0.109743405596273</v>
       </c>
       <c r="L301">
         <v>0.0223166990493024</v>
@@ -22954,13 +22954,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U301">
-        <v>1.000263828146404</v>
+        <v>0.0002638281464044656</v>
       </c>
       <c r="V301">
-        <v>1.000202601402002</v>
+        <v>0.0002026014020015676</v>
       </c>
       <c r="W301">
-        <v>0.9993933879284199</v>
+        <v>-0.0006066120715800816</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22995,7 +22995,7 @@
         <v>1.722003570649253</v>
       </c>
       <c r="K302">
-        <v>63.26235531860527</v>
+        <v>0.1326235531860527</v>
       </c>
       <c r="L302">
         <v>0.02233746032944846</v>
@@ -23025,13 +23025,13 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="U302">
-        <v>1.000243469439513</v>
+        <v>0.0002434694395130332</v>
       </c>
       <c r="V302">
-        <v>1.000283584508183</v>
+        <v>0.0002835845081834432</v>
       </c>
       <c r="W302">
-        <v>1.000910470409712</v>
+        <v>0.0009104704097115945</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23066,7 +23066,7 @@
         <v>1.833994383656443</v>
       </c>
       <c r="K303">
-        <v>64.71411496907091</v>
+        <v>0.147141149690709</v>
       </c>
       <c r="L303">
         <v>0.0225269746092087</v>
@@ -23096,13 +23096,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U303">
-        <v>1.000253552267264</v>
+        <v>0.000253552267264423</v>
       </c>
       <c r="V303">
-        <v>1.000303754404439</v>
+        <v>0.0003037544044390827</v>
       </c>
       <c r="W303">
-        <v>1.000606428138266</v>
+        <v>0.0006064281382656134</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23137,7 +23137,7 @@
         <v>1.198311007159164</v>
       </c>
       <c r="K304">
-        <v>54.51053118765568</v>
+        <v>0.04510531187655675</v>
       </c>
       <c r="L304">
         <v>0.02172694569814226</v>
@@ -23167,13 +23167,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U304">
-        <v>1.000141953277093</v>
+        <v>0.0001419532770927656</v>
       </c>
       <c r="V304">
-        <v>1.000141709010669</v>
+        <v>0.000141709010668567</v>
       </c>
       <c r="W304">
-        <v>0.9972727272727272</v>
+        <v>-0.0027272727272728</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23208,7 +23208,7 @@
         <v>1.031109059376313</v>
       </c>
       <c r="K305">
-        <v>50.76581459849984</v>
+        <v>0.007658145984998477</v>
       </c>
       <c r="L305">
         <v>0.01985658995297566</v>
@@ -23238,13 +23238,13 @@
         <v>0.015625</v>
       </c>
       <c r="U305">
-        <v>1.000111518887244</v>
+        <v>0.0001115188872442552</v>
       </c>
       <c r="V305">
-        <v>1.00010120638005</v>
+        <v>0.0001012063800502894</v>
       </c>
       <c r="W305">
-        <v>0.9987845639623215</v>
+        <v>-0.001215436037678486</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23279,7 +23279,7 @@
         <v>0.8990595910647645</v>
       </c>
       <c r="K306">
-        <v>47.34235804368203</v>
+        <v>-0.02657641956317974</v>
       </c>
       <c r="L306">
         <v>0.01694229973263065</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="U306">
-        <v>1.000091232551775</v>
+        <v>9.123255177456713E-05</v>
       </c>
       <c r="V306">
-        <v>0.9998583254063024</v>
+        <v>-0.0001416745936976271</v>
       </c>
       <c r="W306">
-        <v>0.9987830848798297</v>
+        <v>-0.001216915120170303</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23350,7 +23350,7 @@
         <v>0.7922585721754395</v>
       </c>
       <c r="K307">
-        <v>44.20447944705867</v>
+        <v>-0.05795520552941325</v>
       </c>
       <c r="L307">
         <v>0.01307733118423545</v>
@@ -23380,13 +23380,13 @@
         <v>-0.01312499999999517</v>
       </c>
       <c r="U307">
-        <v>1.000040544101847</v>
+        <v>4.054410184650692E-05</v>
       </c>
       <c r="V307">
-        <v>0.9997975790453829</v>
+        <v>-0.0002024209546170885</v>
       </c>
       <c r="W307">
-        <v>0.9987816021931161</v>
+        <v>-0.001218397806883931</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23421,7 +23421,7 @@
         <v>1.073607866586975</v>
       </c>
       <c r="K308">
-        <v>51.77487430900157</v>
+        <v>0.01774874309001573</v>
       </c>
       <c r="L308">
         <v>0.009832190267618253</v>
@@ -23451,13 +23451,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U308">
-        <v>1.00013176298879</v>
+        <v>0.0001317629887900296</v>
       </c>
       <c r="V308">
-        <v>0.9998582766439907</v>
+        <v>-0.0001417233560092601</v>
       </c>
       <c r="W308">
-        <v>1.002744739249771</v>
+        <v>0.002744739249771477</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23492,7 +23492,7 @@
         <v>0.9219223654111539</v>
       </c>
       <c r="K309">
-        <v>47.9687620063638</v>
+        <v>-0.02031237993636203</v>
       </c>
       <c r="L309">
         <v>0.006579868689027797</v>
@@ -23522,13 +23522,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U309">
-        <v>0.9999797314416012</v>
+        <v>-2.026855839876163E-05</v>
       </c>
       <c r="V309">
-        <v>0.9998177584286727</v>
+        <v>-0.0001822415713272907</v>
       </c>
       <c r="W309">
-        <v>0.998479318734793</v>
+        <v>-0.001520681265206991</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23563,7 +23563,7 @@
         <v>1.040899845793224</v>
       </c>
       <c r="K310">
-        <v>51.002005215433</v>
+        <v>0.01002005215432999</v>
       </c>
       <c r="L310">
         <v>0.00394934206119504</v>
@@ -23593,13 +23593,13 @@
         <v>-0.04187500000000455</v>
       </c>
       <c r="U310">
-        <v>1.000040537938443</v>
+        <v>4.053793844316367E-05</v>
       </c>
       <c r="V310">
-        <v>0.9998177252106286</v>
+        <v>-0.0001822747893713839</v>
       </c>
       <c r="W310">
-        <v>1.001218397806884</v>
+        <v>0.00121839780688382</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23634,7 +23634,7 @@
         <v>1.040899845793225</v>
       </c>
       <c r="K311">
-        <v>51.002005215433</v>
+        <v>0.01002005215432999</v>
       </c>
       <c r="L311">
         <v>0.001848639325427354</v>
@@ -23664,13 +23664,13 @@
         <v>-0.05250000000000199</v>
       </c>
       <c r="U311">
-        <v>1.000030402221389</v>
+        <v>3.040222138905868E-05</v>
       </c>
       <c r="V311">
-        <v>0.9998582048737011</v>
+        <v>-0.0001417951262988604</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23705,7 +23705,7 @@
         <v>1.106815347389951</v>
       </c>
       <c r="K312">
-        <v>52.53499547367264</v>
+        <v>0.02534995473672641</v>
       </c>
       <c r="L312">
         <v>0.0004173613834320308</v>
@@ -23735,13 +23735,13 @@
         <v>-0.05187500000000256</v>
       </c>
       <c r="U312">
-        <v>1.000040535062829</v>
+        <v>4.05350628291945E-05</v>
       </c>
       <c r="V312">
-        <v>0.9998784440842786</v>
+        <v>-0.000121555915721383</v>
       </c>
       <c r="W312">
-        <v>1.000608457560085</v>
+        <v>0.0006084575600853181</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23776,7 +23776,7 @@
         <v>0.9719397733256232</v>
       </c>
       <c r="K313">
-        <v>49.28851207694203</v>
+        <v>-0.007114879230579685</v>
       </c>
       <c r="L313">
         <v>-0.0009615365274928955</v>
@@ -23806,13 +23806,13 @@
         <v>-0.04812499999999886</v>
       </c>
       <c r="U313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V313">
-        <v>0.9997973821777365</v>
+        <v>-0.0002026178222634956</v>
       </c>
       <c r="W313">
-        <v>0.9987838248707814</v>
+        <v>-0.001216175129218566</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23847,7 +23847,7 @@
         <v>1.068144363023155</v>
       </c>
       <c r="K314">
-        <v>51.64747597511867</v>
+        <v>0.01647475975118662</v>
       </c>
       <c r="L314">
         <v>-0.001885273525030488</v>
@@ -23877,13 +23877,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U314">
-        <v>0.9999797332900977</v>
+        <v>-2.026670990229462E-05</v>
       </c>
       <c r="V314">
-        <v>0.9998581387808042</v>
+        <v>-0.0001418612191957935</v>
       </c>
       <c r="W314">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23918,7 +23918,7 @@
         <v>1.068144363023155</v>
       </c>
       <c r="K315">
-        <v>51.64747597511867</v>
+        <v>0.01647475975118662</v>
       </c>
       <c r="L315">
         <v>-0.002467559001557729</v>
@@ -23948,13 +23948,13 @@
         <v>-0.02187500000000142</v>
       </c>
       <c r="U315">
-        <v>1.0000405342413</v>
+        <v>4.053424130034955E-05</v>
       </c>
       <c r="V315">
-        <v>0.9998175811257269</v>
+        <v>-0.0001824188742730604</v>
       </c>
       <c r="W315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23989,7 +23989,7 @@
         <v>1.031492716284043</v>
       </c>
       <c r="K316">
-        <v>50.77511270485007</v>
+        <v>0.007751127048500783</v>
       </c>
       <c r="L316">
         <v>-0.002907608489721089</v>
@@ -24019,13 +24019,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U316">
-        <v>1.000020266299171</v>
+        <v>2.026629917106781E-05</v>
       </c>
       <c r="V316">
-        <v>0.9998378203048981</v>
+        <v>-0.000162179695101905</v>
       </c>
       <c r="W316">
-        <v>0.9996958637469585</v>
+        <v>-0.0003041362530414871</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24060,7 +24060,7 @@
         <v>1.212089469464492</v>
       </c>
       <c r="K317">
-        <v>54.79387186621877</v>
+        <v>0.04793871866218768</v>
       </c>
       <c r="L317">
         <v>-0.002669328637101993</v>
@@ -24090,13 +24090,13 @@
         <v>-0.003750000000003695</v>
       </c>
       <c r="U317">
-        <v>1.000081063553826</v>
+        <v>8.106355382597741E-05</v>
       </c>
       <c r="V317">
-        <v>0.9998783454987833</v>
+        <v>-0.0001216545012167058</v>
       </c>
       <c r="W317">
-        <v>1.001521143900213</v>
+        <v>0.001521143900213184</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24131,7 +24131,7 @@
         <v>1.212089469464492</v>
       </c>
       <c r="K318">
-        <v>54.79387186621875</v>
+        <v>0.04793871866218746</v>
       </c>
       <c r="L318">
         <v>-0.002025516041967896</v>
@@ -24161,13 +24161,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U318">
-        <v>1.000070924860177</v>
+        <v>7.092486017690192E-05</v>
       </c>
       <c r="V318">
-        <v>0.9998377742628868</v>
+        <v>-0.0001622257371132196</v>
       </c>
       <c r="W318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24202,7 +24202,7 @@
         <v>1.212089469464492</v>
       </c>
       <c r="K319">
-        <v>54.79387186621875</v>
+        <v>0.04793871866218746</v>
       </c>
       <c r="L319">
         <v>-0.001169640265107647</v>
@@ -24232,13 +24232,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U319">
-        <v>1.000081051234512</v>
+        <v>8.105123451151997E-05</v>
       </c>
       <c r="V319">
-        <v>1.000020281507322</v>
+        <v>2.028150732158451E-05</v>
       </c>
       <c r="W319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24273,7 +24273,7 @@
         <v>1.07608951234366</v>
       </c>
       <c r="K320">
-        <v>51.83252003083827</v>
+        <v>0.01832520030838269</v>
       </c>
       <c r="L320">
         <v>-0.0005677069072483305</v>
@@ -24303,13 +24303,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U320">
-        <v>1.000070914082524</v>
+        <v>7.091408252368758E-05</v>
       </c>
       <c r="V320">
-        <v>1.000040562191981</v>
+        <v>4.056219198100841E-05</v>
       </c>
       <c r="W320">
-        <v>0.9990886998784932</v>
+        <v>-0.0009113001215067529</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24344,7 +24344,7 @@
         <v>0.997544014610722</v>
       </c>
       <c r="K321">
-        <v>49.93852487426274</v>
+        <v>-0.0006147512573725922</v>
       </c>
       <c r="L321">
         <v>-0.0003773505023762528</v>
@@ -24374,13 +24374,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U321">
-        <v>0.9999696104053972</v>
+        <v>-3.038959460277546E-05</v>
       </c>
       <c r="V321">
-        <v>1.000081121093512</v>
+        <v>8.112109351232633E-05</v>
       </c>
       <c r="W321">
-        <v>0.9993919124353906</v>
+        <v>-0.0006080875646093942</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24415,7 +24415,7 @@
         <v>0.8944578395018503</v>
       </c>
       <c r="K322">
-        <v>47.21444947737918</v>
+        <v>-0.02785550522620817</v>
       </c>
       <c r="L322">
         <v>-0.0007792495872883046</v>
@@ -24445,13 +24445,13 @@
         <v>0.015625</v>
       </c>
       <c r="U322">
-        <v>0.9999493491364029</v>
+        <v>-5.065086359712367E-05</v>
       </c>
       <c r="V322">
-        <v>1.000101393141768</v>
+        <v>0.0001013931417679359</v>
       </c>
       <c r="W322">
-        <v>0.9990873136598724</v>
+        <v>-0.0009126863401276442</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24486,7 +24486,7 @@
         <v>1.075756044030796</v>
       </c>
       <c r="K323">
-        <v>51.82478196916843</v>
+        <v>0.01824781969168432</v>
       </c>
       <c r="L323">
         <v>-0.0009579319044571953</v>
@@ -24516,13 +24516,13 @@
         <v>0.01062500000000455</v>
       </c>
       <c r="U323">
-        <v>0.9999392158849153</v>
+        <v>-6.078411508469994E-05</v>
       </c>
       <c r="V323">
-        <v>1.000020276572448</v>
+        <v>2.02765724481857E-05</v>
       </c>
       <c r="W323">
-        <v>1.001522533495737</v>
+        <v>0.001522533495736722</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24557,7 +24557,7 @@
         <v>1.03620608554019</v>
       </c>
       <c r="K324">
-        <v>50.88905749268952</v>
+        <v>0.008890574926895156</v>
       </c>
       <c r="L324">
         <v>-0.001097226371530916</v>
@@ -24587,13 +24587,13 @@
         <v>0.01187500000000341</v>
       </c>
       <c r="U324">
-        <v>0.9999594747933214</v>
+        <v>-4.052520667863213E-05</v>
       </c>
       <c r="V324">
-        <v>1.000101380806586</v>
+        <v>0.0001013808065855049</v>
       </c>
       <c r="W324">
-        <v>0.9996959562176954</v>
+        <v>-0.0003040437823046416</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24628,7 +24628,7 @@
         <v>1.03620608554019</v>
       </c>
       <c r="K325">
-        <v>50.88905749268952</v>
+        <v>0.008890574926895156</v>
       </c>
       <c r="L325">
         <v>-0.001199788645518829</v>
@@ -24658,13 +24658,13 @@
         <v>0.003750000000003695</v>
       </c>
       <c r="U325">
-        <v>0.9999189463019249</v>
+        <v>-8.105369807509533E-05</v>
       </c>
       <c r="V325">
-        <v>1.000020274105912</v>
+        <v>2.027410591187717E-05</v>
       </c>
       <c r="W325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24699,7 +24699,7 @@
         <v>0.891017851409351</v>
       </c>
       <c r="K326">
-        <v>47.11842623512448</v>
+        <v>-0.02881573764875517</v>
       </c>
       <c r="L326">
         <v>-0.001712076691403826</v>
@@ -24729,13 +24729,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U326">
-        <v>0.9998986746646132</v>
+        <v>-0.0001013253353867594</v>
       </c>
       <c r="V326">
-        <v>0.9999391789153574</v>
+        <v>-6.082108464255942E-05</v>
       </c>
       <c r="W326">
-        <v>0.9987834549878346</v>
+        <v>-0.001216545012165393</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24770,7 +24770,7 @@
         <v>0.8910178514093511</v>
       </c>
       <c r="K327">
-        <v>47.11842623512449</v>
+        <v>-0.02881573764875511</v>
       </c>
       <c r="L327">
         <v>-0.002433734433079262</v>
@@ -24800,13 +24800,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U327">
-        <v>0.9998885308364243</v>
+        <v>-0.0001114691635757392</v>
       </c>
       <c r="V327">
-        <v>0.9998986253598798</v>
+        <v>-0.0001013746401201665</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24841,7 +24841,7 @@
         <v>0.7227134510385905</v>
       </c>
       <c r="K328">
-        <v>41.95204086918115</v>
+        <v>-0.08047959130818844</v>
       </c>
       <c r="L328">
         <v>-0.003891773028720105</v>
@@ -24871,13 +24871,13 @@
         <v>-0.01937499999999659</v>
       </c>
       <c r="U328">
-        <v>0.9998277102694813</v>
+        <v>-0.0001722897305187487</v>
       </c>
       <c r="V328">
-        <v>0.9998580611148286</v>
+        <v>-0.0001419388851714443</v>
       </c>
       <c r="W328">
-        <v>0.9981729598051157</v>
+        <v>-0.001827040194884333</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24912,7 +24912,7 @@
         <v>0.7227134510385904</v>
       </c>
       <c r="K329">
-        <v>41.95204086918115</v>
+        <v>-0.08047959130818855</v>
       </c>
       <c r="L329">
         <v>-0.005688985366117868</v>
@@ -24942,13 +24942,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U329">
-        <v>0.999827680580615</v>
+        <v>-0.0001723194193850031</v>
       </c>
       <c r="V329">
-        <v>0.9997972013790306</v>
+        <v>-0.0002027986209693911</v>
       </c>
       <c r="W329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24983,7 +24983,7 @@
         <v>0.7227134510385905</v>
       </c>
       <c r="K330">
-        <v>41.95204086918115</v>
+        <v>-0.08047959130818844</v>
       </c>
       <c r="L330">
         <v>-0.007556636151773724</v>
@@ -25013,13 +25013,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U330">
-        <v>0.9998073745146345</v>
+        <v>-0.0001926254853654719</v>
       </c>
       <c r="V330">
-        <v>0.9997971602434077</v>
+        <v>-0.000202839756592299</v>
       </c>
       <c r="W330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25054,7 +25054,7 @@
         <v>0.6510016925989998</v>
       </c>
       <c r="K331">
-        <v>39.43071018747387</v>
+        <v>-0.1056928981252613</v>
       </c>
       <c r="L331">
         <v>-0.009652898797029168</v>
@@ -25084,13 +25084,13 @@
         <v>-0.03687499999999488</v>
       </c>
       <c r="U331">
-        <v>0.9997971972662191</v>
+        <v>-0.0002028027337809268</v>
       </c>
       <c r="V331">
-        <v>0.9997565429093124</v>
+        <v>-0.0002434570906876266</v>
       </c>
       <c r="W331">
-        <v>0.99908480780964</v>
+        <v>-0.0009151921903599591</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25125,7 +25125,7 @@
         <v>0.755449812952758</v>
       </c>
       <c r="K332">
-        <v>43.03454347589989</v>
+        <v>-0.06965456524100105</v>
       </c>
       <c r="L332">
         <v>-0.01138702715701025</v>
@@ -25155,13 +25155,13 @@
         <v>-0.04375000000000284</v>
       </c>
       <c r="U332">
-        <v>0.9997971561289277</v>
+        <v>-0.000202843871072278</v>
       </c>
       <c r="V332">
-        <v>0.9997158975607775</v>
+        <v>-0.0002841024392225</v>
       </c>
       <c r="W332">
-        <v>1.000916030534351</v>
+        <v>0.0009160305343511865</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25196,7 +25196,7 @@
         <v>0.755449812952758</v>
       </c>
       <c r="K333">
-        <v>43.03454347589989</v>
+        <v>-0.06965456524100105</v>
       </c>
       <c r="L333">
         <v>-0.01275003508757211</v>
@@ -25226,13 +25226,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U333">
-        <v>0.999776826472438</v>
+        <v>-0.0002231735275619595</v>
       </c>
       <c r="V333">
-        <v>0.9997158168236441</v>
+        <v>-0.0002841831763559233</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25267,7 +25267,7 @@
         <v>0.755449812952758</v>
       </c>
       <c r="K334">
-        <v>43.03454347589989</v>
+        <v>-0.06965456524100105</v>
       </c>
       <c r="L334">
         <v>-0.01375512515701891</v>
@@ -25297,13 +25297,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U334">
-        <v>0.9998680952960752</v>
+        <v>-0.0001319047039247678</v>
       </c>
       <c r="V334">
-        <v>0.999715736040609</v>
+        <v>-0.0002842639593909624</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25338,7 +25338,7 @@
         <v>0.8366652440486291</v>
       </c>
       <c r="K335">
-        <v>45.55349684759847</v>
+        <v>-0.04446503152401526</v>
       </c>
       <c r="L335">
         <v>-0.01420780909752857</v>
@@ -25368,13 +25368,13 @@
         <v>-0.04374999999999574</v>
       </c>
       <c r="U335">
-        <v>0.9999289650203464</v>
+        <v>-7.103497965355032E-05</v>
       </c>
       <c r="V335">
-        <v>0.9998172069217648</v>
+        <v>-0.0001827930782352105</v>
       </c>
       <c r="W335">
-        <v>1.000610128126907</v>
+        <v>0.0006101281269066394</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25409,7 +25409,7 @@
         <v>0.8366652440486291</v>
       </c>
       <c r="K336">
-        <v>45.55349684759847</v>
+        <v>-0.04446503152401526</v>
       </c>
       <c r="L336">
         <v>-0.01424525633829303</v>
@@ -25439,13 +25439,13 @@
         <v>-0.03562500000000313</v>
       </c>
       <c r="U336">
-        <v>0.9999695542745797</v>
+        <v>-3.044572542032498E-05</v>
       </c>
       <c r="V336">
-        <v>0.999857801612936</v>
+        <v>-0.0001421983870639743</v>
       </c>
       <c r="W336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25480,7 +25480,7 @@
         <v>1.016644038720983</v>
       </c>
       <c r="K337">
-        <v>50.41266674736359</v>
+        <v>0.004126667473635881</v>
       </c>
       <c r="L337">
         <v>-0.01353355638499221</v>
@@ -25510,13 +25510,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U337">
-        <v>1.000050744420651</v>
+        <v>5.074442065122753E-05</v>
       </c>
       <c r="V337">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W337">
-        <v>1.001219512195122</v>
+        <v>0.001219512195122174</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25551,7 +25551,7 @@
         <v>1.016644038720983</v>
       </c>
       <c r="K338">
-        <v>50.41266674736359</v>
+        <v>0.004126667473635881</v>
       </c>
       <c r="L338">
         <v>-0.01236383871753106</v>
@@ -25581,13 +25581,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U338">
-        <v>0.9999594065233717</v>
+        <v>-4.059347662832558E-05</v>
       </c>
       <c r="V338">
-        <v>0.9998984152783422</v>
+        <v>-0.000101584721657777</v>
       </c>
       <c r="W338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25622,7 +25622,7 @@
         <v>0.9244645307126678</v>
       </c>
       <c r="K339">
-        <v>48.03749385655448</v>
+        <v>-0.01962506143445525</v>
       </c>
       <c r="L339">
         <v>-0.01116769001154221</v>
@@ -25652,13 +25652,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U339">
-        <v>0.9999898512188685</v>
+        <v>-1.014878113148043E-05</v>
       </c>
       <c r="V339">
-        <v>0.9998780859494057</v>
+        <v>-0.0001219140505942518</v>
       </c>
       <c r="W339">
-        <v>0.9993909866017051</v>
+        <v>-0.0006090133982948887</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25693,7 +25693,7 @@
         <v>1.019907042905487</v>
       </c>
       <c r="K340">
-        <v>50.49277126329666</v>
+        <v>0.004927712632966652</v>
       </c>
       <c r="L340">
         <v>-0.009769302799583034</v>
@@ -25723,13 +25723,13 @@
         <v>0.004374999999996021</v>
       </c>
       <c r="U340">
-        <v>0.9999695533476095</v>
+        <v>-3.044665239049227E-05</v>
       </c>
       <c r="V340">
-        <v>0.9999187140563717</v>
+        <v>-8.128594362832864E-05</v>
       </c>
       <c r="W340">
-        <v>1.000609384521633</v>
+        <v>0.0006093845216332827</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25764,7 +25764,7 @@
         <v>1.070139944059585</v>
       </c>
       <c r="K341">
-        <v>51.69408701718106</v>
+        <v>0.01694087017181056</v>
       </c>
       <c r="L341">
         <v>-0.008190945308732128</v>
@@ -25794,13 +25794,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U341">
-        <v>0.9999797016137217</v>
+        <v>-2.02983862782613E-05</v>
       </c>
       <c r="V341">
-        <v>1.000020323137893</v>
+        <v>2.032313789257501E-05</v>
       </c>
       <c r="W341">
-        <v>1.000304506699147</v>
+        <v>0.0003045066991473888</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25835,7 +25835,7 @@
         <v>1.016396227002317</v>
       </c>
       <c r="K342">
-        <v>50.40657254716977</v>
+        <v>0.004065725471697701</v>
       </c>
       <c r="L342">
         <v>-0.006685103680658436</v>
@@ -25865,13 +25865,13 @@
         <v>0.02250000000000085</v>
       </c>
       <c r="U342">
-        <v>0.9999492530042222</v>
+        <v>-5.074699577778397E-05</v>
       </c>
       <c r="V342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W342">
-        <v>0.999695585996956</v>
+        <v>-0.0003044140030440401</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25906,7 +25906,7 @@
         <v>0.9192092848086092</v>
       </c>
       <c r="K343">
-        <v>47.89520830711676</v>
+        <v>-0.0210479169288324</v>
       </c>
       <c r="L343">
         <v>-0.00551657790117305</v>
@@ -25936,13 +25936,13 @@
         <v>0.02624999999999744</v>
       </c>
       <c r="U343">
-        <v>0.9999695502573004</v>
+        <v>-3.044974269961198E-05</v>
       </c>
       <c r="V343">
-        <v>1.000081290899484</v>
+        <v>8.129089948361035E-05</v>
       </c>
       <c r="W343">
-        <v>0.9993909866017051</v>
+        <v>-0.0006090133982948887</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25977,7 +25977,7 @@
         <v>0.835149988854254</v>
       </c>
       <c r="K344">
-        <v>45.50854120516145</v>
+        <v>-0.04491458794838549</v>
       </c>
       <c r="L344">
         <v>-0.004828619619867297</v>
@@ -26007,13 +26007,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U344">
-        <v>0.9999187982135606</v>
+        <v>-8.120178643944431E-05</v>
       </c>
       <c r="V344">
-        <v>1.000040642145905</v>
+        <v>4.064214590537851E-05</v>
       </c>
       <c r="W344">
-        <v>0.9993906154783667</v>
+        <v>-0.0006093845216332827</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26048,7 +26048,7 @@
         <v>0.8351499888542541</v>
       </c>
       <c r="K345">
-        <v>45.50854120516145</v>
+        <v>-0.04491458794838549</v>
       </c>
       <c r="L345">
         <v>-0.004458113807919393</v>
@@ -26078,13 +26078,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U345">
-        <v>0.999918791619295</v>
+        <v>-8.120838070502234E-05</v>
       </c>
       <c r="V345">
-        <v>1.000040640494188</v>
+        <v>4.064049418839311E-05</v>
       </c>
       <c r="W345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26119,7 +26119,7 @@
         <v>0.6944227757234114</v>
       </c>
       <c r="K346">
-        <v>40.98285184032284</v>
+        <v>-0.09017148159677163</v>
       </c>
       <c r="L346">
         <v>-0.004730994099069616</v>
@@ -26149,13 +26149,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U346">
-        <v>0.999888329407943</v>
+        <v>-0.0001116705920569672</v>
       </c>
       <c r="V346">
-        <v>1.000020319421303</v>
+        <v>2.03194213026503E-05</v>
       </c>
       <c r="W346">
-        <v>0.998780487804878</v>
+        <v>-0.001219512195121952</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26190,7 +26190,7 @@
         <v>0.7831097843660346</v>
       </c>
       <c r="K347">
-        <v>43.91820353587823</v>
+        <v>-0.06081796464121764</v>
       </c>
       <c r="L347">
         <v>-0.005137300065352097</v>
@@ -26220,13 +26220,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U347">
-        <v>0.999857857918837</v>
+        <v>-0.0001421420811630325</v>
       </c>
       <c r="V347">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W347">
-        <v>1.000610500610501</v>
+        <v>0.0006105006105006083</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26261,7 +26261,7 @@
         <v>0.6869190537501664</v>
       </c>
       <c r="K348">
-        <v>40.72033285907146</v>
+        <v>-0.09279667140928538</v>
       </c>
       <c r="L348">
         <v>-0.005912667449816476</v>
@@ -26291,13 +26291,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U348">
-        <v>0.9998273743640775</v>
+        <v>-0.0001726256359224632</v>
       </c>
       <c r="V348">
-        <v>0.9999390429747027</v>
+        <v>-6.095702529729241E-05</v>
       </c>
       <c r="W348">
-        <v>0.99908480780964</v>
+        <v>-0.0009151921903599591</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26332,7 +26332,7 @@
         <v>0.8593144661085937</v>
       </c>
       <c r="K349">
-        <v>46.21673642474663</v>
+        <v>-0.03783263575253371</v>
       </c>
       <c r="L349">
         <v>-0.00639708074370164</v>
@@ -26362,13 +26362,13 @@
         <v>-0.01437500000000114</v>
       </c>
       <c r="U349">
-        <v>0.9998679693688935</v>
+        <v>-0.0001320306311064501</v>
       </c>
       <c r="V349">
-        <v>1.000020320247094</v>
+        <v>2.032024709430758E-05</v>
       </c>
       <c r="W349">
-        <v>1.001221374045802</v>
+        <v>0.001221374045801582</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26403,7 +26403,7 @@
         <v>0.9046816798871191</v>
       </c>
       <c r="K350">
-        <v>47.49778870875343</v>
+        <v>-0.02502211291246575</v>
       </c>
       <c r="L350">
         <v>-0.006540144875599071</v>
@@ -26433,13 +26433,13 @@
         <v>-0.02062500000000966</v>
       </c>
       <c r="U350">
-        <v>0.9999085821085031</v>
+        <v>-9.141789149691437E-05</v>
       </c>
       <c r="V350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W350">
-        <v>1.000304971027752</v>
+        <v>0.0003049710277522877</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26474,7 +26474,7 @@
         <v>1.286721374864277</v>
       </c>
       <c r="K351">
-        <v>56.26926782632832</v>
+        <v>0.06269267826328317</v>
       </c>
       <c r="L351">
         <v>-0.005555902632645484</v>
@@ -26504,13 +26504,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U351">
-        <v>1.000010158472166</v>
+        <v>1.015847216567778E-05</v>
       </c>
       <c r="V351">
-        <v>1.000162558673521</v>
+        <v>0.0001625586735212181</v>
       </c>
       <c r="W351">
-        <v>1.002439024390244</v>
+        <v>0.002439024390244127</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26545,7 +26545,7 @@
         <v>1.387258136700345</v>
       </c>
       <c r="K352">
-        <v>58.1109397167164</v>
+        <v>0.08110939716716403</v>
       </c>
       <c r="L352">
         <v>-0.003709095653790369</v>
@@ -26575,13 +26575,13 @@
         <v>-0.01187500000000341</v>
       </c>
       <c r="U352">
-        <v>1.000060950213834</v>
+        <v>6.095021383356602E-05</v>
       </c>
       <c r="V352">
-        <v>1.00012189918937</v>
+        <v>0.0001218991893703336</v>
       </c>
       <c r="W352">
-        <v>1.000608272506083</v>
+        <v>0.00060827250608253</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26616,7 +26616,7 @@
         <v>1.493086307054138</v>
       </c>
       <c r="K353">
-        <v>59.88907414995943</v>
+        <v>0.09889074149959431</v>
       </c>
       <c r="L353">
         <v>-0.001221862148840406</v>
@@ -26646,13 +26646,13 @@
         <v>-0.0018750000000054</v>
       </c>
       <c r="U353">
-        <v>1.000030473249566</v>
+        <v>3.047324956595432E-05</v>
       </c>
       <c r="V353">
-        <v>1.000162512442359</v>
+        <v>0.0001625124423587643</v>
       </c>
       <c r="W353">
-        <v>1.000607902735562</v>
+        <v>0.0006079027355623268</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26687,7 +26687,7 @@
         <v>1.715882455167346</v>
       </c>
       <c r="K354">
-        <v>63.17955520875507</v>
+        <v>0.1317955520875507</v>
       </c>
       <c r="L354">
         <v>0.00194314162810587</v>
@@ -26717,13 +26717,13 @@
         <v>0.01562500000000711</v>
       </c>
       <c r="U354">
-        <v>1.0000812595226</v>
+        <v>8.125952260029656E-05</v>
       </c>
       <c r="V354">
-        <v>1.000284350563624</v>
+        <v>0.0002843505636236365</v>
       </c>
       <c r="W354">
-        <v>1.001215066828675</v>
+        <v>0.001215066828675448</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26758,7 +26758,7 @@
         <v>1.459218107569761</v>
       </c>
       <c r="K355">
-        <v>59.33666896311949</v>
+        <v>0.09336668963119488</v>
       </c>
       <c r="L355">
         <v>0.004976950959581045</v>
@@ -26788,13 +26788,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U355">
-        <v>1.000050783075017</v>
+        <v>5.078307501671375E-05</v>
       </c>
       <c r="V355">
-        <v>1.000182744827306</v>
+        <v>0.0001827448273061805</v>
       </c>
       <c r="W355">
-        <v>0.9990898058252426</v>
+        <v>-0.0009101941747573505</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26829,7 +26829,7 @@
         <v>1.320595818441233</v>
       </c>
       <c r="K356">
-        <v>56.90761863598849</v>
+        <v>0.06907618635988488</v>
       </c>
       <c r="L356">
         <v>0.00749763662296064</v>
@@ -26859,13 +26859,13 @@
         <v>0.04312500000000341</v>
       </c>
       <c r="U356">
-        <v>1.000071092694718</v>
+        <v>7.109269471805568E-05</v>
       </c>
       <c r="V356">
-        <v>1.000121807625157</v>
+        <v>0.0001218076251572331</v>
       </c>
       <c r="W356">
-        <v>0.9993926510780442</v>
+        <v>-0.000607348921955797</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26900,7 +26900,7 @@
         <v>1.470592105828656</v>
       </c>
       <c r="K357">
-        <v>59.52387293552887</v>
+        <v>0.09523872935528876</v>
       </c>
       <c r="L357">
         <v>0.009852089706853688</v>
@@ -26930,13 +26930,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U357">
-        <v>1.000101553772722</v>
+        <v>0.0001015537727224736</v>
       </c>
       <c r="V357">
-        <v>1.000202987983111</v>
+        <v>0.0002029879831113579</v>
       </c>
       <c r="W357">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26971,7 +26971,7 @@
         <v>1.214842186250791</v>
       </c>
       <c r="K358">
-        <v>54.85005630614405</v>
+        <v>0.04850056306144057</v>
       </c>
       <c r="L358">
         <v>0.01147586464445536</v>
@@ -27001,13 +27001,13 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="U358">
-        <v>1.000121852152721</v>
+        <v>0.0001218521527213134</v>
       </c>
       <c r="V358">
-        <v>1.000162357429882</v>
+        <v>0.0001623574298816877</v>
       </c>
       <c r="W358">
-        <v>0.9987856709168185</v>
+        <v>-0.001214329083181531</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27042,7 +27042,7 @@
         <v>1.260607840879606</v>
       </c>
       <c r="K359">
-        <v>55.76410990369305</v>
+        <v>0.05764109903693049</v>
       </c>
       <c r="L359">
         <v>0.01262249391576824</v>
@@ -27072,13 +27072,13 @@
         <v>0.06312500000000654</v>
       </c>
       <c r="U359">
-        <v>1.000131990415465</v>
+        <v>0.0001319904154652995</v>
       </c>
       <c r="V359">
-        <v>1.000223205227061</v>
+        <v>0.0002232052270607632</v>
       </c>
       <c r="W359">
-        <v>1.000303951367781</v>
+        <v>0.0003039513677811634</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27113,7 +27113,7 @@
         <v>1.149823762560936</v>
       </c>
       <c r="K360">
-        <v>53.48455918038744</v>
+        <v>0.03484559180387448</v>
       </c>
       <c r="L360">
         <v>0.01313908939845987</v>
@@ -27143,13 +27143,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U360">
-        <v>1.000111669458403</v>
+        <v>0.0001116694584031297</v>
       </c>
       <c r="V360">
-        <v>1.000182581705313</v>
+        <v>0.0001825817053131562</v>
       </c>
       <c r="W360">
-        <v>0.9993922819811608</v>
+        <v>-0.0006077180188391873</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27184,7 +27184,7 @@
         <v>1.098991652527651</v>
       </c>
       <c r="K361">
-        <v>52.35807637463547</v>
+        <v>0.02358076374635476</v>
       </c>
       <c r="L361">
         <v>0.01308235585098964</v>
@@ -27214,13 +27214,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U361">
-        <v>1.000131958260587</v>
+        <v>0.0001319582605872061</v>
       </c>
       <c r="V361">
-        <v>1.000243397833759</v>
+        <v>0.0002433978337590403</v>
       </c>
       <c r="W361">
-        <v>0.9996959562176954</v>
+        <v>-0.0003040437823046416</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27255,7 +27255,7 @@
         <v>1.192062409956406</v>
       </c>
       <c r="K362">
-        <v>54.38086089803039</v>
+        <v>0.04380860898030392</v>
       </c>
       <c r="L362">
         <v>0.01285609565372091</v>
@@ -27285,13 +27285,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U362">
-        <v>1.000121791553756</v>
+        <v>0.0001217915537556902</v>
       </c>
       <c r="V362">
-        <v>1.00024333860567</v>
+        <v>0.0002433386056699405</v>
       </c>
       <c r="W362">
-        <v>1.000608272506083</v>
+        <v>0.00060827250608253</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27326,7 +27326,7 @@
         <v>1.192062409956406</v>
       </c>
       <c r="K363">
-        <v>54.38086089803039</v>
+        <v>0.04380860898030392</v>
       </c>
       <c r="L363">
         <v>0.01249471905170457</v>
@@ -27356,13 +27356,13 @@
         <v>0.01875000000000426</v>
       </c>
       <c r="U363">
-        <v>1.000121776722379</v>
+        <v>0.0001217767223793409</v>
       </c>
       <c r="V363">
-        <v>1.000304099257998</v>
+        <v>0.0003040992579976809</v>
       </c>
       <c r="W363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27397,7 +27397,7 @@
         <v>1.346750649450218</v>
       </c>
       <c r="K364">
-        <v>57.38788864363269</v>
+        <v>0.0738788864363269</v>
       </c>
       <c r="L364">
         <v>0.0123615448348667</v>
@@ -27427,13 +27427,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U364">
-        <v>1.000152202368269</v>
+        <v>0.0001522023682689611</v>
       </c>
       <c r="V364">
-        <v>1.000283739689102</v>
+        <v>0.0002837396891024468</v>
       </c>
       <c r="W364">
-        <v>1.000911854103343</v>
+        <v>0.0009118541033434902</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27468,7 +27468,7 @@
         <v>1.346750649450218</v>
       </c>
       <c r="K365">
-        <v>57.38788864363269</v>
+        <v>0.0738788864363269</v>
       </c>
       <c r="L365">
         <v>0.01232995005233647</v>
@@ -27498,13 +27498,13 @@
         <v>0</v>
       </c>
       <c r="U365">
-        <v>1.000131888645402</v>
+        <v>0.0001318886454022561</v>
       </c>
       <c r="V365">
-        <v>1.000263397832033</v>
+        <v>0.0002633978320332186</v>
       </c>
       <c r="W365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27539,7 +27539,7 @@
         <v>1.20864324700825</v>
       </c>
       <c r="K366">
-        <v>54.72333518079191</v>
+        <v>0.0472333518079191</v>
       </c>
       <c r="L366">
         <v>0.012095255694544</v>
@@ -27569,13 +27569,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U366">
-        <v>1.000111583367992</v>
+        <v>0.0001115833679916634</v>
       </c>
       <c r="V366">
-        <v>1.000060768108896</v>
+        <v>6.076810889643625E-05</v>
       </c>
       <c r="W366">
-        <v>0.9993926510780442</v>
+        <v>-0.000607348921955797</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27610,7 +27610,7 @@
         <v>1.478508001029614</v>
       </c>
       <c r="K367">
-        <v>59.65314618372896</v>
+        <v>0.09653146183728956</v>
       </c>
       <c r="L367">
         <v>0.0122624563733705</v>
@@ -27640,13 +27640,13 @@
         <v>-0.004374999999996021</v>
       </c>
       <c r="U367">
-        <v>1.000121713729309</v>
+        <v>0.0001217137293088033</v>
       </c>
       <c r="V367">
-        <v>1.000121528832715</v>
+        <v>0.000121528832715434</v>
       </c>
       <c r="W367">
-        <v>1.001519295047098</v>
+        <v>0.001519295047098357</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27681,7 +27681,7 @@
         <v>1.535321633455148</v>
       </c>
       <c r="K368">
-        <v>60.55727262354499</v>
+        <v>0.1055727262354499</v>
       </c>
       <c r="L368">
         <v>0.01272839135561683</v>
@@ -27711,13 +27711,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U368">
-        <v>1.000131840493286</v>
+        <v>0.0001318404932864059</v>
       </c>
       <c r="V368">
-        <v>1.000101261721044</v>
+        <v>0.0001012617210440769</v>
       </c>
       <c r="W368">
-        <v>1.000303398058252</v>
+        <v>0.0003033980582523021</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27752,7 +27752,7 @@
         <v>1.301769290399497</v>
       </c>
       <c r="K369">
-        <v>56.55515936497532</v>
+        <v>0.06555159364975327</v>
       </c>
       <c r="L369">
         <v>0.01296668823990824</v>
@@ -27782,13 +27782,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U369">
-        <v>1.000121682874149</v>
+        <v>0.0001216828741494869</v>
       </c>
       <c r="V369">
-        <v>0.9999594994127414</v>
+        <v>-4.050058725857397E-05</v>
       </c>
       <c r="W369">
-        <v>0.9990900818926296</v>
+        <v>-0.0009099181073703999</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27823,7 +27823,7 @@
         <v>1.235807732053934</v>
       </c>
       <c r="K370">
-        <v>55.27343493524169</v>
+        <v>0.05273434935241683</v>
       </c>
       <c r="L370">
         <v>0.01289384896334297</v>
@@ -27853,13 +27853,13 @@
         <v>0.01312500000000227</v>
       </c>
       <c r="U370">
-        <v>1.000091251051922</v>
+        <v>9.125105192153704E-05</v>
       </c>
       <c r="V370">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W370">
-        <v>0.9996964177292047</v>
+        <v>-0.0003035822707952995</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27894,7 +27894,7 @@
         <v>0.7788475072474883</v>
       </c>
       <c r="K371">
-        <v>43.78382655479239</v>
+        <v>-0.06216173445207607</v>
       </c>
       <c r="L371">
         <v>0.0113719766156444</v>
@@ -27924,13 +27924,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U371">
-        <v>0.9999695857580245</v>
+        <v>-3.041424197547382E-05</v>
       </c>
       <c r="V371">
-        <v>0.9998177399756987</v>
+        <v>-0.0001822600243013284</v>
       </c>
       <c r="W371">
-        <v>0.9966595809292439</v>
+        <v>-0.003340419070756107</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27965,7 +27965,7 @@
         <v>0.7522303273695274</v>
       </c>
       <c r="K372">
-        <v>42.92987717538173</v>
+        <v>-0.07070122824618269</v>
       </c>
       <c r="L372">
         <v>0.008917588299682682</v>
@@ -27995,13 +27995,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U372">
-        <v>0.9999695848329699</v>
+        <v>-3.041516703006231E-05</v>
       </c>
       <c r="V372">
-        <v>0.9997366875291162</v>
+        <v>-0.0002633124708838475</v>
       </c>
       <c r="W372">
-        <v>0.9996953077391835</v>
+        <v>-0.0003046922608165303</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28036,7 +28036,7 @@
         <v>0.8241778750507989</v>
       </c>
       <c r="K373">
-        <v>45.18078452343073</v>
+        <v>-0.04819215476569272</v>
       </c>
       <c r="L373">
         <v>0.006243984921294833</v>
@@ -28066,13 +28066,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U373">
-        <v>1.00001013869738</v>
+        <v>1.013869738009099E-05</v>
       </c>
       <c r="V373">
-        <v>0.9998581790185989</v>
+        <v>-0.0001418209814011417</v>
       </c>
       <c r="W373">
-        <v>1.000609570252972</v>
+        <v>0.0006095702529715918</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28107,7 +28107,7 @@
         <v>0.7941073100234521</v>
       </c>
       <c r="K374">
-        <v>44.26197394029189</v>
+        <v>-0.05738026059708112</v>
       </c>
       <c r="L374">
         <v>0.003474576761197061</v>
@@ -28137,13 +28137,13 @@
         <v>-0.01062499999999744</v>
       </c>
       <c r="U374">
-        <v>1.000020277189176</v>
+        <v>2.02771891761877E-05</v>
       </c>
       <c r="V374">
-        <v>0.9998176328747138</v>
+        <v>-0.0001823671252861869</v>
       </c>
       <c r="W374">
-        <v>0.9996954005482791</v>
+        <v>-0.0003045994517208994</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28178,7 +28178,7 @@
         <v>0.7941073100234524</v>
       </c>
       <c r="K375">
-        <v>44.2619739402919</v>
+        <v>-0.05738026059708107</v>
       </c>
       <c r="L375">
         <v>0.0008109413776832741</v>
@@ -28208,13 +28208,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U375">
-        <v>1.00002027677802</v>
+        <v>2.027677801974548E-05</v>
       </c>
       <c r="V375">
-        <v>0.9998581330306838</v>
+        <v>-0.0001418669693161734</v>
       </c>
       <c r="W375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28249,7 +28249,7 @@
         <v>0.8345344879840536</v>
       </c>
       <c r="K376">
-        <v>45.4902588885703</v>
+        <v>-0.04509741111429699</v>
       </c>
       <c r="L376">
         <v>-0.001511212012251275</v>
@@ -28279,13 +28279,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U376">
-        <v>1.000070967284082</v>
+        <v>7.096728408195752E-05</v>
       </c>
       <c r="V376">
-        <v>0.9998986520725652</v>
+        <v>-0.0001013479274347695</v>
       </c>
       <c r="W376">
-        <v>1.000304692260817</v>
+        <v>0.0003046922608165303</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28320,7 +28320,7 @@
         <v>0.8004705254729878</v>
       </c>
       <c r="K377">
-        <v>44.45896304038092</v>
+        <v>-0.05541036959619078</v>
       </c>
       <c r="L377">
         <v>-0.003583853533212733</v>
@@ -28350,13 +28350,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U377">
-        <v>1.000040549856048</v>
+        <v>4.05498560480666E-05</v>
       </c>
       <c r="V377">
-        <v>0.9998378268801944</v>
+        <v>-0.0001621731198055976</v>
       </c>
       <c r="W377">
-        <v>0.9996954005482791</v>
+        <v>-0.0003045994517208994</v>
       </c>
     </row>
     <row r="378" spans="1:23">
@@ -28391,7 +28391,7 @@
         <v>0.8434367577372106</v>
       </c>
       <c r="K378">
-        <v>45.75349570291285</v>
+        <v>-0.0424650429708715</v>
       </c>
       <c r="L378">
         <v>-0.005249628147791796</v>
@@ -28421,13 +28421,13 @@
         <v>-0.05562499999999915</v>
       </c>
       <c r="U378">
-        <v>1.000081096423648</v>
+        <v>8.109642364750869E-05</v>
       </c>
       <c r="V378">
-        <v>0.999858075503832</v>
+        <v>-0.0001419244961680111</v>
       </c>
       <c r="W378">
-        <v>1.000304692260817</v>
+        <v>0.0003046922608165303</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -28462,7 +28462,7 @@
         <v>1.024347209376076</v>
       </c>
       <c r="K379">
-        <v>50.60135952131404</v>
+        <v>0.006013595213140377</v>
       </c>
       <c r="L379">
         <v>-0.006100857992838848</v>
@@ -28492,13 +28492,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U379">
-        <v>1.000081089847551</v>
+        <v>8.108984755117454E-05</v>
       </c>
       <c r="V379">
-        <v>0.9998783331643517</v>
+        <v>-0.0001216668356482931</v>
       </c>
       <c r="W379">
-        <v>1.001218397806884</v>
+        <v>0.00121839780688382</v>
       </c>
     </row>
     <row r="380" spans="1:23">
@@ -28533,7 +28533,7 @@
         <v>0.935292384293498</v>
       </c>
       <c r="K380">
-        <v>48.3282211971778</v>
+        <v>-0.01671778802822194</v>
       </c>
       <c r="L380">
         <v>-0.006603611794651394</v>
@@ -28563,13 +28563,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U380">
-        <v>1.000050677045325</v>
+        <v>5.067704532546458E-05</v>
       </c>
       <c r="V380">
-        <v>0.9998377578129753</v>
+        <v>-0.0001622421870246527</v>
       </c>
       <c r="W380">
-        <v>0.9993915424399149</v>
+        <v>-0.0006084575600850961</v>
       </c>
     </row>
     <row r="381" spans="1:23">
@@ -28604,7 +28604,7 @@
         <v>0.8568763595437869</v>
       </c>
       <c r="K381">
-        <v>46.14611819142937</v>
+        <v>-0.03853881808570625</v>
       </c>
       <c r="L381">
         <v>-0.007060660059233214</v>
@@ -28634,13 +28634,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U381">
-        <v>0.9999493255227073</v>
+        <v>-5.067447729267816E-05</v>
       </c>
       <c r="V381">
-        <v>0.9998377314861767</v>
+        <v>-0.0001622685138232827</v>
       </c>
       <c r="W381">
-        <v>0.9993911719939116</v>
+        <v>-0.0006088280060884133</v>
       </c>
     </row>
     <row r="382" spans="1:23">
@@ -28675,7 +28675,7 @@
         <v>0.7873864486262961</v>
       </c>
       <c r="K382">
-        <v>44.05238997036403</v>
+        <v>-0.05947610029635975</v>
       </c>
       <c r="L382">
         <v>-0.007656737681479869</v>
@@ -28705,13 +28705,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U382">
-        <v>0.999908781318414</v>
+        <v>-9.121868158601387E-05</v>
       </c>
       <c r="V382">
-        <v>0.9996956971578113</v>
+        <v>-0.0003043028421887417</v>
       </c>
       <c r="W382">
-        <v>0.9993908010965582</v>
+        <v>-0.0006091989034417988</v>
       </c>
     </row>
     <row r="383" spans="1:23">
@@ -28746,7 +28746,7 @@
         <v>0.7873864486262963</v>
       </c>
       <c r="K383">
-        <v>44.05238997036403</v>
+        <v>-0.05947610029635975</v>
       </c>
       <c r="L383">
         <v>-0.008271287354941667</v>
@@ -28776,13 +28776,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U383">
-        <v>0.999888500329431</v>
+        <v>-0.0001114996705690041</v>
       </c>
       <c r="V383">
-        <v>0.9996753114980316</v>
+        <v>-0.0003246885019684287</v>
       </c>
       <c r="W383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
